--- a/UPGRADE 3100-5000.xlsx
+++ b/UPGRADE 3100-5000.xlsx
@@ -931,16 +931,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -949,6 +956,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,6 +993,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -985,70 +1061,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1056,20 +1070,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1168,7 +1168,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,7 +1234,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1198,7 +1252,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,73 +1318,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,49 +1330,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1625,6 +1625,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1636,6 +1647,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1655,44 +1675,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1704,6 +1686,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1722,16 +1713,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1746,128 +1746,128 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2498,12 +2498,12 @@
   <sheetPr/>
   <dimension ref="A1:DP663"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="H1" workbookViewId="0">
-      <pane xSplit="6810" ySplit="1170" topLeftCell="AF47" activePane="bottomRight"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="I1" workbookViewId="0">
+      <pane xSplit="5745" ySplit="1170" topLeftCell="AK47" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AR59" sqref="AR59"/>
+      <selection pane="bottomRight" activeCell="BA60" sqref="BA60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="11.25"/>
@@ -5044,15 +5044,15 @@
       </c>
       <c r="K17" s="24">
         <f t="shared" ref="K17:K21" si="0">MAX(AH18:DP18)</f>
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L17" s="63">
         <f t="shared" ref="L17:L21" si="1">J17-K17</f>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M17" s="24">
         <f>K17-K19</f>
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N17" s="24">
         <v>1</v>
@@ -5440,13 +5440,27 @@
       <c r="AU18" s="81">
         <v>56</v>
       </c>
-      <c r="AV18" s="81"/>
-      <c r="AW18" s="81"/>
-      <c r="AX18" s="81"/>
-      <c r="AY18" s="81"/>
-      <c r="AZ18" s="81"/>
-      <c r="BA18" s="81"/>
-      <c r="BB18" s="81"/>
+      <c r="AV18" s="81">
+        <v>56</v>
+      </c>
+      <c r="AW18" s="81">
+        <v>68</v>
+      </c>
+      <c r="AX18" s="81">
+        <v>68</v>
+      </c>
+      <c r="AY18" s="81">
+        <v>68</v>
+      </c>
+      <c r="AZ18" s="81">
+        <v>71</v>
+      </c>
+      <c r="BA18" s="81">
+        <v>71</v>
+      </c>
+      <c r="BB18" s="81">
+        <v>71</v>
+      </c>
       <c r="BC18" s="81"/>
       <c r="BD18" s="81"/>
       <c r="BE18" s="81"/>
@@ -5548,11 +5562,11 @@
       </c>
       <c r="K19" s="29">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="L19" s="65">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="M19" s="29">
         <v>0</v>
@@ -5941,13 +5955,27 @@
       <c r="AU20" s="68">
         <v>33</v>
       </c>
-      <c r="AV20" s="68"/>
-      <c r="AW20" s="68"/>
-      <c r="AX20" s="68"/>
-      <c r="AY20" s="68"/>
-      <c r="AZ20" s="68"/>
-      <c r="BA20" s="68"/>
-      <c r="BB20" s="68"/>
+      <c r="AV20" s="68">
+        <v>33</v>
+      </c>
+      <c r="AW20" s="68">
+        <v>34</v>
+      </c>
+      <c r="AX20" s="68">
+        <v>38</v>
+      </c>
+      <c r="AY20" s="68">
+        <v>53</v>
+      </c>
+      <c r="AZ20" s="68">
+        <v>53</v>
+      </c>
+      <c r="BA20" s="68">
+        <v>53</v>
+      </c>
+      <c r="BB20" s="68">
+        <v>53</v>
+      </c>
       <c r="BC20" s="68"/>
       <c r="BD20" s="68"/>
       <c r="BE20" s="68"/>
@@ -6044,15 +6072,15 @@
       </c>
       <c r="K21" s="24">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L21" s="63">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M21" s="24">
         <f>K21-K23</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N21" s="24">
         <v>1</v>
@@ -6362,13 +6390,27 @@
       <c r="AU22" s="57">
         <v>51</v>
       </c>
-      <c r="AV22" s="57"/>
-      <c r="AW22" s="57"/>
-      <c r="AX22" s="57"/>
-      <c r="AY22" s="57"/>
-      <c r="AZ22" s="57"/>
-      <c r="BA22" s="57"/>
-      <c r="BB22" s="57"/>
+      <c r="AV22" s="57">
+        <v>51</v>
+      </c>
+      <c r="AW22" s="57">
+        <v>52</v>
+      </c>
+      <c r="AX22" s="57">
+        <v>51</v>
+      </c>
+      <c r="AY22" s="57">
+        <v>51</v>
+      </c>
+      <c r="AZ22" s="57">
+        <v>50</v>
+      </c>
+      <c r="BA22" s="57">
+        <v>49</v>
+      </c>
+      <c r="BB22" s="57">
+        <v>49</v>
+      </c>
       <c r="BC22" s="57"/>
       <c r="BD22" s="57"/>
       <c r="BE22" s="57"/>
@@ -6466,11 +6508,11 @@
       </c>
       <c r="K23" s="29">
         <f t="shared" ref="K23:K27" si="8">MAX(AH24:DP24)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L23" s="65">
         <f t="shared" ref="L23:L27" si="9">J23-K23</f>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M23" s="29"/>
       <c r="N23" s="29">
@@ -6779,13 +6821,27 @@
       <c r="AU24" s="68">
         <v>39</v>
       </c>
-      <c r="AV24" s="68"/>
-      <c r="AW24" s="68"/>
-      <c r="AX24" s="68"/>
-      <c r="AY24" s="68"/>
-      <c r="AZ24" s="68"/>
-      <c r="BA24" s="68"/>
-      <c r="BB24" s="68"/>
+      <c r="AV24" s="68">
+        <v>39</v>
+      </c>
+      <c r="AW24" s="68">
+        <v>39</v>
+      </c>
+      <c r="AX24" s="68">
+        <v>40</v>
+      </c>
+      <c r="AY24" s="68">
+        <v>42</v>
+      </c>
+      <c r="AZ24" s="68">
+        <v>42</v>
+      </c>
+      <c r="BA24" s="68">
+        <v>42</v>
+      </c>
+      <c r="BB24" s="68">
+        <v>42</v>
+      </c>
       <c r="BC24" s="68"/>
       <c r="BD24" s="68"/>
       <c r="BE24" s="68"/>
@@ -6882,15 +6938,15 @@
       </c>
       <c r="K25" s="24">
         <f t="shared" si="8"/>
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="L25" s="63">
         <f t="shared" si="9"/>
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M25" s="24">
         <f>K25-K27</f>
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="N25" s="24">
         <v>2</v>
@@ -7320,13 +7376,27 @@
       <c r="AU26" s="57">
         <v>117</v>
       </c>
-      <c r="AV26" s="57"/>
-      <c r="AW26" s="57"/>
-      <c r="AX26" s="57"/>
-      <c r="AY26" s="57"/>
-      <c r="AZ26" s="57"/>
-      <c r="BA26" s="57"/>
-      <c r="BB26" s="57"/>
+      <c r="AV26" s="57">
+        <v>117</v>
+      </c>
+      <c r="AW26" s="57">
+        <v>119</v>
+      </c>
+      <c r="AX26" s="57">
+        <v>119</v>
+      </c>
+      <c r="AY26" s="57">
+        <v>119</v>
+      </c>
+      <c r="AZ26" s="57">
+        <v>118</v>
+      </c>
+      <c r="BA26" s="57">
+        <v>124</v>
+      </c>
+      <c r="BB26" s="57">
+        <v>125</v>
+      </c>
       <c r="BC26" s="57"/>
       <c r="BD26" s="57"/>
       <c r="BE26" s="57"/>
@@ -7424,11 +7494,11 @@
       </c>
       <c r="K27" s="29">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="L27" s="65">
         <f t="shared" si="9"/>
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="M27" s="29"/>
       <c r="N27" s="29">
@@ -7857,13 +7927,27 @@
       <c r="AU28" s="68">
         <v>2</v>
       </c>
-      <c r="AV28" s="68"/>
-      <c r="AW28" s="68"/>
-      <c r="AX28" s="68"/>
-      <c r="AY28" s="68"/>
-      <c r="AZ28" s="68"/>
-      <c r="BA28" s="68"/>
-      <c r="BB28" s="68"/>
+      <c r="AV28" s="68">
+        <v>2</v>
+      </c>
+      <c r="AW28" s="68">
+        <v>2</v>
+      </c>
+      <c r="AX28" s="68">
+        <v>2</v>
+      </c>
+      <c r="AY28" s="68">
+        <v>3</v>
+      </c>
+      <c r="AZ28" s="68">
+        <v>7</v>
+      </c>
+      <c r="BA28" s="68">
+        <v>9</v>
+      </c>
+      <c r="BB28" s="68">
+        <v>22</v>
+      </c>
       <c r="BC28" s="68"/>
       <c r="BD28" s="68"/>
       <c r="BE28" s="68"/>
@@ -8327,13 +8411,27 @@
       <c r="AU30" s="57">
         <v>38</v>
       </c>
-      <c r="AV30" s="57"/>
-      <c r="AW30" s="57"/>
-      <c r="AX30" s="57"/>
-      <c r="AY30" s="57"/>
-      <c r="AZ30" s="57"/>
-      <c r="BA30" s="57"/>
-      <c r="BB30" s="57"/>
+      <c r="AV30" s="57">
+        <v>38</v>
+      </c>
+      <c r="AW30" s="57">
+        <v>38</v>
+      </c>
+      <c r="AX30" s="57">
+        <v>38</v>
+      </c>
+      <c r="AY30" s="57">
+        <v>38</v>
+      </c>
+      <c r="AZ30" s="57">
+        <v>38</v>
+      </c>
+      <c r="BA30" s="57">
+        <v>38</v>
+      </c>
+      <c r="BB30" s="57">
+        <v>38</v>
+      </c>
       <c r="BC30" s="57"/>
       <c r="BD30" s="57"/>
       <c r="BE30" s="57"/>
@@ -8793,13 +8891,27 @@
       <c r="AU32" s="68">
         <v>1</v>
       </c>
-      <c r="AV32" s="68"/>
-      <c r="AW32" s="68"/>
-      <c r="AX32" s="68"/>
-      <c r="AY32" s="68"/>
-      <c r="AZ32" s="68"/>
-      <c r="BA32" s="68"/>
-      <c r="BB32" s="68"/>
+      <c r="AV32" s="68">
+        <v>1</v>
+      </c>
+      <c r="AW32" s="68">
+        <v>1</v>
+      </c>
+      <c r="AX32" s="68">
+        <v>1</v>
+      </c>
+      <c r="AY32" s="68">
+        <v>1</v>
+      </c>
+      <c r="AZ32" s="68">
+        <v>1</v>
+      </c>
+      <c r="BA32" s="68">
+        <v>1</v>
+      </c>
+      <c r="BB32" s="68">
+        <v>1</v>
+      </c>
       <c r="BC32" s="68"/>
       <c r="BD32" s="68"/>
       <c r="BE32" s="68"/>
@@ -9259,13 +9371,27 @@
       <c r="AU34" s="57">
         <v>40</v>
       </c>
-      <c r="AV34" s="57"/>
-      <c r="AW34" s="57"/>
-      <c r="AX34" s="57"/>
-      <c r="AY34" s="57"/>
-      <c r="AZ34" s="57"/>
-      <c r="BA34" s="57"/>
-      <c r="BB34" s="57"/>
+      <c r="AV34" s="57">
+        <v>40</v>
+      </c>
+      <c r="AW34" s="57">
+        <v>40</v>
+      </c>
+      <c r="AX34" s="57">
+        <v>40</v>
+      </c>
+      <c r="AY34" s="57">
+        <v>40</v>
+      </c>
+      <c r="AZ34" s="57">
+        <v>40</v>
+      </c>
+      <c r="BA34" s="57">
+        <v>40</v>
+      </c>
+      <c r="BB34" s="57">
+        <v>40</v>
+      </c>
       <c r="BC34" s="57"/>
       <c r="BD34" s="57"/>
       <c r="BE34" s="57"/>
@@ -9724,13 +9850,27 @@
       <c r="AU36" s="68">
         <v>0</v>
       </c>
-      <c r="AV36" s="68"/>
-      <c r="AW36" s="68"/>
-      <c r="AX36" s="68"/>
-      <c r="AY36" s="68"/>
-      <c r="AZ36" s="68"/>
-      <c r="BA36" s="68"/>
-      <c r="BB36" s="68"/>
+      <c r="AV36" s="68">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="68">
+        <v>0</v>
+      </c>
+      <c r="AX36" s="68">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="68">
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="68">
+        <v>0</v>
+      </c>
+      <c r="BA36" s="68">
+        <v>0</v>
+      </c>
+      <c r="BB36" s="68">
+        <v>0</v>
+      </c>
       <c r="BC36" s="68"/>
       <c r="BD36" s="68"/>
       <c r="BE36" s="68"/>
@@ -10256,13 +10396,27 @@
       <c r="AU38" s="57">
         <v>82</v>
       </c>
-      <c r="AV38" s="57"/>
-      <c r="AW38" s="57"/>
-      <c r="AX38" s="57"/>
-      <c r="AY38" s="57"/>
-      <c r="AZ38" s="57"/>
-      <c r="BA38" s="57"/>
-      <c r="BB38" s="57"/>
+      <c r="AV38" s="57">
+        <v>82</v>
+      </c>
+      <c r="AW38" s="57">
+        <v>82</v>
+      </c>
+      <c r="AX38" s="57">
+        <v>82</v>
+      </c>
+      <c r="AY38" s="57">
+        <v>82</v>
+      </c>
+      <c r="AZ38" s="57">
+        <v>82</v>
+      </c>
+      <c r="BA38" s="57">
+        <v>82</v>
+      </c>
+      <c r="BB38" s="57">
+        <v>82</v>
+      </c>
       <c r="BC38" s="57"/>
       <c r="BD38" s="57"/>
       <c r="BE38" s="57"/>
@@ -10787,13 +10941,27 @@
       <c r="AU40" s="68">
         <v>0</v>
       </c>
-      <c r="AV40" s="68"/>
-      <c r="AW40" s="68"/>
-      <c r="AX40" s="68"/>
-      <c r="AY40" s="68"/>
-      <c r="AZ40" s="68"/>
-      <c r="BA40" s="68"/>
-      <c r="BB40" s="68"/>
+      <c r="AV40" s="68">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="68">
+        <v>0</v>
+      </c>
+      <c r="AX40" s="68">
+        <v>0</v>
+      </c>
+      <c r="AY40" s="68">
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="68">
+        <v>0</v>
+      </c>
+      <c r="BA40" s="68">
+        <v>0</v>
+      </c>
+      <c r="BB40" s="68">
+        <v>0</v>
+      </c>
       <c r="BC40" s="68"/>
       <c r="BD40" s="68"/>
       <c r="BE40" s="68"/>
@@ -11629,7 +11797,7 @@
       </c>
       <c r="M45" s="24">
         <f>K45-K47</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N45" s="24">
         <v>0</v>
@@ -11915,11 +12083,11 @@
       </c>
       <c r="K47" s="29">
         <f t="shared" ref="K47:K51" si="35">MAX(AH48:DP48)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="65">
         <f t="shared" ref="L47:L51" si="36">J47-K47</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M47" s="29">
         <f>MAX(O48:DP48)-K47</f>
@@ -12107,29 +12275,75 @@
       <c r="AU48" s="68"/>
       <c r="AV48" s="68"/>
       <c r="AW48" s="68"/>
-      <c r="AX48" s="68"/>
-      <c r="AY48" s="68"/>
-      <c r="AZ48" s="68"/>
-      <c r="BA48" s="68"/>
-      <c r="BB48" s="68"/>
-      <c r="BC48" s="68"/>
-      <c r="BD48" s="68"/>
-      <c r="BE48" s="68"/>
-      <c r="BF48" s="68"/>
-      <c r="BG48" s="68"/>
-      <c r="BH48" s="68"/>
-      <c r="BI48" s="68"/>
-      <c r="BJ48" s="68"/>
-      <c r="BK48" s="68"/>
-      <c r="BL48" s="68"/>
-      <c r="BM48" s="68"/>
-      <c r="BN48" s="68"/>
-      <c r="BO48" s="68"/>
-      <c r="BP48" s="68"/>
-      <c r="BQ48" s="68"/>
-      <c r="BR48" s="68"/>
-      <c r="BS48" s="68"/>
-      <c r="BT48" s="68"/>
+      <c r="AX48" s="68">
+        <v>1</v>
+      </c>
+      <c r="AY48" s="68">
+        <v>1</v>
+      </c>
+      <c r="AZ48" s="68">
+        <v>1</v>
+      </c>
+      <c r="BA48" s="68">
+        <v>1</v>
+      </c>
+      <c r="BB48" s="68">
+        <v>1</v>
+      </c>
+      <c r="BC48" s="68">
+        <v>1</v>
+      </c>
+      <c r="BD48" s="68">
+        <v>1</v>
+      </c>
+      <c r="BE48" s="68">
+        <v>1</v>
+      </c>
+      <c r="BF48" s="68">
+        <v>1</v>
+      </c>
+      <c r="BG48" s="68">
+        <v>1</v>
+      </c>
+      <c r="BH48" s="68">
+        <v>1</v>
+      </c>
+      <c r="BI48" s="68">
+        <v>1</v>
+      </c>
+      <c r="BJ48" s="68">
+        <v>1</v>
+      </c>
+      <c r="BK48" s="68">
+        <v>1</v>
+      </c>
+      <c r="BL48" s="68">
+        <v>1</v>
+      </c>
+      <c r="BM48" s="68">
+        <v>1</v>
+      </c>
+      <c r="BN48" s="68">
+        <v>1</v>
+      </c>
+      <c r="BO48" s="68">
+        <v>1</v>
+      </c>
+      <c r="BP48" s="68">
+        <v>1</v>
+      </c>
+      <c r="BQ48" s="68">
+        <v>1</v>
+      </c>
+      <c r="BR48" s="68">
+        <v>1</v>
+      </c>
+      <c r="BS48" s="68">
+        <v>1</v>
+      </c>
+      <c r="BT48" s="68">
+        <v>1</v>
+      </c>
       <c r="BU48" s="68"/>
       <c r="BV48" s="68"/>
       <c r="BW48" s="68"/>
@@ -12763,15 +12977,15 @@
       </c>
       <c r="K53" s="24">
         <f>MAX(AH54:DP54)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L53" s="63">
         <f t="shared" ref="L53:L59" si="37">J53-K53</f>
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M53" s="24">
         <f>K53-K55</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N53" s="24">
         <v>1</v>
@@ -13215,13 +13429,27 @@
       <c r="AU54" s="57">
         <v>0</v>
       </c>
-      <c r="AV54" s="57"/>
-      <c r="AW54" s="57"/>
-      <c r="AX54" s="57"/>
-      <c r="AY54" s="57"/>
-      <c r="AZ54" s="57"/>
-      <c r="BA54" s="57"/>
-      <c r="BB54" s="57"/>
+      <c r="AV54" s="57">
+        <v>3</v>
+      </c>
+      <c r="AW54" s="57">
+        <v>3</v>
+      </c>
+      <c r="AX54" s="57">
+        <v>3</v>
+      </c>
+      <c r="AY54" s="57">
+        <v>3</v>
+      </c>
+      <c r="AZ54" s="57">
+        <v>3</v>
+      </c>
+      <c r="BA54" s="57">
+        <v>3</v>
+      </c>
+      <c r="BB54" s="57">
+        <v>3</v>
+      </c>
       <c r="BC54" s="57"/>
       <c r="BD54" s="57"/>
       <c r="BE54" s="57"/>
@@ -13765,13 +13993,27 @@
       <c r="AU56" s="68">
         <v>0</v>
       </c>
-      <c r="AV56" s="68"/>
-      <c r="AW56" s="68"/>
-      <c r="AX56" s="68"/>
-      <c r="AY56" s="68"/>
-      <c r="AZ56" s="68"/>
-      <c r="BA56" s="68"/>
-      <c r="BB56" s="68"/>
+      <c r="AV56" s="68">
+        <v>0</v>
+      </c>
+      <c r="AW56" s="68">
+        <v>0</v>
+      </c>
+      <c r="AX56" s="68">
+        <v>0</v>
+      </c>
+      <c r="AY56" s="68">
+        <v>0</v>
+      </c>
+      <c r="AZ56" s="68">
+        <v>0</v>
+      </c>
+      <c r="BA56" s="68">
+        <v>0</v>
+      </c>
+      <c r="BB56" s="68">
+        <v>0</v>
+      </c>
       <c r="BC56" s="68"/>
       <c r="BD56" s="68"/>
       <c r="BE56" s="68"/>
@@ -13867,15 +14109,15 @@
       </c>
       <c r="K57" s="69">
         <f>MAX(O58:DP58)</f>
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="L57" s="70">
         <f t="shared" si="37"/>
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="M57" s="69">
         <f>K57-K59</f>
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="N57" s="69">
         <v>9</v>
@@ -14279,7 +14521,7 @@
       <c r="AF58" s="57"/>
       <c r="AG58" s="57"/>
       <c r="AH58" s="57">
-        <f t="shared" ref="AH58:AR58" si="45">AH18+AH22+AH26+AH30+AH34+AH38+AH42+AH46+AH50+AH54</f>
+        <f t="shared" ref="AH58:AZ58" si="45">AH18+AH22+AH26+AH30+AH34+AH38+AH42+AH46+AH50+AH54</f>
         <v>231</v>
       </c>
       <c r="AI58" s="57">
@@ -14323,24 +14565,45 @@
         <v>384</v>
       </c>
       <c r="AS58" s="57">
-        <f>AS18+AS22+AS26+AS30+AS34+AS38+AS42+AS46+AS50+AS54</f>
+        <f t="shared" si="45"/>
         <v>384</v>
       </c>
       <c r="AT58" s="57">
-        <f>AT18+AT22+AT26+AT30+AT34+AT38+AT42+AT46+AT50+AT54</f>
+        <f t="shared" si="45"/>
         <v>384</v>
       </c>
       <c r="AU58" s="57">
-        <f>AU18+AU22+AU26+AU30+AU34+AU38+AU42+AU46+AU50+AU54</f>
+        <f t="shared" si="45"/>
         <v>384</v>
       </c>
-      <c r="AV58" s="57"/>
-      <c r="AW58" s="57"/>
-      <c r="AX58" s="57"/>
-      <c r="AY58" s="57"/>
-      <c r="AZ58" s="57"/>
-      <c r="BA58" s="57"/>
-      <c r="BB58" s="57"/>
+      <c r="AV58" s="57">
+        <f t="shared" si="45"/>
+        <v>387</v>
+      </c>
+      <c r="AW58" s="57">
+        <f t="shared" si="45"/>
+        <v>402</v>
+      </c>
+      <c r="AX58" s="57">
+        <f t="shared" si="45"/>
+        <v>401</v>
+      </c>
+      <c r="AY58" s="57">
+        <f t="shared" si="45"/>
+        <v>401</v>
+      </c>
+      <c r="AZ58" s="57">
+        <f t="shared" si="45"/>
+        <v>402</v>
+      </c>
+      <c r="BA58" s="57">
+        <f>BA18+BA22+BA26+BA30+BA34+BA38+BA42+BA46+BA50+BA54</f>
+        <v>407</v>
+      </c>
+      <c r="BB58" s="57">
+        <f>BB18+BB22+BB26+BB30+BB34+BB38+BB42+BB46+BB50+BB54</f>
+        <v>408</v>
+      </c>
       <c r="BC58" s="57"/>
       <c r="BD58" s="57"/>
       <c r="BE58" s="57"/>
@@ -14426,11 +14689,11 @@
       </c>
       <c r="K59" s="71">
         <f>MAX(O60:DP60)</f>
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="L59" s="72">
         <f t="shared" si="37"/>
-        <v>832</v>
+        <v>788</v>
       </c>
       <c r="M59" s="71">
         <v>0</v>
@@ -14841,7 +15104,7 @@
       <c r="AF60" s="75"/>
       <c r="AG60" s="75"/>
       <c r="AH60" s="75">
-        <f t="shared" ref="AH60:AR60" si="51">AH20+AH24+AH28+AH32+AH36+AH40+AH44+AH48+AH52+AH56</f>
+        <f t="shared" ref="AH60:AZ60" si="51">AH20+AH24+AH28+AH32+AH36+AH40+AH44+AH48+AH52+AH56</f>
         <v>68</v>
       </c>
       <c r="AI60" s="75">
@@ -14885,24 +15148,45 @@
         <v>73</v>
       </c>
       <c r="AS60" s="75">
-        <f>AS20+AS24+AS28+AS32+AS36+AS40+AS44+AS48+AS52+AS56</f>
+        <f t="shared" si="51"/>
         <v>75</v>
       </c>
       <c r="AT60" s="75">
-        <f>AT20+AT24+AT28+AT32+AT36+AT40+AT44+AT48+AT52+AT56</f>
+        <f t="shared" si="51"/>
         <v>75</v>
       </c>
       <c r="AU60" s="75">
-        <f>AU20+AU24+AU28+AU32+AU36+AU40+AU44+AU48+AU52+AU56</f>
+        <f t="shared" si="51"/>
         <v>75</v>
       </c>
-      <c r="AV60" s="75"/>
-      <c r="AW60" s="75"/>
-      <c r="AX60" s="75"/>
-      <c r="AY60" s="75"/>
-      <c r="AZ60" s="75"/>
-      <c r="BA60" s="75"/>
-      <c r="BB60" s="75"/>
+      <c r="AV60" s="75">
+        <f t="shared" si="51"/>
+        <v>75</v>
+      </c>
+      <c r="AW60" s="75">
+        <f t="shared" si="51"/>
+        <v>76</v>
+      </c>
+      <c r="AX60" s="75">
+        <f t="shared" si="51"/>
+        <v>82</v>
+      </c>
+      <c r="AY60" s="75">
+        <f t="shared" si="51"/>
+        <v>100</v>
+      </c>
+      <c r="AZ60" s="75">
+        <f t="shared" si="51"/>
+        <v>104</v>
+      </c>
+      <c r="BA60" s="75">
+        <f>BA20+BA24+BA28+BA32+BA36+BA40+BA44+BA48+BA52+BA56</f>
+        <v>106</v>
+      </c>
+      <c r="BB60" s="75">
+        <f>BB20+BB24+BB28+BB32+BB36+BB40+BB44+BB48+BB52+BB56</f>
+        <v>119</v>
+      </c>
       <c r="BC60" s="75"/>
       <c r="BD60" s="75"/>
       <c r="BE60" s="75"/>

--- a/UPGRADE 3100-5000.xlsx
+++ b/UPGRADE 3100-5000.xlsx
@@ -278,6 +278,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -315,6 +320,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -346,6 +356,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -368,6 +383,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -396,6 +416,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -421,6 +446,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -443,6 +473,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -471,6 +506,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -493,6 +533,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -515,6 +560,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -543,6 +593,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -568,6 +623,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -590,6 +650,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -618,6 +683,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -643,6 +713,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -665,6 +740,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -693,6 +773,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -715,6 +800,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -737,6 +827,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -765,6 +860,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -787,6 +887,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -809,6 +914,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -837,6 +947,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -859,6 +974,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -881,6 +1001,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -909,6 +1034,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -931,6 +1061,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -953,6 +1088,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -978,6 +1118,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -1003,6 +1148,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">VALIDACIÓN DEL MODULO DE </t>
     </r>
     <r>
@@ -1044,10 +1194,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1086,15 +1236,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1108,15 +1252,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1125,7 +1274,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1139,16 +1303,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,23 +1334,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1209,10 +1357,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1224,16 +1380,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1329,7 +1479,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,7 +1563,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1359,139 +1641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1723,41 +1873,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1769,6 +1884,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1792,6 +1916,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1823,13 +1973,13 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1844,128 +1994,128 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2588,11 +2738,11 @@
   <dimension ref="A1:DP685"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="I1" workbookViewId="0">
-      <pane xSplit="5745" ySplit="1170" topLeftCell="AF18" activePane="bottomRight"/>
+      <pane xSplit="5745" ySplit="1170" topLeftCell="AN72" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM21" sqref="AM21"/>
+      <selection pane="bottomRight" activeCell="BD80" sqref="BD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="11.25"/>
@@ -5141,7 +5291,7 @@
       </c>
       <c r="M17" s="24">
         <f>K17-K19</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N17" s="24">
         <v>1</v>
@@ -5550,8 +5700,12 @@
       <c r="BB18" s="60">
         <v>71</v>
       </c>
-      <c r="BC18" s="60"/>
-      <c r="BD18" s="60"/>
+      <c r="BC18" s="60">
+        <v>71</v>
+      </c>
+      <c r="BD18" s="60">
+        <v>68</v>
+      </c>
       <c r="BE18" s="60"/>
       <c r="BF18" s="60"/>
       <c r="BG18" s="60"/>
@@ -5651,15 +5805,15 @@
       </c>
       <c r="K19" s="29">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L19" s="51">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M19" s="29">
         <f>K19-K21</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N19" s="29">
         <v>1</v>
@@ -6066,8 +6220,12 @@
       <c r="BB20" s="43">
         <v>53</v>
       </c>
-      <c r="BC20" s="43"/>
-      <c r="BD20" s="43"/>
+      <c r="BC20" s="43">
+        <v>53</v>
+      </c>
+      <c r="BD20" s="43">
+        <v>55</v>
+      </c>
       <c r="BE20" s="43"/>
       <c r="BF20" s="43"/>
       <c r="BG20" s="43"/>
@@ -6433,7 +6591,7 @@
       </c>
       <c r="M23" s="24">
         <f>K23-K25</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N23" s="24">
         <v>1</v>
@@ -6764,8 +6922,12 @@
       <c r="BB24" s="43">
         <v>49</v>
       </c>
-      <c r="BC24" s="43"/>
-      <c r="BD24" s="43"/>
+      <c r="BC24" s="43">
+        <v>49</v>
+      </c>
+      <c r="BD24" s="43">
+        <v>49</v>
+      </c>
       <c r="BE24" s="43"/>
       <c r="BF24" s="43"/>
       <c r="BG24" s="43"/>
@@ -6861,15 +7023,15 @@
       </c>
       <c r="K25" s="29">
         <f t="shared" si="7"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L25" s="51">
         <f t="shared" si="8"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M25" s="29">
         <f>K25-K27</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N25" s="29">
         <v>1</v>
@@ -7198,8 +7360,12 @@
       <c r="BB26" s="43">
         <v>42</v>
       </c>
-      <c r="BC26" s="43"/>
-      <c r="BD26" s="43"/>
+      <c r="BC26" s="43">
+        <v>42</v>
+      </c>
+      <c r="BD26" s="43">
+        <v>43</v>
+      </c>
       <c r="BE26" s="43"/>
       <c r="BF26" s="43"/>
       <c r="BG26" s="43"/>
@@ -7565,7 +7731,7 @@
       </c>
       <c r="M29" s="24">
         <f>K29-K31</f>
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="N29" s="24">
         <v>2</v>
@@ -8016,8 +8182,12 @@
       <c r="BB30" s="43">
         <v>125</v>
       </c>
-      <c r="BC30" s="43"/>
-      <c r="BD30" s="43"/>
+      <c r="BC30" s="43">
+        <v>122</v>
+      </c>
+      <c r="BD30" s="43">
+        <v>114</v>
+      </c>
       <c r="BE30" s="43"/>
       <c r="BF30" s="43"/>
       <c r="BG30" s="43"/>
@@ -8113,15 +8283,15 @@
       </c>
       <c r="K31" s="29">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="L31" s="51">
         <f t="shared" si="12"/>
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="M31" s="29">
         <f>K31-K33</f>
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="N31" s="29">
         <v>2</v>
@@ -8570,8 +8740,12 @@
       <c r="BB32" s="43">
         <v>22</v>
       </c>
-      <c r="BC32" s="43"/>
-      <c r="BD32" s="43"/>
+      <c r="BC32" s="43">
+        <v>25</v>
+      </c>
+      <c r="BD32" s="43">
+        <v>55</v>
+      </c>
       <c r="BE32" s="43"/>
       <c r="BF32" s="43"/>
       <c r="BG32" s="43"/>
@@ -9315,8 +9489,12 @@
       <c r="BB36" s="43">
         <v>38</v>
       </c>
-      <c r="BC36" s="43"/>
-      <c r="BD36" s="43"/>
+      <c r="BC36" s="43">
+        <v>38</v>
+      </c>
+      <c r="BD36" s="43">
+        <v>38</v>
+      </c>
       <c r="BE36" s="43"/>
       <c r="BF36" s="43"/>
       <c r="BG36" s="43"/>
@@ -9798,8 +9976,12 @@
       <c r="BB38" s="43">
         <v>1</v>
       </c>
-      <c r="BC38" s="43"/>
-      <c r="BD38" s="43"/>
+      <c r="BC38" s="43">
+        <v>1</v>
+      </c>
+      <c r="BD38" s="43">
+        <v>1</v>
+      </c>
       <c r="BE38" s="43"/>
       <c r="BF38" s="43"/>
       <c r="BG38" s="43"/>
@@ -10541,8 +10723,12 @@
       <c r="BB42" s="43">
         <v>40</v>
       </c>
-      <c r="BC42" s="43"/>
-      <c r="BD42" s="43"/>
+      <c r="BC42" s="43">
+        <v>40</v>
+      </c>
+      <c r="BD42" s="43">
+        <v>40</v>
+      </c>
       <c r="BE42" s="43"/>
       <c r="BF42" s="43"/>
       <c r="BG42" s="43"/>
@@ -11020,8 +11206,12 @@
       <c r="BB44" s="43">
         <v>0</v>
       </c>
-      <c r="BC44" s="43"/>
-      <c r="BD44" s="43"/>
+      <c r="BC44" s="43">
+        <v>0</v>
+      </c>
+      <c r="BD44" s="43">
+        <v>0</v>
+      </c>
       <c r="BE44" s="43"/>
       <c r="BF44" s="43"/>
       <c r="BG44" s="43"/>
@@ -11385,7 +11575,7 @@
       </c>
       <c r="M47" s="24">
         <f>K47-K49</f>
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N47" s="24">
         <v>2</v>
@@ -11829,8 +12019,12 @@
       <c r="BB48" s="43">
         <v>82</v>
       </c>
-      <c r="BC48" s="43"/>
-      <c r="BD48" s="43"/>
+      <c r="BC48" s="43">
+        <v>82</v>
+      </c>
+      <c r="BD48" s="43">
+        <v>82</v>
+      </c>
       <c r="BE48" s="43"/>
       <c r="BF48" s="43"/>
       <c r="BG48" s="43"/>
@@ -11924,15 +12118,15 @@
       </c>
       <c r="K49" s="29">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L49" s="51">
         <f t="shared" si="29"/>
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M49" s="29">
         <f>K49-K51</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N49" s="29">
         <v>2</v>
@@ -12374,8 +12568,12 @@
       <c r="BB50" s="43">
         <v>0</v>
       </c>
-      <c r="BC50" s="43"/>
-      <c r="BD50" s="43"/>
+      <c r="BC50" s="43">
+        <v>3</v>
+      </c>
+      <c r="BD50" s="43">
+        <v>5</v>
+      </c>
       <c r="BE50" s="43"/>
       <c r="BF50" s="43"/>
       <c r="BG50" s="43"/>
@@ -15914,8 +16112,12 @@
       <c r="BB72" s="43">
         <v>3</v>
       </c>
-      <c r="BC72" s="43"/>
-      <c r="BD72" s="43"/>
+      <c r="BC72" s="43">
+        <v>3</v>
+      </c>
+      <c r="BD72" s="43">
+        <v>3</v>
+      </c>
       <c r="BE72" s="43"/>
       <c r="BF72" s="43"/>
       <c r="BG72" s="43"/>
@@ -16478,8 +16680,12 @@
       <c r="BB74" s="43">
         <v>0</v>
       </c>
-      <c r="BC74" s="43"/>
-      <c r="BD74" s="43"/>
+      <c r="BC74" s="43">
+        <v>0</v>
+      </c>
+      <c r="BD74" s="43">
+        <v>0</v>
+      </c>
       <c r="BE74" s="43"/>
       <c r="BF74" s="43"/>
       <c r="BG74" s="43"/>
@@ -16844,7 +17050,7 @@
       </c>
       <c r="M77" s="86">
         <f>K77-K79</f>
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="N77" s="86">
         <v>9</v>
@@ -17248,7 +17454,7 @@
       <c r="AF78" s="43"/>
       <c r="AG78" s="43"/>
       <c r="AH78" s="43">
-        <f t="shared" ref="AH78:AZ78" si="53">AH18+AH24+AH30+AH36+AH42+AH48+AH54+AH60+AH66+AH72</f>
+        <f t="shared" ref="AH78:BC78" si="53">AH18+AH24+AH30+AH36+AH42+AH48+AH54+AH60+AH66+AH72</f>
         <v>231</v>
       </c>
       <c r="AI78" s="43">
@@ -17324,15 +17530,21 @@
         <v>402</v>
       </c>
       <c r="BA78" s="43">
-        <f>BA18+BA24+BA30+BA36+BA42+BA48+BA54+BA60+BA66+BA72</f>
+        <f t="shared" si="53"/>
         <v>407</v>
       </c>
       <c r="BB78" s="43">
-        <f>BB18+BB24+BB30+BB36+BB42+BB48+BB54+BB60+BB66+BB72</f>
+        <f t="shared" si="53"/>
         <v>408</v>
       </c>
-      <c r="BC78" s="43"/>
-      <c r="BD78" s="43"/>
+      <c r="BC78" s="43">
+        <f t="shared" si="53"/>
+        <v>405</v>
+      </c>
+      <c r="BD78" s="43">
+        <f>BD18+BD24+BD30+BD36+BD42+BD48+BD54+BD60+BD66+BD72</f>
+        <v>394</v>
+      </c>
       <c r="BE78" s="43"/>
       <c r="BF78" s="43"/>
       <c r="BG78" s="43"/>
@@ -17418,15 +17630,15 @@
       </c>
       <c r="K79" s="90">
         <f>MAX(O80:DP80)</f>
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="L79" s="91">
         <f t="shared" si="50"/>
-        <v>788</v>
+        <v>747</v>
       </c>
       <c r="M79" s="90">
         <f>K79-K81</f>
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="N79" s="88">
         <v>9</v>
@@ -17834,7 +18046,7 @@
       <c r="AF80" s="43"/>
       <c r="AG80" s="43"/>
       <c r="AH80" s="43">
-        <f t="shared" ref="AH80:AZ80" si="59">AH20+AH26+AH32+AH38+AH44+AH50+AH56+AH62+AH68+AH74</f>
+        <f t="shared" ref="AH80:BC80" si="59">AH20+AH26+AH32+AH38+AH44+AH50+AH56+AH62+AH68+AH74</f>
         <v>68</v>
       </c>
       <c r="AI80" s="43">
@@ -17910,15 +18122,21 @@
         <v>104</v>
       </c>
       <c r="BA80" s="43">
-        <f>BA20+BA26+BA32+BA38+BA44+BA50+BA56+BA62+BA68+BA74</f>
+        <f t="shared" si="59"/>
         <v>106</v>
       </c>
       <c r="BB80" s="43">
-        <f>BB20+BB26+BB32+BB38+BB44+BB50+BB56+BB62+BB68+BB74</f>
+        <f t="shared" si="59"/>
         <v>119</v>
       </c>
-      <c r="BC80" s="43"/>
-      <c r="BD80" s="43"/>
+      <c r="BC80" s="43">
+        <f t="shared" si="59"/>
+        <v>125</v>
+      </c>
+      <c r="BD80" s="43">
+        <f>BD20+BD26+BD32+BD38+BD44+BD50+BD56+BD62+BD68+BD74</f>
+        <v>160</v>
+      </c>
       <c r="BE80" s="43"/>
       <c r="BF80" s="43"/>
       <c r="BG80" s="43"/>

--- a/UPGRADE 3100-5000.xlsx
+++ b/UPGRADE 3100-5000.xlsx
@@ -1236,9 +1236,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1252,36 +1318,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1296,21 +1335,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1319,46 +1343,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1379,8 +1371,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1479,7 +1479,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1491,13 +1587,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1509,61 +1623,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1575,73 +1641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1873,41 +1873,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1936,13 +1906,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1970,16 +1959,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1994,128 +1994,128 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2738,11 +2738,11 @@
   <dimension ref="A1:DP685"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="I1" workbookViewId="0">
-      <pane xSplit="5745" ySplit="1170" topLeftCell="AN72" activePane="bottomRight"/>
+      <pane xSplit="5745" ySplit="1170" topLeftCell="AP43" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BD80" sqref="BD80"/>
+      <selection pane="bottomRight" activeCell="BG50" sqref="BG50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="11.25"/>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="M17" s="24">
         <f>K17-K19</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N17" s="24">
         <v>1</v>
@@ -5706,9 +5706,15 @@
       <c r="BD18" s="60">
         <v>68</v>
       </c>
-      <c r="BE18" s="60"/>
-      <c r="BF18" s="60"/>
-      <c r="BG18" s="60"/>
+      <c r="BE18" s="60">
+        <v>68</v>
+      </c>
+      <c r="BF18" s="60">
+        <v>68</v>
+      </c>
+      <c r="BG18" s="60">
+        <v>65</v>
+      </c>
       <c r="BH18" s="60"/>
       <c r="BI18" s="60"/>
       <c r="BJ18" s="60"/>
@@ -5805,15 +5811,15 @@
       </c>
       <c r="K19" s="29">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L19" s="51">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M19" s="29">
         <f>K19-K21</f>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N19" s="29">
         <v>1</v>
@@ -6226,9 +6232,15 @@
       <c r="BD20" s="43">
         <v>55</v>
       </c>
-      <c r="BE20" s="43"/>
-      <c r="BF20" s="43"/>
-      <c r="BG20" s="43"/>
+      <c r="BE20" s="43">
+        <v>55</v>
+      </c>
+      <c r="BF20" s="43">
+        <v>55</v>
+      </c>
+      <c r="BG20" s="43">
+        <v>58</v>
+      </c>
       <c r="BH20" s="43"/>
       <c r="BI20" s="43"/>
       <c r="BJ20" s="43"/>
@@ -6928,9 +6940,15 @@
       <c r="BD24" s="43">
         <v>49</v>
       </c>
-      <c r="BE24" s="43"/>
-      <c r="BF24" s="43"/>
-      <c r="BG24" s="43"/>
+      <c r="BE24" s="43">
+        <v>49</v>
+      </c>
+      <c r="BF24" s="43">
+        <v>49</v>
+      </c>
+      <c r="BG24" s="43">
+        <v>47</v>
+      </c>
       <c r="BH24" s="43"/>
       <c r="BI24" s="43"/>
       <c r="BJ24" s="43"/>
@@ -7366,9 +7384,15 @@
       <c r="BD26" s="43">
         <v>43</v>
       </c>
-      <c r="BE26" s="43"/>
-      <c r="BF26" s="43"/>
-      <c r="BG26" s="43"/>
+      <c r="BE26" s="43">
+        <v>43</v>
+      </c>
+      <c r="BF26" s="43">
+        <v>43</v>
+      </c>
+      <c r="BG26" s="43">
+        <v>43</v>
+      </c>
       <c r="BH26" s="43"/>
       <c r="BI26" s="43"/>
       <c r="BJ26" s="43"/>
@@ -7731,7 +7755,7 @@
       </c>
       <c r="M29" s="24">
         <f>K29-K31</f>
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="N29" s="24">
         <v>2</v>
@@ -8188,9 +8212,15 @@
       <c r="BD30" s="43">
         <v>114</v>
       </c>
-      <c r="BE30" s="43"/>
-      <c r="BF30" s="43"/>
-      <c r="BG30" s="43"/>
+      <c r="BE30" s="43">
+        <v>110</v>
+      </c>
+      <c r="BF30" s="43">
+        <v>106</v>
+      </c>
+      <c r="BG30" s="43">
+        <v>106</v>
+      </c>
       <c r="BH30" s="43"/>
       <c r="BI30" s="43"/>
       <c r="BJ30" s="43"/>
@@ -8283,15 +8313,15 @@
       </c>
       <c r="K31" s="29">
         <f t="shared" si="11"/>
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="L31" s="51">
         <f t="shared" si="12"/>
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="M31" s="29">
         <f>K31-K33</f>
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="N31" s="29">
         <v>2</v>
@@ -8746,9 +8776,15 @@
       <c r="BD32" s="43">
         <v>55</v>
       </c>
-      <c r="BE32" s="43"/>
-      <c r="BF32" s="43"/>
-      <c r="BG32" s="43"/>
+      <c r="BE32" s="43">
+        <v>72</v>
+      </c>
+      <c r="BF32" s="43">
+        <v>82</v>
+      </c>
+      <c r="BG32" s="43">
+        <v>91</v>
+      </c>
       <c r="BH32" s="43"/>
       <c r="BI32" s="43"/>
       <c r="BJ32" s="43"/>
@@ -9099,15 +9135,15 @@
       </c>
       <c r="K35" s="24">
         <f t="shared" ref="K35:K39" si="18">MAX(AH36:DP36)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L35" s="49">
         <f t="shared" ref="L35:L39" si="19">J35-K35</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M35" s="24">
         <f>K35-K37</f>
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N35" s="24">
         <v>1</v>
@@ -9495,9 +9531,15 @@
       <c r="BD36" s="43">
         <v>38</v>
       </c>
-      <c r="BE36" s="43"/>
-      <c r="BF36" s="43"/>
-      <c r="BG36" s="43"/>
+      <c r="BE36" s="43">
+        <v>38</v>
+      </c>
+      <c r="BF36" s="43">
+        <v>40</v>
+      </c>
+      <c r="BG36" s="43">
+        <v>36</v>
+      </c>
       <c r="BH36" s="43"/>
       <c r="BI36" s="43"/>
       <c r="BJ36" s="43"/>
@@ -9588,15 +9630,15 @@
       </c>
       <c r="K37" s="29">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L37" s="51">
         <f t="shared" si="19"/>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M37" s="29">
         <f>K37-K39</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N37" s="29">
         <v>1</v>
@@ -9982,9 +10024,15 @@
       <c r="BD38" s="43">
         <v>1</v>
       </c>
-      <c r="BE38" s="43"/>
-      <c r="BF38" s="43"/>
-      <c r="BG38" s="43"/>
+      <c r="BE38" s="43">
+        <v>1</v>
+      </c>
+      <c r="BF38" s="43">
+        <v>1</v>
+      </c>
+      <c r="BG38" s="43">
+        <v>11</v>
+      </c>
       <c r="BH38" s="43"/>
       <c r="BI38" s="43"/>
       <c r="BJ38" s="43"/>
@@ -10729,9 +10777,15 @@
       <c r="BD42" s="43">
         <v>40</v>
       </c>
-      <c r="BE42" s="43"/>
-      <c r="BF42" s="43"/>
-      <c r="BG42" s="43"/>
+      <c r="BE42" s="43">
+        <v>40</v>
+      </c>
+      <c r="BF42" s="43">
+        <v>40</v>
+      </c>
+      <c r="BG42" s="43">
+        <v>40</v>
+      </c>
       <c r="BH42" s="43"/>
       <c r="BI42" s="43"/>
       <c r="BJ42" s="43"/>
@@ -11212,9 +11266,15 @@
       <c r="BD44" s="43">
         <v>0</v>
       </c>
-      <c r="BE44" s="43"/>
-      <c r="BF44" s="43"/>
-      <c r="BG44" s="43"/>
+      <c r="BE44" s="43">
+        <v>0</v>
+      </c>
+      <c r="BF44" s="43">
+        <v>0</v>
+      </c>
+      <c r="BG44" s="43">
+        <v>0</v>
+      </c>
       <c r="BH44" s="43"/>
       <c r="BI44" s="43"/>
       <c r="BJ44" s="43"/>
@@ -11567,15 +11627,15 @@
       </c>
       <c r="K47" s="24">
         <f t="shared" ref="K47:K51" si="28">MAX(AH48:DP48)</f>
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L47" s="49">
         <f t="shared" ref="L47:L51" si="29">J47-K47</f>
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="M47" s="24">
         <f>K47-K49</f>
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="N47" s="24">
         <v>2</v>
@@ -12025,9 +12085,15 @@
       <c r="BD48" s="43">
         <v>82</v>
       </c>
-      <c r="BE48" s="43"/>
-      <c r="BF48" s="43"/>
-      <c r="BG48" s="43"/>
+      <c r="BE48" s="43">
+        <v>82</v>
+      </c>
+      <c r="BF48" s="43">
+        <v>82</v>
+      </c>
+      <c r="BG48" s="43">
+        <v>108</v>
+      </c>
       <c r="BH48" s="43"/>
       <c r="BI48" s="43"/>
       <c r="BJ48" s="43"/>
@@ -12118,15 +12184,15 @@
       </c>
       <c r="K49" s="29">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="L49" s="51">
         <f t="shared" si="29"/>
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="M49" s="29">
         <f>K49-K51</f>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="N49" s="29">
         <v>2</v>
@@ -12574,9 +12640,15 @@
       <c r="BD50" s="43">
         <v>5</v>
       </c>
-      <c r="BE50" s="43"/>
-      <c r="BF50" s="43"/>
-      <c r="BG50" s="43"/>
+      <c r="BE50" s="43">
+        <v>12</v>
+      </c>
+      <c r="BF50" s="43">
+        <v>18</v>
+      </c>
+      <c r="BG50" s="43">
+        <v>22</v>
+      </c>
       <c r="BH50" s="43"/>
       <c r="BI50" s="43"/>
       <c r="BJ50" s="43"/>
@@ -16118,9 +16190,15 @@
       <c r="BD72" s="43">
         <v>3</v>
       </c>
-      <c r="BE72" s="43"/>
-      <c r="BF72" s="43"/>
-      <c r="BG72" s="43"/>
+      <c r="BE72" s="43">
+        <v>3</v>
+      </c>
+      <c r="BF72" s="43">
+        <v>3</v>
+      </c>
+      <c r="BG72" s="43">
+        <v>3</v>
+      </c>
       <c r="BH72" s="43"/>
       <c r="BI72" s="43"/>
       <c r="BJ72" s="43"/>
@@ -16686,9 +16764,15 @@
       <c r="BD74" s="43">
         <v>0</v>
       </c>
-      <c r="BE74" s="43"/>
-      <c r="BF74" s="43"/>
-      <c r="BG74" s="43"/>
+      <c r="BE74" s="43">
+        <v>0</v>
+      </c>
+      <c r="BF74" s="43">
+        <v>0</v>
+      </c>
+      <c r="BG74" s="43">
+        <v>0</v>
+      </c>
       <c r="BH74" s="43"/>
       <c r="BI74" s="43"/>
       <c r="BJ74" s="43"/>
@@ -17050,7 +17134,7 @@
       </c>
       <c r="M77" s="86">
         <f>K77-K79</f>
-        <v>248</v>
+        <v>182</v>
       </c>
       <c r="N77" s="86">
         <v>9</v>
@@ -17454,7 +17538,7 @@
       <c r="AF78" s="43"/>
       <c r="AG78" s="43"/>
       <c r="AH78" s="43">
-        <f t="shared" ref="AH78:BC78" si="53">AH18+AH24+AH30+AH36+AH42+AH48+AH54+AH60+AH66+AH72</f>
+        <f t="shared" ref="AH78:BE78" si="53">AH18+AH24+AH30+AH36+AH42+AH48+AH54+AH60+AH66+AH72</f>
         <v>231</v>
       </c>
       <c r="AI78" s="43">
@@ -17542,12 +17626,21 @@
         <v>405</v>
       </c>
       <c r="BD78" s="43">
-        <f>BD18+BD24+BD30+BD36+BD42+BD48+BD54+BD60+BD66+BD72</f>
+        <f t="shared" si="53"/>
         <v>394</v>
       </c>
-      <c r="BE78" s="43"/>
-      <c r="BF78" s="43"/>
-      <c r="BG78" s="43"/>
+      <c r="BE78" s="43">
+        <f t="shared" si="53"/>
+        <v>390</v>
+      </c>
+      <c r="BF78" s="43">
+        <f>BF18+BF24+BF30+BF36+BF42+BF48+BF54+BF60+BF66+BF72</f>
+        <v>388</v>
+      </c>
+      <c r="BG78" s="43">
+        <f>BG18+BG24+BG30+BG36+BG42+BG48+BG54+BG60+BG66+BG72</f>
+        <v>405</v>
+      </c>
       <c r="BH78" s="43"/>
       <c r="BI78" s="43"/>
       <c r="BJ78" s="43"/>
@@ -17630,15 +17723,15 @@
       </c>
       <c r="K79" s="90">
         <f>MAX(O80:DP80)</f>
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="L79" s="91">
         <f t="shared" si="50"/>
-        <v>747</v>
+        <v>681</v>
       </c>
       <c r="M79" s="90">
         <f>K79-K81</f>
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="N79" s="88">
         <v>9</v>
@@ -18046,7 +18139,7 @@
       <c r="AF80" s="43"/>
       <c r="AG80" s="43"/>
       <c r="AH80" s="43">
-        <f t="shared" ref="AH80:BC80" si="59">AH20+AH26+AH32+AH38+AH44+AH50+AH56+AH62+AH68+AH74</f>
+        <f t="shared" ref="AH80:BE80" si="59">AH20+AH26+AH32+AH38+AH44+AH50+AH56+AH62+AH68+AH74</f>
         <v>68</v>
       </c>
       <c r="AI80" s="43">
@@ -18134,12 +18227,21 @@
         <v>125</v>
       </c>
       <c r="BD80" s="43">
-        <f>BD20+BD26+BD32+BD38+BD44+BD50+BD56+BD62+BD68+BD74</f>
+        <f t="shared" si="59"/>
         <v>160</v>
       </c>
-      <c r="BE80" s="43"/>
-      <c r="BF80" s="43"/>
-      <c r="BG80" s="43"/>
+      <c r="BE80" s="43">
+        <f t="shared" si="59"/>
+        <v>184</v>
+      </c>
+      <c r="BF80" s="43">
+        <f>BF20+BF26+BF32+BF38+BF44+BF50+BF56+BF62+BF68+BF74</f>
+        <v>200</v>
+      </c>
+      <c r="BG80" s="43">
+        <f>BG20+BG26+BG32+BG38+BG44+BG50+BG56+BG62+BG68+BG74</f>
+        <v>226</v>
+      </c>
       <c r="BH80" s="43"/>
       <c r="BI80" s="43"/>
       <c r="BJ80" s="43"/>

--- a/UPGRADE 3100-5000.xlsx
+++ b/UPGRADE 3100-5000.xlsx
@@ -2738,11 +2738,11 @@
   <dimension ref="A1:DP685"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="I1" workbookViewId="0">
-      <pane xSplit="5745" ySplit="1170" topLeftCell="AP43" activePane="bottomRight"/>
+      <pane xSplit="5745" ySplit="1170" topLeftCell="AP16" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BG50" sqref="BG50"/>
+      <selection pane="bottomRight" activeCell="AT16" sqref="AT16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="11.25"/>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="M17" s="24">
         <f>K17-K19</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N17" s="24">
         <v>1</v>
@@ -5715,7 +5715,9 @@
       <c r="BG18" s="60">
         <v>65</v>
       </c>
-      <c r="BH18" s="60"/>
+      <c r="BH18" s="60">
+        <v>66</v>
+      </c>
       <c r="BI18" s="60"/>
       <c r="BJ18" s="60"/>
       <c r="BK18" s="60"/>
@@ -5811,15 +5813,15 @@
       </c>
       <c r="K19" s="29">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L19" s="51">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M19" s="29">
         <f>K19-K21</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N19" s="29">
         <v>1</v>
@@ -6241,7 +6243,9 @@
       <c r="BG20" s="43">
         <v>58</v>
       </c>
-      <c r="BH20" s="43"/>
+      <c r="BH20" s="43">
+        <v>59</v>
+      </c>
       <c r="BI20" s="43"/>
       <c r="BJ20" s="43"/>
       <c r="BK20" s="43"/>
@@ -6603,7 +6607,7 @@
       </c>
       <c r="M23" s="24">
         <f>K23-K25</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N23" s="24">
         <v>1</v>
@@ -6949,7 +6953,9 @@
       <c r="BG24" s="43">
         <v>47</v>
       </c>
-      <c r="BH24" s="43"/>
+      <c r="BH24" s="43">
+        <v>46</v>
+      </c>
       <c r="BI24" s="43"/>
       <c r="BJ24" s="43"/>
       <c r="BK24" s="43"/>
@@ -7041,15 +7047,15 @@
       </c>
       <c r="K25" s="29">
         <f t="shared" si="7"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L25" s="51">
         <f t="shared" si="8"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M25" s="29">
         <f>K25-K27</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N25" s="29">
         <v>1</v>
@@ -7393,7 +7399,9 @@
       <c r="BG26" s="43">
         <v>43</v>
       </c>
-      <c r="BH26" s="43"/>
+      <c r="BH26" s="43">
+        <v>44</v>
+      </c>
       <c r="BI26" s="43"/>
       <c r="BJ26" s="43"/>
       <c r="BK26" s="43"/>
@@ -7755,7 +7763,7 @@
       </c>
       <c r="M29" s="24">
         <f>K29-K31</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N29" s="24">
         <v>2</v>
@@ -8221,7 +8229,9 @@
       <c r="BG30" s="43">
         <v>106</v>
       </c>
-      <c r="BH30" s="43"/>
+      <c r="BH30" s="43">
+        <v>106</v>
+      </c>
       <c r="BI30" s="43"/>
       <c r="BJ30" s="43"/>
       <c r="BK30" s="43"/>
@@ -8313,15 +8323,15 @@
       </c>
       <c r="K31" s="29">
         <f t="shared" si="11"/>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L31" s="51">
         <f t="shared" si="12"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M31" s="29">
         <f>K31-K33</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N31" s="29">
         <v>2</v>
@@ -8785,7 +8795,9 @@
       <c r="BG32" s="43">
         <v>91</v>
       </c>
-      <c r="BH32" s="43"/>
+      <c r="BH32" s="43">
+        <v>93</v>
+      </c>
       <c r="BI32" s="43"/>
       <c r="BJ32" s="43"/>
       <c r="BK32" s="43"/>
@@ -9143,7 +9155,7 @@
       </c>
       <c r="M35" s="24">
         <f>K35-K37</f>
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N35" s="24">
         <v>1</v>
@@ -9540,7 +9552,9 @@
       <c r="BG36" s="43">
         <v>36</v>
       </c>
-      <c r="BH36" s="43"/>
+      <c r="BH36" s="43">
+        <v>31</v>
+      </c>
       <c r="BI36" s="43"/>
       <c r="BJ36" s="43"/>
       <c r="BK36" s="43"/>
@@ -9630,15 +9644,15 @@
       </c>
       <c r="K37" s="29">
         <f t="shared" si="18"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="L37" s="51">
         <f t="shared" si="19"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M37" s="29">
         <f>K37-K39</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N37" s="29">
         <v>1</v>
@@ -10033,7 +10047,9 @@
       <c r="BG38" s="43">
         <v>11</v>
       </c>
-      <c r="BH38" s="43"/>
+      <c r="BH38" s="43">
+        <v>21</v>
+      </c>
       <c r="BI38" s="43"/>
       <c r="BJ38" s="43"/>
       <c r="BK38" s="43"/>
@@ -10385,15 +10401,15 @@
       </c>
       <c r="K41" s="24">
         <f t="shared" ref="K41:K45" si="23">MAX(AH42:DP42)</f>
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="L41" s="49">
         <f t="shared" ref="L41:L45" si="24">J41-K41</f>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="M41" s="24">
         <f>K41-K43</f>
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="N41" s="24">
         <v>1</v>
@@ -10786,7 +10802,9 @@
       <c r="BG42" s="43">
         <v>40</v>
       </c>
-      <c r="BH42" s="43"/>
+      <c r="BH42" s="43">
+        <v>51</v>
+      </c>
       <c r="BI42" s="43"/>
       <c r="BJ42" s="43"/>
       <c r="BK42" s="43"/>
@@ -11275,7 +11293,9 @@
       <c r="BG44" s="43">
         <v>0</v>
       </c>
-      <c r="BH44" s="43"/>
+      <c r="BH44" s="43">
+        <v>0</v>
+      </c>
       <c r="BI44" s="43"/>
       <c r="BJ44" s="43"/>
       <c r="BK44" s="43"/>
@@ -11635,7 +11655,7 @@
       </c>
       <c r="M47" s="24">
         <f>K47-K49</f>
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N47" s="24">
         <v>2</v>
@@ -12094,7 +12114,9 @@
       <c r="BG48" s="43">
         <v>108</v>
       </c>
-      <c r="BH48" s="43"/>
+      <c r="BH48" s="43">
+        <v>106</v>
+      </c>
       <c r="BI48" s="43"/>
       <c r="BJ48" s="43"/>
       <c r="BK48" s="43"/>
@@ -12184,15 +12206,15 @@
       </c>
       <c r="K49" s="29">
         <f t="shared" si="28"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L49" s="51">
         <f t="shared" si="29"/>
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M49" s="29">
         <f>K49-K51</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N49" s="29">
         <v>2</v>
@@ -12649,7 +12671,9 @@
       <c r="BG50" s="43">
         <v>22</v>
       </c>
-      <c r="BH50" s="43"/>
+      <c r="BH50" s="43">
+        <v>28</v>
+      </c>
       <c r="BI50" s="43"/>
       <c r="BJ50" s="43"/>
       <c r="BK50" s="43"/>
@@ -16199,7 +16223,9 @@
       <c r="BG72" s="43">
         <v>3</v>
       </c>
-      <c r="BH72" s="43"/>
+      <c r="BH72" s="43">
+        <v>3</v>
+      </c>
       <c r="BI72" s="43"/>
       <c r="BJ72" s="43"/>
       <c r="BK72" s="43"/>
@@ -16773,7 +16799,9 @@
       <c r="BG74" s="43">
         <v>0</v>
       </c>
-      <c r="BH74" s="43"/>
+      <c r="BH74" s="43">
+        <v>0</v>
+      </c>
       <c r="BI74" s="43"/>
       <c r="BJ74" s="43"/>
       <c r="BK74" s="43"/>
@@ -17126,15 +17154,15 @@
       </c>
       <c r="K77" s="86">
         <f>MAX(O78:DP78)</f>
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L77" s="87">
         <f t="shared" ref="L77:L81" si="50">J77-K77</f>
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M77" s="86">
         <f>K77-K79</f>
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="N77" s="86">
         <v>9</v>
@@ -17641,7 +17669,10 @@
         <f>BG18+BG24+BG30+BG36+BG42+BG48+BG54+BG60+BG66+BG72</f>
         <v>405</v>
       </c>
-      <c r="BH78" s="43"/>
+      <c r="BH78" s="43">
+        <f>BH18+BH24+BH30+BH36+BH42+BH48+BH54+BH60+BH66+BH72</f>
+        <v>409</v>
+      </c>
       <c r="BI78" s="43"/>
       <c r="BJ78" s="43"/>
       <c r="BK78" s="43"/>
@@ -17723,15 +17754,15 @@
       </c>
       <c r="K79" s="90">
         <f>MAX(O80:DP80)</f>
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="L79" s="91">
         <f t="shared" si="50"/>
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="M79" s="90">
         <f>K79-K81</f>
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="N79" s="88">
         <v>9</v>
@@ -18242,7 +18273,10 @@
         <f>BG20+BG26+BG32+BG38+BG44+BG50+BG56+BG62+BG68+BG74</f>
         <v>226</v>
       </c>
-      <c r="BH80" s="43"/>
+      <c r="BH80" s="43">
+        <f>BH20+BH26+BH32+BH38+BH44+BH50+BH56+BH62+BH68+BH74</f>
+        <v>246</v>
+      </c>
       <c r="BI80" s="43"/>
       <c r="BJ80" s="43"/>
       <c r="BK80" s="43"/>

--- a/UPGRADE 3100-5000.xlsx
+++ b/UPGRADE 3100-5000.xlsx
@@ -2742,7 +2742,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AT16" sqref="AT16"/>
+      <selection pane="bottomRight" activeCell="AS16" sqref="AS16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="11.25"/>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="M17" s="24">
         <f>K17-K19</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N17" s="24">
         <v>1</v>
@@ -5718,7 +5718,9 @@
       <c r="BH18" s="60">
         <v>66</v>
       </c>
-      <c r="BI18" s="60"/>
+      <c r="BI18" s="60">
+        <v>67</v>
+      </c>
       <c r="BJ18" s="60"/>
       <c r="BK18" s="60"/>
       <c r="BL18" s="60"/>
@@ -5813,15 +5815,15 @@
       </c>
       <c r="K19" s="29">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L19" s="51">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M19" s="29">
         <f>K19-K21</f>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N19" s="29">
         <v>1</v>
@@ -6246,7 +6248,9 @@
       <c r="BH20" s="43">
         <v>59</v>
       </c>
-      <c r="BI20" s="43"/>
+      <c r="BI20" s="43">
+        <v>61</v>
+      </c>
       <c r="BJ20" s="43"/>
       <c r="BK20" s="43"/>
       <c r="BL20" s="43"/>
@@ -6956,7 +6960,9 @@
       <c r="BH24" s="43">
         <v>46</v>
       </c>
-      <c r="BI24" s="43"/>
+      <c r="BI24" s="43">
+        <v>48</v>
+      </c>
       <c r="BJ24" s="43"/>
       <c r="BK24" s="43"/>
       <c r="BL24" s="43"/>
@@ -7402,7 +7408,9 @@
       <c r="BH26" s="43">
         <v>44</v>
       </c>
-      <c r="BI26" s="43"/>
+      <c r="BI26" s="43">
+        <v>44</v>
+      </c>
       <c r="BJ26" s="43"/>
       <c r="BK26" s="43"/>
       <c r="BL26" s="43"/>
@@ -7763,7 +7771,7 @@
       </c>
       <c r="M29" s="24">
         <f>K29-K31</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N29" s="24">
         <v>2</v>
@@ -8232,7 +8240,9 @@
       <c r="BH30" s="43">
         <v>106</v>
       </c>
-      <c r="BI30" s="43"/>
+      <c r="BI30" s="43">
+        <v>105</v>
+      </c>
       <c r="BJ30" s="43"/>
       <c r="BK30" s="43"/>
       <c r="BL30" s="43"/>
@@ -8323,15 +8333,15 @@
       </c>
       <c r="K31" s="29">
         <f t="shared" si="11"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L31" s="51">
         <f t="shared" si="12"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M31" s="29">
         <f>K31-K33</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N31" s="29">
         <v>2</v>
@@ -8798,7 +8808,9 @@
       <c r="BH32" s="43">
         <v>93</v>
       </c>
-      <c r="BI32" s="43"/>
+      <c r="BI32" s="43">
+        <v>94</v>
+      </c>
       <c r="BJ32" s="43"/>
       <c r="BK32" s="43"/>
       <c r="BL32" s="43"/>
@@ -9155,7 +9167,7 @@
       </c>
       <c r="M35" s="24">
         <f>K35-K37</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N35" s="24">
         <v>1</v>
@@ -9555,7 +9567,9 @@
       <c r="BH36" s="43">
         <v>31</v>
       </c>
-      <c r="BI36" s="43"/>
+      <c r="BI36" s="43">
+        <v>31</v>
+      </c>
       <c r="BJ36" s="43"/>
       <c r="BK36" s="43"/>
       <c r="BL36" s="43"/>
@@ -9644,15 +9658,15 @@
       </c>
       <c r="K37" s="29">
         <f t="shared" si="18"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L37" s="51">
         <f t="shared" si="19"/>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M37" s="29">
         <f>K37-K39</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N37" s="29">
         <v>1</v>
@@ -10050,7 +10064,9 @@
       <c r="BH38" s="43">
         <v>21</v>
       </c>
-      <c r="BI38" s="43"/>
+      <c r="BI38" s="43">
+        <v>24</v>
+      </c>
       <c r="BJ38" s="43"/>
       <c r="BK38" s="43"/>
       <c r="BL38" s="43"/>
@@ -10805,7 +10821,9 @@
       <c r="BH42" s="43">
         <v>51</v>
       </c>
-      <c r="BI42" s="43"/>
+      <c r="BI42" s="43">
+        <v>51</v>
+      </c>
       <c r="BJ42" s="43"/>
       <c r="BK42" s="43"/>
       <c r="BL42" s="43"/>
@@ -11296,7 +11314,9 @@
       <c r="BH44" s="43">
         <v>0</v>
       </c>
-      <c r="BI44" s="43"/>
+      <c r="BI44" s="43">
+        <v>0</v>
+      </c>
       <c r="BJ44" s="43"/>
       <c r="BK44" s="43"/>
       <c r="BL44" s="43"/>
@@ -11655,7 +11675,7 @@
       </c>
       <c r="M47" s="24">
         <f>K47-K49</f>
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="N47" s="24">
         <v>2</v>
@@ -12117,7 +12137,9 @@
       <c r="BH48" s="43">
         <v>106</v>
       </c>
-      <c r="BI48" s="43"/>
+      <c r="BI48" s="43">
+        <v>94</v>
+      </c>
       <c r="BJ48" s="43"/>
       <c r="BK48" s="43"/>
       <c r="BL48" s="43"/>
@@ -12206,15 +12228,15 @@
       </c>
       <c r="K49" s="29">
         <f t="shared" si="28"/>
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="L49" s="51">
         <f t="shared" si="29"/>
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="M49" s="29">
         <f>K49-K51</f>
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="N49" s="29">
         <v>2</v>
@@ -12674,7 +12696,9 @@
       <c r="BH50" s="43">
         <v>28</v>
       </c>
-      <c r="BI50" s="43"/>
+      <c r="BI50" s="43">
+        <v>45</v>
+      </c>
       <c r="BJ50" s="43"/>
       <c r="BK50" s="43"/>
       <c r="BL50" s="43"/>
@@ -15735,15 +15759,15 @@
       </c>
       <c r="K71" s="24">
         <f t="shared" ref="K71:K75" si="43">MAX(AH72:DP72)</f>
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="L71" s="49">
         <f t="shared" ref="L71:L75" si="44">J71-K71</f>
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="M71" s="24">
         <f>K71-K73</f>
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="N71" s="24">
         <v>1</v>
@@ -16226,7 +16250,9 @@
       <c r="BH72" s="43">
         <v>3</v>
       </c>
-      <c r="BI72" s="43"/>
+      <c r="BI72" s="43">
+        <v>53</v>
+      </c>
       <c r="BJ72" s="43"/>
       <c r="BK72" s="43"/>
       <c r="BL72" s="43"/>
@@ -16802,7 +16828,9 @@
       <c r="BH74" s="43">
         <v>0</v>
       </c>
-      <c r="BI74" s="43"/>
+      <c r="BI74" s="43">
+        <v>0</v>
+      </c>
       <c r="BJ74" s="43"/>
       <c r="BK74" s="43"/>
       <c r="BL74" s="43"/>
@@ -17154,15 +17182,15 @@
       </c>
       <c r="K77" s="86">
         <f>MAX(O78:DP78)</f>
-        <v>409</v>
+        <v>449</v>
       </c>
       <c r="L77" s="87">
         <f t="shared" ref="L77:L81" si="50">J77-K77</f>
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="M77" s="86">
         <f>K77-K79</f>
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="N77" s="86">
         <v>9</v>
@@ -17673,7 +17701,10 @@
         <f>BH18+BH24+BH30+BH36+BH42+BH48+BH54+BH60+BH66+BH72</f>
         <v>409</v>
       </c>
-      <c r="BI78" s="43"/>
+      <c r="BI78" s="43">
+        <f>BI18+BI24+BI30+BI36+BI42+BI48+BI54+BI60+BI66+BI72</f>
+        <v>449</v>
+      </c>
       <c r="BJ78" s="43"/>
       <c r="BK78" s="43"/>
       <c r="BL78" s="43"/>
@@ -17754,15 +17785,15 @@
       </c>
       <c r="K79" s="90">
         <f>MAX(O80:DP80)</f>
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="L79" s="91">
         <f t="shared" si="50"/>
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="M79" s="90">
         <f>K79-K81</f>
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="N79" s="88">
         <v>9</v>
@@ -18277,7 +18308,10 @@
         <f>BH20+BH26+BH32+BH38+BH44+BH50+BH56+BH62+BH68+BH74</f>
         <v>246</v>
       </c>
-      <c r="BI80" s="43"/>
+      <c r="BI80" s="43">
+        <f>BI20+BI26+BI32+BI38+BI44+BI50+BI56+BI62+BI68+BI74</f>
+        <v>269</v>
+      </c>
       <c r="BJ80" s="43"/>
       <c r="BK80" s="43"/>
       <c r="BL80" s="43"/>

--- a/UPGRADE 3100-5000.xlsx
+++ b/UPGRADE 3100-5000.xlsx
@@ -2738,11 +2738,11 @@
   <dimension ref="A1:DP685"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="I1" workbookViewId="0">
-      <pane xSplit="5745" ySplit="1170" topLeftCell="AP16" activePane="bottomRight"/>
+      <pane xSplit="5745" ySplit="1170" topLeftCell="AQ55" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AS16" sqref="AS16"/>
+      <selection pane="bottomLeft" activeCell="J60" sqref="J60"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="11.25"/>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="M17" s="24">
         <f>K17-K19</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N17" s="24">
         <v>1</v>
@@ -5721,8 +5721,12 @@
       <c r="BI18" s="60">
         <v>67</v>
       </c>
-      <c r="BJ18" s="60"/>
-      <c r="BK18" s="60"/>
+      <c r="BJ18" s="60">
+        <v>67</v>
+      </c>
+      <c r="BK18" s="60">
+        <v>68</v>
+      </c>
       <c r="BL18" s="60"/>
       <c r="BM18" s="60"/>
       <c r="BN18" s="60"/>
@@ -5815,15 +5819,15 @@
       </c>
       <c r="K19" s="29">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L19" s="51">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M19" s="29">
         <f>K19-K21</f>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N19" s="29">
         <v>1</v>
@@ -6251,8 +6255,12 @@
       <c r="BI20" s="43">
         <v>61</v>
       </c>
-      <c r="BJ20" s="43"/>
-      <c r="BK20" s="43"/>
+      <c r="BJ20" s="43">
+        <v>62</v>
+      </c>
+      <c r="BK20" s="43">
+        <v>64</v>
+      </c>
       <c r="BL20" s="43"/>
       <c r="BM20" s="43"/>
       <c r="BN20" s="43"/>
@@ -6611,7 +6619,7 @@
       </c>
       <c r="M23" s="24">
         <f>K23-K25</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N23" s="24">
         <v>1</v>
@@ -6963,8 +6971,12 @@
       <c r="BI24" s="43">
         <v>48</v>
       </c>
-      <c r="BJ24" s="43"/>
-      <c r="BK24" s="43"/>
+      <c r="BJ24" s="43">
+        <v>49</v>
+      </c>
+      <c r="BK24" s="43">
+        <v>49</v>
+      </c>
       <c r="BL24" s="43"/>
       <c r="BM24" s="43"/>
       <c r="BN24" s="43"/>
@@ -7053,15 +7065,15 @@
       </c>
       <c r="K25" s="29">
         <f t="shared" si="7"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L25" s="51">
         <f t="shared" si="8"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M25" s="29">
         <f>K25-K27</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N25" s="29">
         <v>1</v>
@@ -7411,8 +7423,12 @@
       <c r="BI26" s="43">
         <v>44</v>
       </c>
-      <c r="BJ26" s="43"/>
-      <c r="BK26" s="43"/>
+      <c r="BJ26" s="43">
+        <v>46</v>
+      </c>
+      <c r="BK26" s="43">
+        <v>46</v>
+      </c>
       <c r="BL26" s="43"/>
       <c r="BM26" s="43"/>
       <c r="BN26" s="43"/>
@@ -7771,7 +7787,7 @@
       </c>
       <c r="M29" s="24">
         <f>K29-K31</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N29" s="24">
         <v>2</v>
@@ -8243,8 +8259,12 @@
       <c r="BI30" s="43">
         <v>105</v>
       </c>
-      <c r="BJ30" s="43"/>
-      <c r="BK30" s="43"/>
+      <c r="BJ30" s="43">
+        <v>105</v>
+      </c>
+      <c r="BK30" s="43">
+        <v>104</v>
+      </c>
       <c r="BL30" s="43"/>
       <c r="BM30" s="43"/>
       <c r="BN30" s="43"/>
@@ -8333,15 +8353,15 @@
       </c>
       <c r="K31" s="29">
         <f t="shared" si="11"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L31" s="51">
         <f t="shared" si="12"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M31" s="29">
         <f>K31-K33</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N31" s="29">
         <v>2</v>
@@ -8811,8 +8831,12 @@
       <c r="BI32" s="43">
         <v>94</v>
       </c>
-      <c r="BJ32" s="43"/>
-      <c r="BK32" s="43"/>
+      <c r="BJ32" s="43">
+        <v>95</v>
+      </c>
+      <c r="BK32" s="43">
+        <v>95</v>
+      </c>
       <c r="BL32" s="43"/>
       <c r="BM32" s="43"/>
       <c r="BN32" s="43"/>
@@ -9167,7 +9191,7 @@
       </c>
       <c r="M35" s="24">
         <f>K35-K37</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N35" s="24">
         <v>1</v>
@@ -9570,8 +9594,12 @@
       <c r="BI36" s="43">
         <v>31</v>
       </c>
-      <c r="BJ36" s="43"/>
-      <c r="BK36" s="43"/>
+      <c r="BJ36" s="43">
+        <v>31</v>
+      </c>
+      <c r="BK36" s="43">
+        <v>31</v>
+      </c>
       <c r="BL36" s="43"/>
       <c r="BM36" s="43"/>
       <c r="BN36" s="43"/>
@@ -9658,15 +9686,15 @@
       </c>
       <c r="K37" s="29">
         <f t="shared" si="18"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L37" s="51">
         <f t="shared" si="19"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M37" s="29">
         <f>K37-K39</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N37" s="29">
         <v>1</v>
@@ -10067,8 +10095,12 @@
       <c r="BI38" s="43">
         <v>24</v>
       </c>
-      <c r="BJ38" s="43"/>
-      <c r="BK38" s="43"/>
+      <c r="BJ38" s="43">
+        <v>25</v>
+      </c>
+      <c r="BK38" s="43">
+        <v>27</v>
+      </c>
       <c r="BL38" s="43"/>
       <c r="BM38" s="43"/>
       <c r="BN38" s="43"/>
@@ -10425,7 +10457,7 @@
       </c>
       <c r="M41" s="24">
         <f>K41-K43</f>
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="N41" s="24">
         <v>1</v>
@@ -10824,8 +10856,12 @@
       <c r="BI42" s="43">
         <v>51</v>
       </c>
-      <c r="BJ42" s="43"/>
-      <c r="BK42" s="43"/>
+      <c r="BJ42" s="43">
+        <v>48</v>
+      </c>
+      <c r="BK42" s="43">
+        <v>49</v>
+      </c>
       <c r="BL42" s="43"/>
       <c r="BM42" s="43"/>
       <c r="BN42" s="43"/>
@@ -10912,15 +10948,15 @@
       </c>
       <c r="K43" s="29">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L43" s="51">
         <f t="shared" si="24"/>
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M43" s="29">
         <f>K43-K45</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N43" s="29">
         <v>1</v>
@@ -11317,8 +11353,12 @@
       <c r="BI44" s="43">
         <v>0</v>
       </c>
-      <c r="BJ44" s="43"/>
-      <c r="BK44" s="43"/>
+      <c r="BJ44" s="43">
+        <v>4</v>
+      </c>
+      <c r="BK44" s="43">
+        <v>15</v>
+      </c>
       <c r="BL44" s="43"/>
       <c r="BM44" s="43"/>
       <c r="BN44" s="43"/>
@@ -11675,7 +11715,7 @@
       </c>
       <c r="M47" s="24">
         <f>K47-K49</f>
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="N47" s="24">
         <v>2</v>
@@ -12140,8 +12180,12 @@
       <c r="BI48" s="43">
         <v>94</v>
       </c>
-      <c r="BJ48" s="43"/>
-      <c r="BK48" s="43"/>
+      <c r="BJ48" s="43">
+        <v>89</v>
+      </c>
+      <c r="BK48" s="43">
+        <v>93</v>
+      </c>
       <c r="BL48" s="43"/>
       <c r="BM48" s="43"/>
       <c r="BN48" s="43"/>
@@ -12228,15 +12272,15 @@
       </c>
       <c r="K49" s="29">
         <f t="shared" si="28"/>
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="L49" s="51">
         <f t="shared" si="29"/>
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="M49" s="29">
         <f>K49-K51</f>
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N49" s="29">
         <v>2</v>
@@ -12699,8 +12743,12 @@
       <c r="BI50" s="43">
         <v>45</v>
       </c>
-      <c r="BJ50" s="43"/>
-      <c r="BK50" s="43"/>
+      <c r="BJ50" s="43">
+        <v>56</v>
+      </c>
+      <c r="BK50" s="43">
+        <v>65</v>
+      </c>
       <c r="BL50" s="43"/>
       <c r="BM50" s="43"/>
       <c r="BN50" s="43"/>
@@ -14041,7 +14089,7 @@
         <v>54</v>
       </c>
       <c r="J59" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K59" s="24">
         <f t="shared" ref="K59:K63" si="39">MAX(AH60:DP60)</f>
@@ -14049,7 +14097,7 @@
       </c>
       <c r="L59" s="49">
         <f t="shared" ref="L59:L63" si="40">J59-K59</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M59" s="24">
         <f>K59-K61</f>
@@ -14335,7 +14383,7 @@
       </c>
       <c r="J61" s="29">
         <f>J59</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K61" s="29">
         <f t="shared" si="39"/>
@@ -14343,7 +14391,7 @@
       </c>
       <c r="L61" s="51">
         <f t="shared" si="40"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M61" s="29">
         <f>K61-K63</f>
@@ -14667,7 +14715,7 @@
       </c>
       <c r="J63" s="29">
         <f>J61</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K63" s="29">
         <f t="shared" si="39"/>
@@ -14675,7 +14723,7 @@
       </c>
       <c r="L63" s="51">
         <f t="shared" si="40"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M63" s="29"/>
       <c r="N63" s="29"/>
@@ -15759,15 +15807,15 @@
       </c>
       <c r="K71" s="24">
         <f t="shared" ref="K71:K75" si="43">MAX(AH72:DP72)</f>
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="L71" s="49">
         <f t="shared" ref="L71:L75" si="44">J71-K71</f>
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="M71" s="24">
         <f>K71-K73</f>
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="N71" s="24">
         <v>1</v>
@@ -16253,8 +16301,12 @@
       <c r="BI72" s="43">
         <v>53</v>
       </c>
-      <c r="BJ72" s="43"/>
-      <c r="BK72" s="43"/>
+      <c r="BJ72" s="43">
+        <v>130</v>
+      </c>
+      <c r="BK72" s="43">
+        <v>130</v>
+      </c>
       <c r="BL72" s="43"/>
       <c r="BM72" s="43"/>
       <c r="BN72" s="43"/>
@@ -16831,8 +16883,12 @@
       <c r="BI74" s="43">
         <v>0</v>
       </c>
-      <c r="BJ74" s="43"/>
-      <c r="BK74" s="43"/>
+      <c r="BJ74" s="43">
+        <v>0</v>
+      </c>
+      <c r="BK74" s="43">
+        <v>0</v>
+      </c>
       <c r="BL74" s="43"/>
       <c r="BM74" s="43"/>
       <c r="BN74" s="43"/>
@@ -17178,19 +17234,19 @@
       </c>
       <c r="J77" s="75">
         <f>J17+J23+J29+J35+J41+J47+J53+J59+J65+J71</f>
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="K77" s="86">
         <f>MAX(O78:DP78)</f>
-        <v>449</v>
+        <v>524</v>
       </c>
       <c r="L77" s="87">
         <f t="shared" ref="L77:L81" si="50">J77-K77</f>
-        <v>458</v>
+        <v>384</v>
       </c>
       <c r="M77" s="86">
         <f>K77-K79</f>
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="N77" s="86">
         <v>9</v>
@@ -17705,8 +17761,14 @@
         <f>BI18+BI24+BI30+BI36+BI42+BI48+BI54+BI60+BI66+BI72</f>
         <v>449</v>
       </c>
-      <c r="BJ78" s="43"/>
-      <c r="BK78" s="43"/>
+      <c r="BJ78" s="43">
+        <f>BJ18+BJ24+BJ30+BJ36+BJ42+BJ48+BJ54+BJ60+BJ66+BJ72</f>
+        <v>519</v>
+      </c>
+      <c r="BK78" s="43">
+        <f>BK18+BK24+BK30+BK36+BK42+BK48+BK54+BK60+BK66+BK72</f>
+        <v>524</v>
+      </c>
       <c r="BL78" s="43"/>
       <c r="BM78" s="43"/>
       <c r="BN78" s="43"/>
@@ -17781,19 +17843,19 @@
       </c>
       <c r="J79" s="90">
         <f>J77</f>
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="K79" s="90">
         <f>MAX(O80:DP80)</f>
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="L79" s="91">
         <f t="shared" si="50"/>
-        <v>638</v>
+        <v>595</v>
       </c>
       <c r="M79" s="90">
         <f>K79-K81</f>
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="N79" s="88">
         <v>9</v>
@@ -18312,8 +18374,14 @@
         <f>BI20+BI26+BI32+BI38+BI44+BI50+BI56+BI62+BI68+BI74</f>
         <v>269</v>
       </c>
-      <c r="BJ80" s="43"/>
-      <c r="BK80" s="43"/>
+      <c r="BJ80" s="43">
+        <f>BJ20+BJ26+BJ32+BJ38+BJ44+BJ50+BJ56+BJ62+BJ68+BJ74</f>
+        <v>289</v>
+      </c>
+      <c r="BK80" s="43">
+        <f>BK20+BK26+BK32+BK38+BK44+BK50+BK56+BK62+BK68+BK74</f>
+        <v>313</v>
+      </c>
       <c r="BL80" s="43"/>
       <c r="BM80" s="43"/>
       <c r="BN80" s="43"/>
@@ -18386,7 +18454,7 @@
       </c>
       <c r="J81" s="90">
         <f>J79</f>
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="K81" s="90">
         <f>MAX(AH82:DP82)</f>
@@ -18394,7 +18462,7 @@
       </c>
       <c r="L81" s="91">
         <f t="shared" si="50"/>
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="M81" s="90"/>
       <c r="N81" s="88"/>

--- a/UPGRADE 3100-5000.xlsx
+++ b/UPGRADE 3100-5000.xlsx
@@ -2738,11 +2738,11 @@
   <dimension ref="A1:DP685"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="I1" workbookViewId="0">
-      <pane xSplit="5745" ySplit="1170" topLeftCell="AQ55" activePane="bottomLeft"/>
+      <pane xSplit="5745" ySplit="1170" topLeftCell="AQ70" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="J60" sqref="J60"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="AV75" sqref="AV75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="11.25"/>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="M17" s="24">
         <f>K17-K19</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N17" s="24">
         <v>1</v>
@@ -5727,7 +5727,9 @@
       <c r="BK18" s="60">
         <v>68</v>
       </c>
-      <c r="BL18" s="60"/>
+      <c r="BL18" s="60">
+        <v>69</v>
+      </c>
       <c r="BM18" s="60"/>
       <c r="BN18" s="60"/>
       <c r="BO18" s="60"/>
@@ -5819,15 +5821,15 @@
       </c>
       <c r="K19" s="29">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L19" s="51">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M19" s="29">
         <f>K19-K21</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N19" s="29">
         <v>1</v>
@@ -6261,7 +6263,9 @@
       <c r="BK20" s="43">
         <v>64</v>
       </c>
-      <c r="BL20" s="43"/>
+      <c r="BL20" s="43">
+        <v>65</v>
+      </c>
       <c r="BM20" s="43"/>
       <c r="BN20" s="43"/>
       <c r="BO20" s="43"/>
@@ -6977,7 +6981,9 @@
       <c r="BK24" s="43">
         <v>49</v>
       </c>
-      <c r="BL24" s="43"/>
+      <c r="BL24" s="43">
+        <v>49</v>
+      </c>
       <c r="BM24" s="43"/>
       <c r="BN24" s="43"/>
       <c r="BO24" s="43"/>
@@ -7429,7 +7435,9 @@
       <c r="BK26" s="43">
         <v>46</v>
       </c>
-      <c r="BL26" s="43"/>
+      <c r="BL26" s="43">
+        <v>46</v>
+      </c>
       <c r="BM26" s="43"/>
       <c r="BN26" s="43"/>
       <c r="BO26" s="43"/>
@@ -8265,7 +8273,9 @@
       <c r="BK30" s="43">
         <v>104</v>
       </c>
-      <c r="BL30" s="43"/>
+      <c r="BL30" s="43">
+        <v>105</v>
+      </c>
       <c r="BM30" s="43"/>
       <c r="BN30" s="43"/>
       <c r="BO30" s="43"/>
@@ -8837,7 +8847,9 @@
       <c r="BK32" s="43">
         <v>95</v>
       </c>
-      <c r="BL32" s="43"/>
+      <c r="BL32" s="43">
+        <v>95</v>
+      </c>
       <c r="BM32" s="43"/>
       <c r="BN32" s="43"/>
       <c r="BO32" s="43"/>
@@ -9600,7 +9612,9 @@
       <c r="BK36" s="43">
         <v>31</v>
       </c>
-      <c r="BL36" s="43"/>
+      <c r="BL36" s="43">
+        <v>31</v>
+      </c>
       <c r="BM36" s="43"/>
       <c r="BN36" s="43"/>
       <c r="BO36" s="43"/>
@@ -10101,7 +10115,9 @@
       <c r="BK38" s="43">
         <v>27</v>
       </c>
-      <c r="BL38" s="43"/>
+      <c r="BL38" s="43">
+        <v>27</v>
+      </c>
       <c r="BM38" s="43"/>
       <c r="BN38" s="43"/>
       <c r="BO38" s="43"/>
@@ -10457,7 +10473,7 @@
       </c>
       <c r="M41" s="24">
         <f>K41-K43</f>
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N41" s="24">
         <v>1</v>
@@ -10862,7 +10878,9 @@
       <c r="BK42" s="43">
         <v>49</v>
       </c>
-      <c r="BL42" s="43"/>
+      <c r="BL42" s="43">
+        <v>44</v>
+      </c>
       <c r="BM42" s="43"/>
       <c r="BN42" s="43"/>
       <c r="BO42" s="43"/>
@@ -10948,15 +10966,15 @@
       </c>
       <c r="K43" s="29">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L43" s="51">
         <f t="shared" si="24"/>
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M43" s="29">
         <f>K43-K45</f>
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N43" s="29">
         <v>1</v>
@@ -11359,7 +11377,9 @@
       <c r="BK44" s="43">
         <v>15</v>
       </c>
-      <c r="BL44" s="43"/>
+      <c r="BL44" s="43">
+        <v>26</v>
+      </c>
       <c r="BM44" s="43"/>
       <c r="BN44" s="43"/>
       <c r="BO44" s="43"/>
@@ -11715,7 +11735,7 @@
       </c>
       <c r="M47" s="24">
         <f>K47-K49</f>
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N47" s="24">
         <v>2</v>
@@ -12186,7 +12206,9 @@
       <c r="BK48" s="43">
         <v>93</v>
       </c>
-      <c r="BL48" s="43"/>
+      <c r="BL48" s="43">
+        <v>93</v>
+      </c>
       <c r="BM48" s="43"/>
       <c r="BN48" s="43"/>
       <c r="BO48" s="43"/>
@@ -12272,15 +12294,15 @@
       </c>
       <c r="K49" s="29">
         <f t="shared" si="28"/>
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="L49" s="51">
         <f t="shared" si="29"/>
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="M49" s="29">
         <f>K49-K51</f>
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="N49" s="29">
         <v>2</v>
@@ -12749,7 +12771,9 @@
       <c r="BK50" s="43">
         <v>65</v>
       </c>
-      <c r="BL50" s="43"/>
+      <c r="BL50" s="43">
+        <v>77</v>
+      </c>
       <c r="BM50" s="43"/>
       <c r="BN50" s="43"/>
       <c r="BO50" s="43"/>
@@ -16307,7 +16331,9 @@
       <c r="BK72" s="43">
         <v>130</v>
       </c>
-      <c r="BL72" s="43"/>
+      <c r="BL72" s="43">
+        <v>130</v>
+      </c>
       <c r="BM72" s="43"/>
       <c r="BN72" s="43"/>
       <c r="BO72" s="43"/>
@@ -16889,7 +16915,9 @@
       <c r="BK74" s="43">
         <v>0</v>
       </c>
-      <c r="BL74" s="43"/>
+      <c r="BL74" s="43">
+        <v>0</v>
+      </c>
       <c r="BM74" s="43"/>
       <c r="BN74" s="43"/>
       <c r="BO74" s="43"/>
@@ -17246,7 +17274,7 @@
       </c>
       <c r="M77" s="86">
         <f>K77-K79</f>
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="N77" s="86">
         <v>9</v>
@@ -17769,7 +17797,10 @@
         <f>BK18+BK24+BK30+BK36+BK42+BK48+BK54+BK60+BK66+BK72</f>
         <v>524</v>
       </c>
-      <c r="BL78" s="43"/>
+      <c r="BL78" s="43">
+        <f>BL18+BL24+BL30+BL36+BL42+BL48+BL54+BL60+BL66+BL72</f>
+        <v>521</v>
+      </c>
       <c r="BM78" s="43"/>
       <c r="BN78" s="43"/>
       <c r="BO78" s="43"/>
@@ -17847,15 +17878,15 @@
       </c>
       <c r="K79" s="90">
         <f>MAX(O80:DP80)</f>
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="L79" s="91">
         <f t="shared" si="50"/>
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="M79" s="90">
         <f>K79-K81</f>
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="N79" s="88">
         <v>9</v>
@@ -18382,7 +18413,10 @@
         <f>BK20+BK26+BK32+BK38+BK44+BK50+BK56+BK62+BK68+BK74</f>
         <v>313</v>
       </c>
-      <c r="BL80" s="43"/>
+      <c r="BL80" s="43">
+        <f>BL20+BL26+BL32+BL38+BL44+BL50+BL56+BL62+BL68+BL74</f>
+        <v>337</v>
+      </c>
       <c r="BM80" s="43"/>
       <c r="BN80" s="43"/>
       <c r="BO80" s="43"/>

--- a/UPGRADE 3100-5000.xlsx
+++ b/UPGRADE 3100-5000.xlsx
@@ -1194,10 +1194,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1236,15 +1236,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1265,14 +1273,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1281,38 +1291,23 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1327,16 +1322,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1356,6 +1357,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1365,15 +1373,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1479,7 +1479,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1491,7 +1545,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1503,79 +1575,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1593,7 +1599,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1605,37 +1623,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1877,7 +1877,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1886,22 +1886,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1936,6 +1921,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1950,172 +1970,152 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2738,11 +2738,11 @@
   <dimension ref="A1:DP685"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="I1" workbookViewId="0">
-      <pane xSplit="5745" ySplit="1170" topLeftCell="AQ70" activePane="bottomRight"/>
+      <pane xSplit="5745" ySplit="1170" topLeftCell="BF55" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AV75" sqref="AV75"/>
+      <selection pane="bottomRight" activeCell="BK75" sqref="BK75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="11.25"/>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="M17" s="24">
         <f>K17-K19</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N17" s="24">
         <v>1</v>
@@ -5730,12 +5730,24 @@
       <c r="BL18" s="60">
         <v>69</v>
       </c>
-      <c r="BM18" s="60"/>
-      <c r="BN18" s="60"/>
-      <c r="BO18" s="60"/>
-      <c r="BP18" s="60"/>
-      <c r="BQ18" s="60"/>
-      <c r="BR18" s="60"/>
+      <c r="BM18" s="60">
+        <v>69</v>
+      </c>
+      <c r="BN18" s="60">
+        <v>69</v>
+      </c>
+      <c r="BO18" s="60">
+        <v>69</v>
+      </c>
+      <c r="BP18" s="60">
+        <v>67</v>
+      </c>
+      <c r="BQ18" s="60">
+        <v>69</v>
+      </c>
+      <c r="BR18" s="60">
+        <v>71</v>
+      </c>
       <c r="BS18" s="60"/>
       <c r="BT18" s="60"/>
       <c r="BU18" s="60"/>
@@ -5821,15 +5833,15 @@
       </c>
       <c r="K19" s="29">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L19" s="51">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M19" s="29">
         <f>K19-K21</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N19" s="29">
         <v>1</v>
@@ -6266,12 +6278,24 @@
       <c r="BL20" s="43">
         <v>65</v>
       </c>
-      <c r="BM20" s="43"/>
-      <c r="BN20" s="43"/>
-      <c r="BO20" s="43"/>
-      <c r="BP20" s="43"/>
-      <c r="BQ20" s="43"/>
-      <c r="BR20" s="43"/>
+      <c r="BM20" s="43">
+        <v>65</v>
+      </c>
+      <c r="BN20" s="43">
+        <v>65</v>
+      </c>
+      <c r="BO20" s="43">
+        <v>65</v>
+      </c>
+      <c r="BP20" s="43">
+        <v>65</v>
+      </c>
+      <c r="BQ20" s="43">
+        <v>67</v>
+      </c>
+      <c r="BR20" s="43">
+        <v>70</v>
+      </c>
       <c r="BS20" s="43"/>
       <c r="BT20" s="43"/>
       <c r="BU20" s="43"/>
@@ -6615,15 +6639,15 @@
       </c>
       <c r="K23" s="24">
         <f t="shared" ref="K23:K27" si="7">MAX(AH24:DP24)</f>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L23" s="49">
         <f t="shared" ref="L23:L27" si="8">J23-K23</f>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M23" s="24">
         <f>K23-K25</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N23" s="24">
         <v>1</v>
@@ -6984,12 +7008,24 @@
       <c r="BL24" s="43">
         <v>49</v>
       </c>
-      <c r="BM24" s="43"/>
-      <c r="BN24" s="43"/>
-      <c r="BO24" s="43"/>
-      <c r="BP24" s="43"/>
-      <c r="BQ24" s="43"/>
-      <c r="BR24" s="43"/>
+      <c r="BM24" s="43">
+        <v>49</v>
+      </c>
+      <c r="BN24" s="43">
+        <v>49</v>
+      </c>
+      <c r="BO24" s="43">
+        <v>49</v>
+      </c>
+      <c r="BP24" s="43">
+        <v>49</v>
+      </c>
+      <c r="BQ24" s="43">
+        <v>56</v>
+      </c>
+      <c r="BR24" s="43">
+        <v>57</v>
+      </c>
       <c r="BS24" s="43"/>
       <c r="BT24" s="43"/>
       <c r="BU24" s="43"/>
@@ -7071,15 +7107,15 @@
       </c>
       <c r="K25" s="29">
         <f t="shared" si="7"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="L25" s="51">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M25" s="29">
         <f>K25-K27</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="N25" s="29">
         <v>1</v>
@@ -7438,12 +7474,24 @@
       <c r="BL26" s="43">
         <v>46</v>
       </c>
-      <c r="BM26" s="43"/>
-      <c r="BN26" s="43"/>
-      <c r="BO26" s="43"/>
-      <c r="BP26" s="43"/>
-      <c r="BQ26" s="43"/>
-      <c r="BR26" s="43"/>
+      <c r="BM26" s="43">
+        <v>46</v>
+      </c>
+      <c r="BN26" s="43">
+        <v>46</v>
+      </c>
+      <c r="BO26" s="43">
+        <v>46</v>
+      </c>
+      <c r="BP26" s="43">
+        <v>48</v>
+      </c>
+      <c r="BQ26" s="43">
+        <v>49</v>
+      </c>
+      <c r="BR26" s="43">
+        <v>54</v>
+      </c>
       <c r="BS26" s="43"/>
       <c r="BT26" s="43"/>
       <c r="BU26" s="43"/>
@@ -7795,7 +7843,7 @@
       </c>
       <c r="M29" s="24">
         <f>K29-K31</f>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N29" s="24">
         <v>2</v>
@@ -8276,12 +8324,24 @@
       <c r="BL30" s="43">
         <v>105</v>
       </c>
-      <c r="BM30" s="43"/>
-      <c r="BN30" s="43"/>
-      <c r="BO30" s="43"/>
-      <c r="BP30" s="43"/>
-      <c r="BQ30" s="43"/>
-      <c r="BR30" s="43"/>
+      <c r="BM30" s="43">
+        <v>105</v>
+      </c>
+      <c r="BN30" s="43">
+        <v>105</v>
+      </c>
+      <c r="BO30" s="43">
+        <v>105</v>
+      </c>
+      <c r="BP30" s="43">
+        <v>104</v>
+      </c>
+      <c r="BQ30" s="43">
+        <v>112</v>
+      </c>
+      <c r="BR30" s="43">
+        <v>112</v>
+      </c>
       <c r="BS30" s="43"/>
       <c r="BT30" s="43"/>
       <c r="BU30" s="43"/>
@@ -8363,15 +8423,15 @@
       </c>
       <c r="K31" s="29">
         <f t="shared" si="11"/>
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L31" s="51">
         <f t="shared" si="12"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M31" s="29">
         <f>K31-K33</f>
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="N31" s="29">
         <v>2</v>
@@ -8850,12 +8910,24 @@
       <c r="BL32" s="43">
         <v>95</v>
       </c>
-      <c r="BM32" s="43"/>
-      <c r="BN32" s="43"/>
-      <c r="BO32" s="43"/>
-      <c r="BP32" s="43"/>
-      <c r="BQ32" s="43"/>
-      <c r="BR32" s="43"/>
+      <c r="BM32" s="43">
+        <v>95</v>
+      </c>
+      <c r="BN32" s="43">
+        <v>95</v>
+      </c>
+      <c r="BO32" s="43">
+        <v>95</v>
+      </c>
+      <c r="BP32" s="43">
+        <v>97</v>
+      </c>
+      <c r="BQ32" s="43">
+        <v>99</v>
+      </c>
+      <c r="BR32" s="43">
+        <v>103</v>
+      </c>
       <c r="BS32" s="43"/>
       <c r="BT32" s="43"/>
       <c r="BU32" s="43"/>
@@ -9203,7 +9275,7 @@
       </c>
       <c r="M35" s="24">
         <f>K35-K37</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N35" s="24">
         <v>1</v>
@@ -9615,12 +9687,24 @@
       <c r="BL36" s="43">
         <v>31</v>
       </c>
-      <c r="BM36" s="43"/>
-      <c r="BN36" s="43"/>
-      <c r="BO36" s="43"/>
-      <c r="BP36" s="43"/>
-      <c r="BQ36" s="43"/>
-      <c r="BR36" s="43"/>
+      <c r="BM36" s="43">
+        <v>31</v>
+      </c>
+      <c r="BN36" s="43">
+        <v>31</v>
+      </c>
+      <c r="BO36" s="43">
+        <v>31</v>
+      </c>
+      <c r="BP36" s="43">
+        <v>31</v>
+      </c>
+      <c r="BQ36" s="43">
+        <v>33</v>
+      </c>
+      <c r="BR36" s="43">
+        <v>33</v>
+      </c>
       <c r="BS36" s="43"/>
       <c r="BT36" s="43"/>
       <c r="BU36" s="43"/>
@@ -9700,15 +9784,15 @@
       </c>
       <c r="K37" s="29">
         <f t="shared" si="18"/>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L37" s="51">
         <f t="shared" si="19"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M37" s="29">
         <f>K37-K39</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N37" s="29">
         <v>1</v>
@@ -10118,12 +10202,24 @@
       <c r="BL38" s="43">
         <v>27</v>
       </c>
-      <c r="BM38" s="43"/>
-      <c r="BN38" s="43"/>
-      <c r="BO38" s="43"/>
-      <c r="BP38" s="43"/>
-      <c r="BQ38" s="43"/>
-      <c r="BR38" s="43"/>
+      <c r="BM38" s="43">
+        <v>27</v>
+      </c>
+      <c r="BN38" s="43">
+        <v>27</v>
+      </c>
+      <c r="BO38" s="43">
+        <v>27</v>
+      </c>
+      <c r="BP38" s="43">
+        <v>27</v>
+      </c>
+      <c r="BQ38" s="43">
+        <v>31</v>
+      </c>
+      <c r="BR38" s="43">
+        <v>33</v>
+      </c>
       <c r="BS38" s="43"/>
       <c r="BT38" s="43"/>
       <c r="BU38" s="43"/>
@@ -10473,7 +10569,7 @@
       </c>
       <c r="M41" s="24">
         <f>K41-K43</f>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="N41" s="24">
         <v>1</v>
@@ -10881,12 +10977,24 @@
       <c r="BL42" s="43">
         <v>44</v>
       </c>
-      <c r="BM42" s="43"/>
-      <c r="BN42" s="43"/>
-      <c r="BO42" s="43"/>
-      <c r="BP42" s="43"/>
-      <c r="BQ42" s="43"/>
-      <c r="BR42" s="43"/>
+      <c r="BM42" s="43">
+        <v>44</v>
+      </c>
+      <c r="BN42" s="43">
+        <v>44</v>
+      </c>
+      <c r="BO42" s="43">
+        <v>44</v>
+      </c>
+      <c r="BP42" s="43">
+        <v>42</v>
+      </c>
+      <c r="BQ42" s="43">
+        <v>44</v>
+      </c>
+      <c r="BR42" s="43">
+        <v>44</v>
+      </c>
       <c r="BS42" s="43"/>
       <c r="BT42" s="43"/>
       <c r="BU42" s="43"/>
@@ -10966,15 +11074,15 @@
       </c>
       <c r="K43" s="29">
         <f t="shared" si="23"/>
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L43" s="51">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M43" s="29">
         <f>K43-K45</f>
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N43" s="29">
         <v>1</v>
@@ -11380,12 +11488,24 @@
       <c r="BL44" s="43">
         <v>26</v>
       </c>
-      <c r="BM44" s="43"/>
-      <c r="BN44" s="43"/>
-      <c r="BO44" s="43"/>
-      <c r="BP44" s="43"/>
-      <c r="BQ44" s="43"/>
-      <c r="BR44" s="43"/>
+      <c r="BM44" s="43">
+        <v>26</v>
+      </c>
+      <c r="BN44" s="43">
+        <v>26</v>
+      </c>
+      <c r="BO44" s="43">
+        <v>26</v>
+      </c>
+      <c r="BP44" s="43">
+        <v>30</v>
+      </c>
+      <c r="BQ44" s="43">
+        <v>34</v>
+      </c>
+      <c r="BR44" s="43">
+        <v>39</v>
+      </c>
       <c r="BS44" s="43"/>
       <c r="BT44" s="43"/>
       <c r="BU44" s="43"/>
@@ -11735,7 +11855,7 @@
       </c>
       <c r="M47" s="24">
         <f>K47-K49</f>
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N47" s="24">
         <v>2</v>
@@ -12209,12 +12329,24 @@
       <c r="BL48" s="43">
         <v>93</v>
       </c>
-      <c r="BM48" s="43"/>
-      <c r="BN48" s="43"/>
-      <c r="BO48" s="43"/>
-      <c r="BP48" s="43"/>
-      <c r="BQ48" s="43"/>
-      <c r="BR48" s="43"/>
+      <c r="BM48" s="43">
+        <v>93</v>
+      </c>
+      <c r="BN48" s="43">
+        <v>93</v>
+      </c>
+      <c r="BO48" s="43">
+        <v>93</v>
+      </c>
+      <c r="BP48" s="43">
+        <v>92</v>
+      </c>
+      <c r="BQ48" s="43">
+        <v>99</v>
+      </c>
+      <c r="BR48" s="43">
+        <v>97</v>
+      </c>
       <c r="BS48" s="43"/>
       <c r="BT48" s="43"/>
       <c r="BU48" s="43"/>
@@ -12294,15 +12426,15 @@
       </c>
       <c r="K49" s="29">
         <f t="shared" si="28"/>
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="L49" s="51">
         <f t="shared" si="29"/>
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="M49" s="29">
         <f>K49-K51</f>
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="N49" s="29">
         <v>2</v>
@@ -12774,12 +12906,24 @@
       <c r="BL50" s="43">
         <v>77</v>
       </c>
-      <c r="BM50" s="43"/>
-      <c r="BN50" s="43"/>
-      <c r="BO50" s="43"/>
-      <c r="BP50" s="43"/>
-      <c r="BQ50" s="43"/>
-      <c r="BR50" s="43"/>
+      <c r="BM50" s="43">
+        <v>77</v>
+      </c>
+      <c r="BN50" s="43">
+        <v>77</v>
+      </c>
+      <c r="BO50" s="43">
+        <v>77</v>
+      </c>
+      <c r="BP50" s="43">
+        <v>82</v>
+      </c>
+      <c r="BQ50" s="43">
+        <v>87</v>
+      </c>
+      <c r="BR50" s="43">
+        <v>89</v>
+      </c>
       <c r="BS50" s="43"/>
       <c r="BT50" s="43"/>
       <c r="BU50" s="43"/>
@@ -15839,7 +15983,7 @@
       </c>
       <c r="M71" s="24">
         <f>K71-K73</f>
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="N71" s="24">
         <v>1</v>
@@ -16334,12 +16478,24 @@
       <c r="BL72" s="43">
         <v>130</v>
       </c>
-      <c r="BM72" s="43"/>
-      <c r="BN72" s="43"/>
-      <c r="BO72" s="43"/>
-      <c r="BP72" s="43"/>
-      <c r="BQ72" s="43"/>
-      <c r="BR72" s="43"/>
+      <c r="BM72" s="43">
+        <v>130</v>
+      </c>
+      <c r="BN72" s="43">
+        <v>130</v>
+      </c>
+      <c r="BO72" s="43">
+        <v>130</v>
+      </c>
+      <c r="BP72" s="43">
+        <v>130</v>
+      </c>
+      <c r="BQ72" s="43">
+        <v>130</v>
+      </c>
+      <c r="BR72" s="43">
+        <v>130</v>
+      </c>
       <c r="BS72" s="43"/>
       <c r="BT72" s="43"/>
       <c r="BU72" s="43"/>
@@ -16417,15 +16573,15 @@
       </c>
       <c r="K73" s="29">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L73" s="51">
         <f t="shared" si="44"/>
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M73" s="29">
         <f>K73-K75</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N73" s="29">
         <v>1</v>
@@ -16918,12 +17074,24 @@
       <c r="BL74" s="43">
         <v>0</v>
       </c>
-      <c r="BM74" s="43"/>
-      <c r="BN74" s="43"/>
-      <c r="BO74" s="43"/>
-      <c r="BP74" s="43"/>
-      <c r="BQ74" s="43"/>
-      <c r="BR74" s="43"/>
+      <c r="BM74" s="43">
+        <v>0</v>
+      </c>
+      <c r="BN74" s="43">
+        <v>0</v>
+      </c>
+      <c r="BO74" s="43">
+        <v>0</v>
+      </c>
+      <c r="BP74" s="43">
+        <v>0</v>
+      </c>
+      <c r="BQ74" s="43">
+        <v>4</v>
+      </c>
+      <c r="BR74" s="43">
+        <v>4</v>
+      </c>
       <c r="BS74" s="43"/>
       <c r="BT74" s="43"/>
       <c r="BU74" s="43"/>
@@ -17266,15 +17434,15 @@
       </c>
       <c r="K77" s="86">
         <f>MAX(O78:DP78)</f>
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="L77" s="87">
         <f t="shared" ref="L77:L81" si="50">J77-K77</f>
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="M77" s="86">
         <f>K77-K79</f>
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="N77" s="86">
         <v>9</v>
@@ -17678,7 +17846,7 @@
       <c r="AF78" s="43"/>
       <c r="AG78" s="43"/>
       <c r="AH78" s="43">
-        <f t="shared" ref="AH78:BE78" si="53">AH18+AH24+AH30+AH36+AH42+AH48+AH54+AH60+AH66+AH72</f>
+        <f t="shared" ref="AH78:BL78" si="53">AH18+AH24+AH30+AH36+AH42+AH48+AH54+AH60+AH66+AH72</f>
         <v>231</v>
       </c>
       <c r="AI78" s="43">
@@ -17774,39 +17942,57 @@
         <v>390</v>
       </c>
       <c r="BF78" s="43">
-        <f>BF18+BF24+BF30+BF36+BF42+BF48+BF54+BF60+BF66+BF72</f>
+        <f t="shared" si="53"/>
         <v>388</v>
       </c>
       <c r="BG78" s="43">
-        <f>BG18+BG24+BG30+BG36+BG42+BG48+BG54+BG60+BG66+BG72</f>
+        <f t="shared" si="53"/>
         <v>405</v>
       </c>
       <c r="BH78" s="43">
-        <f>BH18+BH24+BH30+BH36+BH42+BH48+BH54+BH60+BH66+BH72</f>
+        <f t="shared" si="53"/>
         <v>409</v>
       </c>
       <c r="BI78" s="43">
-        <f>BI18+BI24+BI30+BI36+BI42+BI48+BI54+BI60+BI66+BI72</f>
+        <f t="shared" si="53"/>
         <v>449</v>
       </c>
       <c r="BJ78" s="43">
-        <f>BJ18+BJ24+BJ30+BJ36+BJ42+BJ48+BJ54+BJ60+BJ66+BJ72</f>
+        <f t="shared" si="53"/>
         <v>519</v>
       </c>
       <c r="BK78" s="43">
-        <f>BK18+BK24+BK30+BK36+BK42+BK48+BK54+BK60+BK66+BK72</f>
+        <f t="shared" si="53"/>
         <v>524</v>
       </c>
       <c r="BL78" s="43">
-        <f>BL18+BL24+BL30+BL36+BL42+BL48+BL54+BL60+BL66+BL72</f>
+        <f t="shared" si="53"/>
         <v>521</v>
       </c>
-      <c r="BM78" s="43"/>
-      <c r="BN78" s="43"/>
-      <c r="BO78" s="43"/>
-      <c r="BP78" s="43"/>
-      <c r="BQ78" s="43"/>
-      <c r="BR78" s="43"/>
+      <c r="BM78" s="43">
+        <f>BM18+BM24+BM30+BM36+BM42+BM48+BM54+BM60+BM66+BM72</f>
+        <v>521</v>
+      </c>
+      <c r="BN78" s="43">
+        <f>BN18+BN24+BN30+BN36+BN42+BN48+BN54+BN60+BN66+BN72</f>
+        <v>521</v>
+      </c>
+      <c r="BO78" s="43">
+        <f>BO18+BO24+BO30+BO36+BO42+BO48+BO54+BO60+BO66+BO72</f>
+        <v>521</v>
+      </c>
+      <c r="BP78" s="43">
+        <f>BP18+BP24+BP30+BP36+BP42+BP48+BP54+BP60+BP66+BP72</f>
+        <v>515</v>
+      </c>
+      <c r="BQ78" s="43">
+        <f>BQ18+BQ24+BQ30+BQ36+BQ42+BQ48+BQ54+BQ60+BQ66+BQ72</f>
+        <v>543</v>
+      </c>
+      <c r="BR78" s="43">
+        <f>BR18+BR24+BR30+BR36+BR42+BR48+BR54+BR60+BR66+BR72</f>
+        <v>544</v>
+      </c>
       <c r="BS78" s="43"/>
       <c r="BT78" s="43"/>
       <c r="BU78" s="43"/>
@@ -17878,15 +18064,15 @@
       </c>
       <c r="K79" s="90">
         <f>MAX(O80:DP80)</f>
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="L79" s="91">
         <f t="shared" si="50"/>
-        <v>571</v>
+        <v>515</v>
       </c>
       <c r="M79" s="90">
         <f>K79-K81</f>
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="N79" s="88">
         <v>9</v>
@@ -18294,7 +18480,7 @@
       <c r="AF80" s="43"/>
       <c r="AG80" s="43"/>
       <c r="AH80" s="43">
-        <f t="shared" ref="AH80:BE80" si="59">AH20+AH26+AH32+AH38+AH44+AH50+AH56+AH62+AH68+AH74</f>
+        <f t="shared" ref="AH80:BL80" si="59">AH20+AH26+AH32+AH38+AH44+AH50+AH56+AH62+AH68+AH74</f>
         <v>68</v>
       </c>
       <c r="AI80" s="43">
@@ -18390,39 +18576,57 @@
         <v>184</v>
       </c>
       <c r="BF80" s="43">
-        <f>BF20+BF26+BF32+BF38+BF44+BF50+BF56+BF62+BF68+BF74</f>
+        <f t="shared" si="59"/>
         <v>200</v>
       </c>
       <c r="BG80" s="43">
-        <f>BG20+BG26+BG32+BG38+BG44+BG50+BG56+BG62+BG68+BG74</f>
+        <f t="shared" si="59"/>
         <v>226</v>
       </c>
       <c r="BH80" s="43">
-        <f>BH20+BH26+BH32+BH38+BH44+BH50+BH56+BH62+BH68+BH74</f>
+        <f t="shared" si="59"/>
         <v>246</v>
       </c>
       <c r="BI80" s="43">
-        <f>BI20+BI26+BI32+BI38+BI44+BI50+BI56+BI62+BI68+BI74</f>
+        <f t="shared" si="59"/>
         <v>269</v>
       </c>
       <c r="BJ80" s="43">
-        <f>BJ20+BJ26+BJ32+BJ38+BJ44+BJ50+BJ56+BJ62+BJ68+BJ74</f>
+        <f t="shared" si="59"/>
         <v>289</v>
       </c>
       <c r="BK80" s="43">
-        <f>BK20+BK26+BK32+BK38+BK44+BK50+BK56+BK62+BK68+BK74</f>
+        <f t="shared" si="59"/>
         <v>313</v>
       </c>
       <c r="BL80" s="43">
-        <f>BL20+BL26+BL32+BL38+BL44+BL50+BL56+BL62+BL68+BL74</f>
+        <f t="shared" si="59"/>
         <v>337</v>
       </c>
-      <c r="BM80" s="43"/>
-      <c r="BN80" s="43"/>
-      <c r="BO80" s="43"/>
-      <c r="BP80" s="43"/>
-      <c r="BQ80" s="43"/>
-      <c r="BR80" s="43"/>
+      <c r="BM80" s="43">
+        <f>BM20+BM26+BM32+BM38+BM44+BM50+BM56+BM62+BM68+BM74</f>
+        <v>337</v>
+      </c>
+      <c r="BN80" s="43">
+        <f>BN20+BN26+BN32+BN38+BN44+BN50+BN56+BN62+BN68+BN74</f>
+        <v>337</v>
+      </c>
+      <c r="BO80" s="43">
+        <f>BO20+BO26+BO32+BO38+BO44+BO50+BO56+BO62+BO68+BO74</f>
+        <v>337</v>
+      </c>
+      <c r="BP80" s="43">
+        <f>BP20+BP26+BP32+BP38+BP44+BP50+BP56+BP62+BP68+BP74</f>
+        <v>350</v>
+      </c>
+      <c r="BQ80" s="43">
+        <f>BQ20+BQ26+BQ32+BQ38+BQ44+BQ50+BQ56+BQ62+BQ68+BQ74</f>
+        <v>372</v>
+      </c>
+      <c r="BR80" s="43">
+        <f>BR20+BR26+BR32+BR38+BR44+BR50+BR56+BR62+BR68+BR74</f>
+        <v>393</v>
+      </c>
       <c r="BS80" s="43"/>
       <c r="BT80" s="43"/>
       <c r="BU80" s="43"/>

--- a/UPGRADE 3100-5000.xlsx
+++ b/UPGRADE 3100-5000.xlsx
@@ -2738,11 +2738,11 @@
   <dimension ref="A1:DP685"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="I1" workbookViewId="0">
-      <pane xSplit="5745" ySplit="1170" topLeftCell="BF55" activePane="bottomRight"/>
+      <pane xSplit="5745" ySplit="1170" topLeftCell="BF73" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BK75" sqref="BK75"/>
+      <selection pane="bottomRight" activeCell="BT80" sqref="BT80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="11.25"/>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="M17" s="24">
         <f>K17-K19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="24">
         <v>1</v>
@@ -5748,7 +5748,9 @@
       <c r="BR18" s="60">
         <v>71</v>
       </c>
-      <c r="BS18" s="60"/>
+      <c r="BS18" s="60">
+        <v>71</v>
+      </c>
       <c r="BT18" s="60"/>
       <c r="BU18" s="60"/>
       <c r="BV18" s="60"/>
@@ -5833,15 +5835,15 @@
       </c>
       <c r="K19" s="29">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L19" s="51">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M19" s="29">
         <f>K19-K21</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N19" s="29">
         <v>1</v>
@@ -6296,7 +6298,9 @@
       <c r="BR20" s="43">
         <v>70</v>
       </c>
-      <c r="BS20" s="43"/>
+      <c r="BS20" s="43">
+        <v>71</v>
+      </c>
       <c r="BT20" s="43"/>
       <c r="BU20" s="43"/>
       <c r="BV20" s="43"/>
@@ -6647,7 +6651,7 @@
       </c>
       <c r="M23" s="24">
         <f>K23-K25</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23" s="24">
         <v>1</v>
@@ -7026,7 +7030,9 @@
       <c r="BR24" s="43">
         <v>57</v>
       </c>
-      <c r="BS24" s="43"/>
+      <c r="BS24" s="43">
+        <v>57</v>
+      </c>
       <c r="BT24" s="43"/>
       <c r="BU24" s="43"/>
       <c r="BV24" s="43"/>
@@ -7107,15 +7113,15 @@
       </c>
       <c r="K25" s="29">
         <f t="shared" si="7"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L25" s="51">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M25" s="29">
         <f>K25-K27</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N25" s="29">
         <v>1</v>
@@ -7492,7 +7498,9 @@
       <c r="BR26" s="43">
         <v>54</v>
       </c>
-      <c r="BS26" s="43"/>
+      <c r="BS26" s="43">
+        <v>56</v>
+      </c>
       <c r="BT26" s="43"/>
       <c r="BU26" s="43"/>
       <c r="BV26" s="43"/>
@@ -8342,7 +8350,9 @@
       <c r="BR30" s="43">
         <v>112</v>
       </c>
-      <c r="BS30" s="43"/>
+      <c r="BS30" s="43">
+        <v>113</v>
+      </c>
       <c r="BT30" s="43"/>
       <c r="BU30" s="43"/>
       <c r="BV30" s="43"/>
@@ -8928,7 +8938,9 @@
       <c r="BR32" s="43">
         <v>103</v>
       </c>
-      <c r="BS32" s="43"/>
+      <c r="BS32" s="43">
+        <v>103</v>
+      </c>
       <c r="BT32" s="43"/>
       <c r="BU32" s="43"/>
       <c r="BV32" s="43"/>
@@ -9705,7 +9717,9 @@
       <c r="BR36" s="43">
         <v>33</v>
       </c>
-      <c r="BS36" s="43"/>
+      <c r="BS36" s="43">
+        <v>33</v>
+      </c>
       <c r="BT36" s="43"/>
       <c r="BU36" s="43"/>
       <c r="BV36" s="43"/>
@@ -10220,7 +10234,9 @@
       <c r="BR38" s="43">
         <v>33</v>
       </c>
-      <c r="BS38" s="43"/>
+      <c r="BS38" s="43">
+        <v>33</v>
+      </c>
       <c r="BT38" s="43"/>
       <c r="BU38" s="43"/>
       <c r="BV38" s="43"/>
@@ -10995,7 +11011,9 @@
       <c r="BR42" s="43">
         <v>44</v>
       </c>
-      <c r="BS42" s="43"/>
+      <c r="BS42" s="43">
+        <v>44</v>
+      </c>
       <c r="BT42" s="43"/>
       <c r="BU42" s="43"/>
       <c r="BV42" s="43"/>
@@ -11506,7 +11524,9 @@
       <c r="BR44" s="43">
         <v>39</v>
       </c>
-      <c r="BS44" s="43"/>
+      <c r="BS44" s="43">
+        <v>39</v>
+      </c>
       <c r="BT44" s="43"/>
       <c r="BU44" s="43"/>
       <c r="BV44" s="43"/>
@@ -11855,7 +11875,7 @@
       </c>
       <c r="M47" s="24">
         <f>K47-K49</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N47" s="24">
         <v>2</v>
@@ -12347,7 +12367,9 @@
       <c r="BR48" s="43">
         <v>97</v>
       </c>
-      <c r="BS48" s="43"/>
+      <c r="BS48" s="43">
+        <v>95</v>
+      </c>
       <c r="BT48" s="43"/>
       <c r="BU48" s="43"/>
       <c r="BV48" s="43"/>
@@ -12426,15 +12448,15 @@
       </c>
       <c r="K49" s="29">
         <f t="shared" si="28"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L49" s="51">
         <f t="shared" si="29"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M49" s="29">
         <f>K49-K51</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N49" s="29">
         <v>2</v>
@@ -12924,7 +12946,9 @@
       <c r="BR50" s="43">
         <v>89</v>
       </c>
-      <c r="BS50" s="43"/>
+      <c r="BS50" s="43">
+        <v>90</v>
+      </c>
       <c r="BT50" s="43"/>
       <c r="BU50" s="43"/>
       <c r="BV50" s="43"/>
@@ -16496,7 +16520,9 @@
       <c r="BR72" s="43">
         <v>130</v>
       </c>
-      <c r="BS72" s="43"/>
+      <c r="BS72" s="43">
+        <v>125</v>
+      </c>
       <c r="BT72" s="43"/>
       <c r="BU72" s="43"/>
       <c r="BV72" s="43"/>
@@ -17092,7 +17118,9 @@
       <c r="BR74" s="43">
         <v>4</v>
       </c>
-      <c r="BS74" s="43"/>
+      <c r="BS74" s="43">
+        <v>4</v>
+      </c>
       <c r="BT74" s="43"/>
       <c r="BU74" s="43"/>
       <c r="BV74" s="43"/>
@@ -17442,7 +17470,7 @@
       </c>
       <c r="M77" s="86">
         <f>K77-K79</f>
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N77" s="86">
         <v>9</v>
@@ -17993,7 +18021,10 @@
         <f>BR18+BR24+BR30+BR36+BR42+BR48+BR54+BR60+BR66+BR72</f>
         <v>544</v>
       </c>
-      <c r="BS78" s="43"/>
+      <c r="BS78" s="43">
+        <f>BS18+BS24+BS30+BS36+BS42+BS48+BS54+BS60+BS66+BS72</f>
+        <v>538</v>
+      </c>
       <c r="BT78" s="43"/>
       <c r="BU78" s="43"/>
       <c r="BV78" s="43"/>
@@ -18064,15 +18095,15 @@
       </c>
       <c r="K79" s="90">
         <f>MAX(O80:DP80)</f>
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L79" s="91">
         <f t="shared" si="50"/>
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="M79" s="90">
         <f>K79-K81</f>
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="N79" s="88">
         <v>9</v>
@@ -18627,7 +18658,10 @@
         <f>BR20+BR26+BR32+BR38+BR44+BR50+BR56+BR62+BR68+BR74</f>
         <v>393</v>
       </c>
-      <c r="BS80" s="43"/>
+      <c r="BS80" s="43">
+        <f>BS20+BS26+BS32+BS38+BS44+BS50+BS56+BS62+BS68+BS74</f>
+        <v>397</v>
+      </c>
       <c r="BT80" s="43"/>
       <c r="BU80" s="43"/>
       <c r="BV80" s="43"/>

--- a/UPGRADE 3100-5000.xlsx
+++ b/UPGRADE 3100-5000.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8355"/>
+    <workbookView windowWidth="9210" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="ACTIVIDADES" sheetId="1" r:id="rId1"/>
@@ -2738,11 +2738,11 @@
   <dimension ref="A1:DP685"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="I1" workbookViewId="0">
-      <pane xSplit="5745" ySplit="1170" topLeftCell="BF73" activePane="bottomRight"/>
+      <pane xSplit="5745" ySplit="1170" topLeftCell="BF70" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BT80" sqref="BT80"/>
+      <selection pane="bottomRight" activeCell="BU80" sqref="BU80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="11.25"/>
@@ -5751,7 +5751,9 @@
       <c r="BS18" s="60">
         <v>71</v>
       </c>
-      <c r="BT18" s="60"/>
+      <c r="BT18" s="60">
+        <v>71</v>
+      </c>
       <c r="BU18" s="60"/>
       <c r="BV18" s="60"/>
       <c r="BW18" s="60"/>
@@ -6301,7 +6303,9 @@
       <c r="BS20" s="43">
         <v>71</v>
       </c>
-      <c r="BT20" s="43"/>
+      <c r="BT20" s="43">
+        <v>71</v>
+      </c>
       <c r="BU20" s="43"/>
       <c r="BV20" s="43"/>
       <c r="BW20" s="43"/>
@@ -7033,7 +7037,9 @@
       <c r="BS24" s="43">
         <v>57</v>
       </c>
-      <c r="BT24" s="43"/>
+      <c r="BT24" s="43">
+        <v>57</v>
+      </c>
       <c r="BU24" s="43"/>
       <c r="BV24" s="43"/>
       <c r="BW24" s="43"/>
@@ -7501,7 +7507,9 @@
       <c r="BS26" s="43">
         <v>56</v>
       </c>
-      <c r="BT26" s="43"/>
+      <c r="BT26" s="43">
+        <v>56</v>
+      </c>
       <c r="BU26" s="43"/>
       <c r="BV26" s="43"/>
       <c r="BW26" s="43"/>
@@ -7851,7 +7859,7 @@
       </c>
       <c r="M29" s="24">
         <f>K29-K31</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N29" s="24">
         <v>2</v>
@@ -8353,7 +8361,9 @@
       <c r="BS30" s="43">
         <v>113</v>
       </c>
-      <c r="BT30" s="43"/>
+      <c r="BT30" s="43">
+        <v>113</v>
+      </c>
       <c r="BU30" s="43"/>
       <c r="BV30" s="43"/>
       <c r="BW30" s="43"/>
@@ -8433,15 +8443,15 @@
       </c>
       <c r="K31" s="29">
         <f t="shared" si="11"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L31" s="51">
         <f t="shared" si="12"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M31" s="29">
         <f>K31-K33</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N31" s="29">
         <v>2</v>
@@ -8941,7 +8951,9 @@
       <c r="BS32" s="43">
         <v>103</v>
       </c>
-      <c r="BT32" s="43"/>
+      <c r="BT32" s="43">
+        <v>104</v>
+      </c>
       <c r="BU32" s="43"/>
       <c r="BV32" s="43"/>
       <c r="BW32" s="43"/>
@@ -9720,7 +9732,9 @@
       <c r="BS36" s="43">
         <v>33</v>
       </c>
-      <c r="BT36" s="43"/>
+      <c r="BT36" s="43">
+        <v>33</v>
+      </c>
       <c r="BU36" s="43"/>
       <c r="BV36" s="43"/>
       <c r="BW36" s="43"/>
@@ -10237,7 +10251,9 @@
       <c r="BS38" s="43">
         <v>33</v>
       </c>
-      <c r="BT38" s="43"/>
+      <c r="BT38" s="43">
+        <v>33</v>
+      </c>
       <c r="BU38" s="43"/>
       <c r="BV38" s="43"/>
       <c r="BW38" s="43"/>
@@ -11014,7 +11030,9 @@
       <c r="BS42" s="43">
         <v>44</v>
       </c>
-      <c r="BT42" s="43"/>
+      <c r="BT42" s="43">
+        <v>44</v>
+      </c>
       <c r="BU42" s="43"/>
       <c r="BV42" s="43"/>
       <c r="BW42" s="43"/>
@@ -11527,7 +11545,9 @@
       <c r="BS44" s="43">
         <v>39</v>
       </c>
-      <c r="BT44" s="43"/>
+      <c r="BT44" s="43">
+        <v>39</v>
+      </c>
       <c r="BU44" s="43"/>
       <c r="BV44" s="43"/>
       <c r="BW44" s="43"/>
@@ -12370,7 +12390,9 @@
       <c r="BS48" s="43">
         <v>95</v>
       </c>
-      <c r="BT48" s="43"/>
+      <c r="BT48" s="43">
+        <v>95</v>
+      </c>
       <c r="BU48" s="43"/>
       <c r="BV48" s="43"/>
       <c r="BW48" s="43"/>
@@ -12949,7 +12971,9 @@
       <c r="BS50" s="43">
         <v>90</v>
       </c>
-      <c r="BT50" s="43"/>
+      <c r="BT50" s="43">
+        <v>90</v>
+      </c>
       <c r="BU50" s="43"/>
       <c r="BV50" s="43"/>
       <c r="BW50" s="43"/>
@@ -16523,7 +16547,9 @@
       <c r="BS72" s="43">
         <v>125</v>
       </c>
-      <c r="BT72" s="43"/>
+      <c r="BT72" s="43">
+        <v>115</v>
+      </c>
       <c r="BU72" s="43"/>
       <c r="BV72" s="43"/>
       <c r="BW72" s="43"/>
@@ -17121,7 +17147,9 @@
       <c r="BS74" s="43">
         <v>4</v>
       </c>
-      <c r="BT74" s="43"/>
+      <c r="BT74" s="43">
+        <v>4</v>
+      </c>
       <c r="BU74" s="43"/>
       <c r="BV74" s="43"/>
       <c r="BW74" s="43"/>
@@ -17470,7 +17498,7 @@
       </c>
       <c r="M77" s="86">
         <f>K77-K79</f>
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N77" s="86">
         <v>9</v>
@@ -18025,7 +18053,10 @@
         <f>BS18+BS24+BS30+BS36+BS42+BS48+BS54+BS60+BS66+BS72</f>
         <v>538</v>
       </c>
-      <c r="BT78" s="43"/>
+      <c r="BT78" s="43">
+        <f>BT18+BT24+BT30+BT36+BT42+BT48+BT54+BT60+BT66+BT72</f>
+        <v>528</v>
+      </c>
       <c r="BU78" s="43"/>
       <c r="BV78" s="43"/>
       <c r="BW78" s="43"/>
@@ -18095,15 +18126,15 @@
       </c>
       <c r="K79" s="90">
         <f>MAX(O80:DP80)</f>
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L79" s="91">
         <f t="shared" si="50"/>
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M79" s="90">
         <f>K79-K81</f>
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N79" s="88">
         <v>9</v>
@@ -18662,7 +18693,10 @@
         <f>BS20+BS26+BS32+BS38+BS44+BS50+BS56+BS62+BS68+BS74</f>
         <v>397</v>
       </c>
-      <c r="BT80" s="43"/>
+      <c r="BT80" s="43">
+        <f>BT20+BT26+BT32+BT38+BT44+BT50+BT56+BT62+BT68+BT74</f>
+        <v>398</v>
+      </c>
       <c r="BU80" s="43"/>
       <c r="BV80" s="43"/>
       <c r="BW80" s="43"/>

--- a/UPGRADE 3100-5000.xlsx
+++ b/UPGRADE 3100-5000.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9210" windowHeight="6570"/>
+    <workbookView windowWidth="20385" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="ACTIVIDADES" sheetId="1" r:id="rId1"/>
@@ -2742,7 +2742,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BU80" sqref="BU80"/>
+      <selection pane="bottomRight" activeCell="BZ80" sqref="BZ80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="11.25"/>
@@ -5283,15 +5283,15 @@
       </c>
       <c r="K17" s="24">
         <f t="shared" ref="K17:K21" si="0">MAX(AH18:DP18)</f>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L17" s="49">
         <f t="shared" ref="L17:L21" si="1">J17-K17</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M17" s="24">
         <f>K17-K19</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="24">
         <v>1</v>
@@ -5754,12 +5754,24 @@
       <c r="BT18" s="60">
         <v>71</v>
       </c>
-      <c r="BU18" s="60"/>
-      <c r="BV18" s="60"/>
-      <c r="BW18" s="60"/>
-      <c r="BX18" s="60"/>
-      <c r="BY18" s="60"/>
-      <c r="BZ18" s="60"/>
+      <c r="BU18" s="60">
+        <v>71</v>
+      </c>
+      <c r="BV18" s="60">
+        <v>71</v>
+      </c>
+      <c r="BW18" s="60">
+        <v>72</v>
+      </c>
+      <c r="BX18" s="60">
+        <v>73</v>
+      </c>
+      <c r="BY18" s="60">
+        <v>73</v>
+      </c>
+      <c r="BZ18" s="60">
+        <v>74</v>
+      </c>
       <c r="CA18" s="60"/>
       <c r="CB18" s="60"/>
       <c r="CC18" s="60"/>
@@ -5837,15 +5849,15 @@
       </c>
       <c r="K19" s="29">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L19" s="51">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M19" s="29">
         <f>K19-K21</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N19" s="29">
         <v>1</v>
@@ -6306,12 +6318,24 @@
       <c r="BT20" s="43">
         <v>71</v>
       </c>
-      <c r="BU20" s="43"/>
-      <c r="BV20" s="43"/>
-      <c r="BW20" s="43"/>
-      <c r="BX20" s="43"/>
-      <c r="BY20" s="43"/>
-      <c r="BZ20" s="43"/>
+      <c r="BU20" s="43">
+        <v>71</v>
+      </c>
+      <c r="BV20" s="43">
+        <v>71</v>
+      </c>
+      <c r="BW20" s="43">
+        <v>71</v>
+      </c>
+      <c r="BX20" s="43">
+        <v>70</v>
+      </c>
+      <c r="BY20" s="43">
+        <v>71</v>
+      </c>
+      <c r="BZ20" s="43">
+        <v>72</v>
+      </c>
       <c r="CA20" s="43"/>
       <c r="CB20" s="43"/>
       <c r="CC20" s="43"/>
@@ -6647,15 +6671,15 @@
       </c>
       <c r="K23" s="24">
         <f t="shared" ref="K23:K27" si="7">MAX(AH24:DP24)</f>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L23" s="49">
         <f t="shared" ref="L23:L27" si="8">J23-K23</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M23" s="24">
         <f>K23-K25</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N23" s="24">
         <v>1</v>
@@ -7040,12 +7064,24 @@
       <c r="BT24" s="43">
         <v>57</v>
       </c>
-      <c r="BU24" s="43"/>
-      <c r="BV24" s="43"/>
-      <c r="BW24" s="43"/>
-      <c r="BX24" s="43"/>
-      <c r="BY24" s="43"/>
-      <c r="BZ24" s="43"/>
+      <c r="BU24" s="43">
+        <v>57</v>
+      </c>
+      <c r="BV24" s="43">
+        <v>57</v>
+      </c>
+      <c r="BW24" s="43">
+        <v>58</v>
+      </c>
+      <c r="BX24" s="43">
+        <v>60</v>
+      </c>
+      <c r="BY24" s="43">
+        <v>60</v>
+      </c>
+      <c r="BZ24" s="43">
+        <v>60</v>
+      </c>
       <c r="CA24" s="43"/>
       <c r="CB24" s="43"/>
       <c r="CC24" s="43"/>
@@ -7119,15 +7155,15 @@
       </c>
       <c r="K25" s="29">
         <f t="shared" si="7"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L25" s="51">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M25" s="29">
         <f>K25-K27</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N25" s="29">
         <v>1</v>
@@ -7510,12 +7546,24 @@
       <c r="BT26" s="43">
         <v>56</v>
       </c>
-      <c r="BU26" s="43"/>
-      <c r="BV26" s="43"/>
-      <c r="BW26" s="43"/>
-      <c r="BX26" s="43"/>
-      <c r="BY26" s="43"/>
-      <c r="BZ26" s="43"/>
+      <c r="BU26" s="43">
+        <v>56</v>
+      </c>
+      <c r="BV26" s="43">
+        <v>56</v>
+      </c>
+      <c r="BW26" s="43">
+        <v>56</v>
+      </c>
+      <c r="BX26" s="43">
+        <v>56</v>
+      </c>
+      <c r="BY26" s="43">
+        <v>57</v>
+      </c>
+      <c r="BZ26" s="43">
+        <v>57</v>
+      </c>
       <c r="CA26" s="43"/>
       <c r="CB26" s="43"/>
       <c r="CC26" s="43"/>
@@ -7859,7 +7907,7 @@
       </c>
       <c r="M29" s="24">
         <f>K29-K31</f>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N29" s="24">
         <v>2</v>
@@ -8364,12 +8412,24 @@
       <c r="BT30" s="43">
         <v>113</v>
       </c>
-      <c r="BU30" s="43"/>
-      <c r="BV30" s="43"/>
-      <c r="BW30" s="43"/>
-      <c r="BX30" s="43"/>
-      <c r="BY30" s="43"/>
-      <c r="BZ30" s="43"/>
+      <c r="BU30" s="43">
+        <v>113</v>
+      </c>
+      <c r="BV30" s="43">
+        <v>113</v>
+      </c>
+      <c r="BW30" s="43">
+        <v>114</v>
+      </c>
+      <c r="BX30" s="43">
+        <v>115</v>
+      </c>
+      <c r="BY30" s="43">
+        <v>116</v>
+      </c>
+      <c r="BZ30" s="43">
+        <v>118</v>
+      </c>
       <c r="CA30" s="43"/>
       <c r="CB30" s="43"/>
       <c r="CC30" s="43"/>
@@ -8443,15 +8503,15 @@
       </c>
       <c r="K31" s="29">
         <f t="shared" si="11"/>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L31" s="51">
         <f t="shared" si="12"/>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M31" s="29">
         <f>K31-K33</f>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="N31" s="29">
         <v>2</v>
@@ -8954,12 +9014,24 @@
       <c r="BT32" s="43">
         <v>104</v>
       </c>
-      <c r="BU32" s="43"/>
-      <c r="BV32" s="43"/>
-      <c r="BW32" s="43"/>
-      <c r="BX32" s="43"/>
-      <c r="BY32" s="43"/>
-      <c r="BZ32" s="43"/>
+      <c r="BU32" s="43">
+        <v>104</v>
+      </c>
+      <c r="BV32" s="43">
+        <v>104</v>
+      </c>
+      <c r="BW32" s="43">
+        <v>105</v>
+      </c>
+      <c r="BX32" s="43">
+        <v>107</v>
+      </c>
+      <c r="BY32" s="43">
+        <v>108</v>
+      </c>
+      <c r="BZ32" s="43">
+        <v>108</v>
+      </c>
       <c r="CA32" s="43"/>
       <c r="CB32" s="43"/>
       <c r="CC32" s="43"/>
@@ -9299,7 +9371,7 @@
       </c>
       <c r="M35" s="24">
         <f>K35-K37</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N35" s="24">
         <v>1</v>
@@ -9735,12 +9807,24 @@
       <c r="BT36" s="43">
         <v>33</v>
       </c>
-      <c r="BU36" s="43"/>
-      <c r="BV36" s="43"/>
-      <c r="BW36" s="43"/>
-      <c r="BX36" s="43"/>
-      <c r="BY36" s="43"/>
-      <c r="BZ36" s="43"/>
+      <c r="BU36" s="43">
+        <v>33</v>
+      </c>
+      <c r="BV36" s="43">
+        <v>33</v>
+      </c>
+      <c r="BW36" s="43">
+        <v>35</v>
+      </c>
+      <c r="BX36" s="43">
+        <v>35</v>
+      </c>
+      <c r="BY36" s="43">
+        <v>36</v>
+      </c>
+      <c r="BZ36" s="43">
+        <v>38</v>
+      </c>
       <c r="CA36" s="43"/>
       <c r="CB36" s="43"/>
       <c r="CC36" s="43"/>
@@ -9812,15 +9896,15 @@
       </c>
       <c r="K37" s="29">
         <f t="shared" si="18"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L37" s="51">
         <f t="shared" si="19"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M37" s="29">
         <f>K37-K39</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N37" s="29">
         <v>1</v>
@@ -10254,12 +10338,24 @@
       <c r="BT38" s="43">
         <v>33</v>
       </c>
-      <c r="BU38" s="43"/>
-      <c r="BV38" s="43"/>
-      <c r="BW38" s="43"/>
-      <c r="BX38" s="43"/>
-      <c r="BY38" s="43"/>
-      <c r="BZ38" s="43"/>
+      <c r="BU38" s="43">
+        <v>33</v>
+      </c>
+      <c r="BV38" s="43">
+        <v>33</v>
+      </c>
+      <c r="BW38" s="43">
+        <v>33</v>
+      </c>
+      <c r="BX38" s="43">
+        <v>33</v>
+      </c>
+      <c r="BY38" s="43">
+        <v>34</v>
+      </c>
+      <c r="BZ38" s="43">
+        <v>35</v>
+      </c>
       <c r="CA38" s="43"/>
       <c r="CB38" s="43"/>
       <c r="CC38" s="43"/>
@@ -10601,7 +10697,7 @@
       </c>
       <c r="M41" s="24">
         <f>K41-K43</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N41" s="24">
         <v>1</v>
@@ -11033,12 +11129,24 @@
       <c r="BT42" s="43">
         <v>44</v>
       </c>
-      <c r="BU42" s="43"/>
-      <c r="BV42" s="43"/>
-      <c r="BW42" s="43"/>
-      <c r="BX42" s="43"/>
-      <c r="BY42" s="43"/>
-      <c r="BZ42" s="43"/>
+      <c r="BU42" s="43">
+        <v>43</v>
+      </c>
+      <c r="BV42" s="43">
+        <v>43</v>
+      </c>
+      <c r="BW42" s="43">
+        <v>44</v>
+      </c>
+      <c r="BX42" s="43">
+        <v>44</v>
+      </c>
+      <c r="BY42" s="43">
+        <v>45</v>
+      </c>
+      <c r="BZ42" s="43">
+        <v>45</v>
+      </c>
       <c r="CA42" s="43"/>
       <c r="CB42" s="43"/>
       <c r="CC42" s="43"/>
@@ -11110,15 +11218,15 @@
       </c>
       <c r="K43" s="29">
         <f t="shared" si="23"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L43" s="51">
         <f t="shared" si="24"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M43" s="29">
         <f>K43-K45</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N43" s="29">
         <v>1</v>
@@ -11548,12 +11656,24 @@
       <c r="BT44" s="43">
         <v>39</v>
       </c>
-      <c r="BU44" s="43"/>
-      <c r="BV44" s="43"/>
-      <c r="BW44" s="43"/>
-      <c r="BX44" s="43"/>
-      <c r="BY44" s="43"/>
-      <c r="BZ44" s="43"/>
+      <c r="BU44" s="43">
+        <v>41</v>
+      </c>
+      <c r="BV44" s="43">
+        <v>41</v>
+      </c>
+      <c r="BW44" s="43">
+        <v>41</v>
+      </c>
+      <c r="BX44" s="43">
+        <v>41</v>
+      </c>
+      <c r="BY44" s="43">
+        <v>41</v>
+      </c>
+      <c r="BZ44" s="43">
+        <v>41</v>
+      </c>
       <c r="CA44" s="43"/>
       <c r="CB44" s="43"/>
       <c r="CC44" s="43"/>
@@ -11895,7 +12015,7 @@
       </c>
       <c r="M47" s="24">
         <f>K47-K49</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N47" s="24">
         <v>2</v>
@@ -12393,12 +12513,24 @@
       <c r="BT48" s="43">
         <v>95</v>
       </c>
-      <c r="BU48" s="43"/>
-      <c r="BV48" s="43"/>
-      <c r="BW48" s="43"/>
-      <c r="BX48" s="43"/>
-      <c r="BY48" s="43"/>
-      <c r="BZ48" s="43"/>
+      <c r="BU48" s="43">
+        <v>97</v>
+      </c>
+      <c r="BV48" s="43">
+        <v>97</v>
+      </c>
+      <c r="BW48" s="43">
+        <v>101</v>
+      </c>
+      <c r="BX48" s="43">
+        <v>101</v>
+      </c>
+      <c r="BY48" s="43">
+        <v>103</v>
+      </c>
+      <c r="BZ48" s="43">
+        <v>105</v>
+      </c>
       <c r="CA48" s="43"/>
       <c r="CB48" s="43"/>
       <c r="CC48" s="43"/>
@@ -12470,15 +12602,15 @@
       </c>
       <c r="K49" s="29">
         <f t="shared" si="28"/>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L49" s="51">
         <f t="shared" si="29"/>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M49" s="29">
         <f>K49-K51</f>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="N49" s="29">
         <v>2</v>
@@ -12974,12 +13106,24 @@
       <c r="BT50" s="43">
         <v>90</v>
       </c>
-      <c r="BU50" s="43"/>
-      <c r="BV50" s="43"/>
-      <c r="BW50" s="43"/>
-      <c r="BX50" s="43"/>
-      <c r="BY50" s="43"/>
-      <c r="BZ50" s="43"/>
+      <c r="BU50" s="43">
+        <v>92</v>
+      </c>
+      <c r="BV50" s="43">
+        <v>92</v>
+      </c>
+      <c r="BW50" s="43">
+        <v>92</v>
+      </c>
+      <c r="BX50" s="43">
+        <v>94</v>
+      </c>
+      <c r="BY50" s="43">
+        <v>95</v>
+      </c>
+      <c r="BZ50" s="43">
+        <v>96</v>
+      </c>
       <c r="CA50" s="43"/>
       <c r="CB50" s="43"/>
       <c r="CC50" s="43"/>
@@ -13313,15 +13457,15 @@
       </c>
       <c r="K53" s="24">
         <f t="shared" ref="K53:K57" si="35">MAX(AH54:DP54)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L53" s="49">
         <f t="shared" ref="L53:L57" si="36">J53-K53</f>
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="M53" s="24">
         <f>K53-K55</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N53" s="24">
         <v>1</v>
@@ -13607,9 +13751,15 @@
       <c r="BU54" s="43"/>
       <c r="BV54" s="43"/>
       <c r="BW54" s="43"/>
-      <c r="BX54" s="43"/>
-      <c r="BY54" s="43"/>
-      <c r="BZ54" s="43"/>
+      <c r="BX54" s="43">
+        <v>25</v>
+      </c>
+      <c r="BY54" s="43">
+        <v>25</v>
+      </c>
+      <c r="BZ54" s="43">
+        <v>25</v>
+      </c>
       <c r="CA54" s="43"/>
       <c r="CB54" s="43"/>
       <c r="CC54" s="43"/>
@@ -13681,15 +13831,15 @@
       </c>
       <c r="K55" s="29">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L55" s="51">
         <f t="shared" si="36"/>
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M55" s="29">
         <f>K55-K57</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N55" s="29">
         <v>1</v>
@@ -13973,9 +14123,15 @@
       <c r="BU56" s="43"/>
       <c r="BV56" s="43"/>
       <c r="BW56" s="43"/>
-      <c r="BX56" s="43"/>
-      <c r="BY56" s="43"/>
-      <c r="BZ56" s="43"/>
+      <c r="BX56" s="43">
+        <v>4</v>
+      </c>
+      <c r="BY56" s="43">
+        <v>8</v>
+      </c>
+      <c r="BZ56" s="43">
+        <v>11</v>
+      </c>
       <c r="CA56" s="43"/>
       <c r="CB56" s="43"/>
       <c r="CC56" s="43"/>
@@ -14309,15 +14465,15 @@
       </c>
       <c r="K59" s="24">
         <f t="shared" ref="K59:K63" si="39">MAX(AH60:DP60)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L59" s="49">
         <f t="shared" ref="L59:L63" si="40">J59-K59</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M59" s="24">
         <f>K59-K61</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="N59" s="24">
         <v>0</v>
@@ -14529,9 +14685,15 @@
       <c r="BU60" s="43"/>
       <c r="BV60" s="43"/>
       <c r="BW60" s="43"/>
-      <c r="BX60" s="43"/>
-      <c r="BY60" s="43"/>
-      <c r="BZ60" s="43"/>
+      <c r="BX60" s="43">
+        <v>9</v>
+      </c>
+      <c r="BY60" s="43">
+        <v>9</v>
+      </c>
+      <c r="BZ60" s="43">
+        <v>9</v>
+      </c>
       <c r="CA60" s="43"/>
       <c r="CB60" s="43"/>
       <c r="CC60" s="43"/>
@@ -14603,15 +14765,15 @@
       </c>
       <c r="K61" s="29">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L61" s="51">
         <f t="shared" si="40"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M61" s="29">
         <f>K61-K63</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N61" s="29">
         <v>0</v>
@@ -14864,12 +15026,24 @@
       <c r="BT62" s="43">
         <v>1</v>
       </c>
-      <c r="BU62" s="43"/>
-      <c r="BV62" s="43"/>
-      <c r="BW62" s="43"/>
-      <c r="BX62" s="43"/>
-      <c r="BY62" s="43"/>
-      <c r="BZ62" s="43"/>
+      <c r="BU62" s="43">
+        <v>1</v>
+      </c>
+      <c r="BV62" s="43">
+        <v>1</v>
+      </c>
+      <c r="BW62" s="43">
+        <v>1</v>
+      </c>
+      <c r="BX62" s="43">
+        <v>1</v>
+      </c>
+      <c r="BY62" s="43">
+        <v>4</v>
+      </c>
+      <c r="BZ62" s="43">
+        <v>6</v>
+      </c>
       <c r="CA62" s="43"/>
       <c r="CB62" s="43"/>
       <c r="CC62" s="43"/>
@@ -16031,7 +16205,7 @@
       </c>
       <c r="M71" s="24">
         <f>K71-K73</f>
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="N71" s="24">
         <v>1</v>
@@ -16550,12 +16724,24 @@
       <c r="BT72" s="43">
         <v>115</v>
       </c>
-      <c r="BU72" s="43"/>
-      <c r="BV72" s="43"/>
-      <c r="BW72" s="43"/>
-      <c r="BX72" s="43"/>
-      <c r="BY72" s="43"/>
-      <c r="BZ72" s="43"/>
+      <c r="BU72" s="43">
+        <v>103</v>
+      </c>
+      <c r="BV72" s="43">
+        <v>103</v>
+      </c>
+      <c r="BW72" s="43">
+        <v>103</v>
+      </c>
+      <c r="BX72" s="43">
+        <v>130</v>
+      </c>
+      <c r="BY72" s="43">
+        <v>130</v>
+      </c>
+      <c r="BZ72" s="43">
+        <v>130</v>
+      </c>
       <c r="CA72" s="43"/>
       <c r="CB72" s="43"/>
       <c r="CC72" s="43"/>
@@ -16625,15 +16811,15 @@
       </c>
       <c r="K73" s="29">
         <f t="shared" si="43"/>
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="L73" s="51">
         <f t="shared" si="44"/>
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="M73" s="29">
         <f>K73-K75</f>
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="N73" s="29">
         <v>1</v>
@@ -17145,17 +17331,29 @@
         <v>4</v>
       </c>
       <c r="BS74" s="43">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BT74" s="43">
-        <v>4</v>
-      </c>
-      <c r="BU74" s="43"/>
-      <c r="BV74" s="43"/>
-      <c r="BW74" s="43"/>
-      <c r="BX74" s="43"/>
-      <c r="BY74" s="43"/>
-      <c r="BZ74" s="43"/>
+        <v>16</v>
+      </c>
+      <c r="BU74" s="43">
+        <v>22</v>
+      </c>
+      <c r="BV74" s="43">
+        <v>27</v>
+      </c>
+      <c r="BW74" s="43">
+        <v>34</v>
+      </c>
+      <c r="BX74" s="43">
+        <v>42</v>
+      </c>
+      <c r="BY74" s="43">
+        <v>45</v>
+      </c>
+      <c r="BZ74" s="43">
+        <v>49</v>
+      </c>
       <c r="CA74" s="43"/>
       <c r="CB74" s="43"/>
       <c r="CC74" s="43"/>
@@ -17490,15 +17688,15 @@
       </c>
       <c r="K77" s="86">
         <f>MAX(O78:DP78)</f>
-        <v>544</v>
+        <v>604</v>
       </c>
       <c r="L77" s="87">
         <f t="shared" ref="L77:L81" si="50">J77-K77</f>
-        <v>364</v>
+        <v>304</v>
       </c>
       <c r="M77" s="86">
         <f>K77-K79</f>
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="N77" s="86">
         <v>9</v>
@@ -18057,12 +18255,30 @@
         <f>BT18+BT24+BT30+BT36+BT42+BT48+BT54+BT60+BT66+BT72</f>
         <v>528</v>
       </c>
-      <c r="BU78" s="43"/>
-      <c r="BV78" s="43"/>
-      <c r="BW78" s="43"/>
-      <c r="BX78" s="43"/>
-      <c r="BY78" s="43"/>
-      <c r="BZ78" s="43"/>
+      <c r="BU78" s="43">
+        <f>BU18+BU24+BU30+BU36+BU42+BU48+BU54+BU60+BU66+BU72</f>
+        <v>517</v>
+      </c>
+      <c r="BV78" s="43">
+        <f>BV18+BV24+BV30+BV36+BV42+BV48+BV54+BV60+BV66+BV72</f>
+        <v>517</v>
+      </c>
+      <c r="BW78" s="43">
+        <f>BW18+BW24+BW30+BW36+BW42+BW48+BW54+BW60+BW66+BW72</f>
+        <v>527</v>
+      </c>
+      <c r="BX78" s="43">
+        <f>BX18+BX24+BX30+BX36+BX42+BX48+BX54+BX60+BX66+BX72</f>
+        <v>592</v>
+      </c>
+      <c r="BY78" s="43">
+        <f>BY18+BY24+BY30+BY36+BY42+BY48+BY54+BY60+BY66+BY72</f>
+        <v>597</v>
+      </c>
+      <c r="BZ78" s="43">
+        <f>BZ18+BZ24+BZ30+BZ36+BZ42+BZ48+BZ54+BZ60+BZ66+BZ72</f>
+        <v>604</v>
+      </c>
       <c r="CA78" s="43"/>
       <c r="CB78" s="43"/>
       <c r="CC78" s="43"/>
@@ -18126,15 +18342,15 @@
       </c>
       <c r="K79" s="90">
         <f>MAX(O80:DP80)</f>
-        <v>398</v>
+        <v>475</v>
       </c>
       <c r="L79" s="91">
         <f t="shared" si="50"/>
-        <v>510</v>
+        <v>433</v>
       </c>
       <c r="M79" s="90">
         <f>K79-K81</f>
-        <v>398</v>
+        <v>475</v>
       </c>
       <c r="N79" s="88">
         <v>9</v>
@@ -18691,18 +18907,36 @@
       </c>
       <c r="BS80" s="43">
         <f>BS20+BS26+BS32+BS38+BS44+BS50+BS56+BS62+BS68+BS74</f>
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="BT80" s="43">
         <f>BT20+BT26+BT32+BT38+BT44+BT50+BT56+BT62+BT68+BT74</f>
-        <v>398</v>
-      </c>
-      <c r="BU80" s="43"/>
-      <c r="BV80" s="43"/>
-      <c r="BW80" s="43"/>
-      <c r="BX80" s="43"/>
-      <c r="BY80" s="43"/>
-      <c r="BZ80" s="43"/>
+        <v>410</v>
+      </c>
+      <c r="BU80" s="43">
+        <f>BU20+BU26+BU32+BU38+BU44+BU50+BU56+BU62+BU68+BU74</f>
+        <v>420</v>
+      </c>
+      <c r="BV80" s="43">
+        <f>BV20+BV26+BV32+BV38+BV44+BV50+BV56+BV62+BV68+BV74</f>
+        <v>425</v>
+      </c>
+      <c r="BW80" s="43">
+        <f>BW20+BW26+BW32+BW38+BW44+BW50+BW56+BW62+BW68+BW74</f>
+        <v>433</v>
+      </c>
+      <c r="BX80" s="43">
+        <f>BX20+BX26+BX32+BX38+BX44+BX50+BX56+BX62+BX68+BX74</f>
+        <v>448</v>
+      </c>
+      <c r="BY80" s="43">
+        <f>BY20+BY26+BY32+BY38+BY44+BY50+BY56+BY62+BY68+BY74</f>
+        <v>463</v>
+      </c>
+      <c r="BZ80" s="43">
+        <f>BZ20+BZ26+BZ32+BZ38+BZ44+BZ50+BZ56+BZ62+BZ68+BZ74</f>
+        <v>475</v>
+      </c>
       <c r="CA80" s="43"/>
       <c r="CB80" s="43"/>
       <c r="CC80" s="43"/>

--- a/UPGRADE 3100-5000.xlsx
+++ b/UPGRADE 3100-5000.xlsx
@@ -2738,11 +2738,11 @@
   <dimension ref="A1:DP685"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="I1" workbookViewId="0">
-      <pane xSplit="5745" ySplit="1170" topLeftCell="BF70" activePane="bottomRight"/>
+      <pane xSplit="5745" ySplit="1170" topLeftCell="BS70" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BZ80" sqref="BZ80"/>
+      <selection pane="bottomRight" activeCell="CF83" sqref="CF83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="11.25"/>
@@ -5283,15 +5283,15 @@
       </c>
       <c r="K17" s="24">
         <f t="shared" ref="K17:K21" si="0">MAX(AH18:DP18)</f>
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="L17" s="49">
         <f t="shared" ref="L17:L21" si="1">J17-K17</f>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M17" s="24">
         <f>K17-K19</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N17" s="24">
         <v>1</v>
@@ -5772,12 +5772,24 @@
       <c r="BZ18" s="60">
         <v>74</v>
       </c>
-      <c r="CA18" s="60"/>
-      <c r="CB18" s="60"/>
-      <c r="CC18" s="60"/>
-      <c r="CD18" s="60"/>
-      <c r="CE18" s="60"/>
-      <c r="CF18" s="60"/>
+      <c r="CA18" s="60">
+        <v>76</v>
+      </c>
+      <c r="CB18" s="60">
+        <v>78</v>
+      </c>
+      <c r="CC18" s="60">
+        <v>79</v>
+      </c>
+      <c r="CD18" s="60">
+        <v>80</v>
+      </c>
+      <c r="CE18" s="60">
+        <v>80</v>
+      </c>
+      <c r="CF18" s="60">
+        <v>85</v>
+      </c>
       <c r="CG18" s="60"/>
       <c r="CH18" s="60"/>
       <c r="CI18" s="60"/>
@@ -5849,15 +5861,15 @@
       </c>
       <c r="K19" s="29">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L19" s="51">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M19" s="29">
         <f>K19-K21</f>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N19" s="29">
         <v>1</v>
@@ -6336,12 +6348,24 @@
       <c r="BZ20" s="43">
         <v>72</v>
       </c>
-      <c r="CA20" s="43"/>
-      <c r="CB20" s="43"/>
-      <c r="CC20" s="43"/>
-      <c r="CD20" s="43"/>
-      <c r="CE20" s="43"/>
-      <c r="CF20" s="43"/>
+      <c r="CA20" s="43">
+        <v>72</v>
+      </c>
+      <c r="CB20" s="43">
+        <v>72</v>
+      </c>
+      <c r="CC20" s="43">
+        <v>74</v>
+      </c>
+      <c r="CD20" s="43">
+        <v>74</v>
+      </c>
+      <c r="CE20" s="43">
+        <v>74</v>
+      </c>
+      <c r="CF20" s="43">
+        <v>76</v>
+      </c>
       <c r="CG20" s="43"/>
       <c r="CH20" s="43"/>
       <c r="CI20" s="43"/>
@@ -6671,15 +6695,15 @@
       </c>
       <c r="K23" s="24">
         <f t="shared" ref="K23:K27" si="7">MAX(AH24:DP24)</f>
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="L23" s="49">
         <f t="shared" ref="L23:L27" si="8">J23-K23</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="M23" s="24">
         <f>K23-K25</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N23" s="24">
         <v>1</v>
@@ -7082,12 +7106,24 @@
       <c r="BZ24" s="43">
         <v>60</v>
       </c>
-      <c r="CA24" s="43"/>
-      <c r="CB24" s="43"/>
-      <c r="CC24" s="43"/>
-      <c r="CD24" s="43"/>
-      <c r="CE24" s="43"/>
-      <c r="CF24" s="43"/>
+      <c r="CA24" s="43">
+        <v>60</v>
+      </c>
+      <c r="CB24" s="43">
+        <v>60</v>
+      </c>
+      <c r="CC24" s="43">
+        <v>60</v>
+      </c>
+      <c r="CD24" s="43">
+        <v>60</v>
+      </c>
+      <c r="CE24" s="43">
+        <v>67</v>
+      </c>
+      <c r="CF24" s="43">
+        <v>67</v>
+      </c>
       <c r="CG24" s="43"/>
       <c r="CH24" s="43"/>
       <c r="CI24" s="43"/>
@@ -7155,15 +7191,15 @@
       </c>
       <c r="K25" s="29">
         <f t="shared" si="7"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L25" s="51">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M25" s="29">
         <f>K25-K27</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N25" s="29">
         <v>1</v>
@@ -7564,12 +7600,24 @@
       <c r="BZ26" s="43">
         <v>57</v>
       </c>
-      <c r="CA26" s="43"/>
-      <c r="CB26" s="43"/>
-      <c r="CC26" s="43"/>
-      <c r="CD26" s="43"/>
-      <c r="CE26" s="43"/>
-      <c r="CF26" s="43"/>
+      <c r="CA26" s="43">
+        <v>57</v>
+      </c>
+      <c r="CB26" s="43">
+        <v>57</v>
+      </c>
+      <c r="CC26" s="43">
+        <v>57</v>
+      </c>
+      <c r="CD26" s="43">
+        <v>57</v>
+      </c>
+      <c r="CE26" s="43">
+        <v>57</v>
+      </c>
+      <c r="CF26" s="43">
+        <v>58</v>
+      </c>
       <c r="CG26" s="43"/>
       <c r="CH26" s="43"/>
       <c r="CI26" s="43"/>
@@ -7899,15 +7947,15 @@
       </c>
       <c r="K29" s="24">
         <f t="shared" ref="K29:K33" si="11">MAX(AH30:DP30)</f>
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="L29" s="49">
         <f t="shared" ref="L29:L33" si="12">J29-K29</f>
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M29" s="24">
         <f>K29-K31</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N29" s="24">
         <v>2</v>
@@ -8430,12 +8478,24 @@
       <c r="BZ30" s="43">
         <v>118</v>
       </c>
-      <c r="CA30" s="43"/>
-      <c r="CB30" s="43"/>
-      <c r="CC30" s="43"/>
-      <c r="CD30" s="43"/>
-      <c r="CE30" s="43"/>
-      <c r="CF30" s="43"/>
+      <c r="CA30" s="43">
+        <v>119</v>
+      </c>
+      <c r="CB30" s="43">
+        <v>137</v>
+      </c>
+      <c r="CC30" s="43">
+        <v>137</v>
+      </c>
+      <c r="CD30" s="43">
+        <v>138</v>
+      </c>
+      <c r="CE30" s="43">
+        <v>140</v>
+      </c>
+      <c r="CF30" s="43">
+        <v>139</v>
+      </c>
       <c r="CG30" s="43"/>
       <c r="CH30" s="43"/>
       <c r="CI30" s="43"/>
@@ -8503,15 +8563,15 @@
       </c>
       <c r="K31" s="29">
         <f t="shared" si="11"/>
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="L31" s="51">
         <f t="shared" si="12"/>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M31" s="29">
         <f>K31-K33</f>
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="N31" s="29">
         <v>2</v>
@@ -9032,12 +9092,24 @@
       <c r="BZ32" s="43">
         <v>108</v>
       </c>
-      <c r="CA32" s="43"/>
-      <c r="CB32" s="43"/>
-      <c r="CC32" s="43"/>
-      <c r="CD32" s="43"/>
-      <c r="CE32" s="43"/>
-      <c r="CF32" s="43"/>
+      <c r="CA32" s="43">
+        <v>110</v>
+      </c>
+      <c r="CB32" s="43">
+        <v>111</v>
+      </c>
+      <c r="CC32" s="43">
+        <v>112</v>
+      </c>
+      <c r="CD32" s="43">
+        <v>118</v>
+      </c>
+      <c r="CE32" s="43">
+        <v>119</v>
+      </c>
+      <c r="CF32" s="43">
+        <v>120</v>
+      </c>
       <c r="CG32" s="43"/>
       <c r="CH32" s="43"/>
       <c r="CI32" s="43"/>
@@ -9363,15 +9435,15 @@
       </c>
       <c r="K35" s="24">
         <f t="shared" ref="K35:K39" si="18">MAX(AH36:DP36)</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L35" s="49">
         <f t="shared" ref="L35:L39" si="19">J35-K35</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M35" s="24">
         <f>K35-K37</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N35" s="24">
         <v>1</v>
@@ -9825,12 +9897,24 @@
       <c r="BZ36" s="43">
         <v>38</v>
       </c>
-      <c r="CA36" s="43"/>
-      <c r="CB36" s="43"/>
-      <c r="CC36" s="43"/>
-      <c r="CD36" s="43"/>
-      <c r="CE36" s="43"/>
-      <c r="CF36" s="43"/>
+      <c r="CA36" s="43">
+        <v>40</v>
+      </c>
+      <c r="CB36" s="43">
+        <v>43</v>
+      </c>
+      <c r="CC36" s="43">
+        <v>43</v>
+      </c>
+      <c r="CD36" s="43">
+        <v>43</v>
+      </c>
+      <c r="CE36" s="43">
+        <v>43</v>
+      </c>
+      <c r="CF36" s="43">
+        <v>45</v>
+      </c>
       <c r="CG36" s="43"/>
       <c r="CH36" s="43"/>
       <c r="CI36" s="43"/>
@@ -9896,15 +9980,15 @@
       </c>
       <c r="K37" s="29">
         <f t="shared" si="18"/>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L37" s="51">
         <f t="shared" si="19"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M37" s="29">
         <f>K37-K39</f>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N37" s="29">
         <v>1</v>
@@ -10356,12 +10440,24 @@
       <c r="BZ38" s="43">
         <v>35</v>
       </c>
-      <c r="CA38" s="43"/>
-      <c r="CB38" s="43"/>
-      <c r="CC38" s="43"/>
-      <c r="CD38" s="43"/>
-      <c r="CE38" s="43"/>
-      <c r="CF38" s="43"/>
+      <c r="CA38" s="43">
+        <v>35</v>
+      </c>
+      <c r="CB38" s="43">
+        <v>38</v>
+      </c>
+      <c r="CC38" s="43">
+        <v>38</v>
+      </c>
+      <c r="CD38" s="43">
+        <v>39</v>
+      </c>
+      <c r="CE38" s="43">
+        <v>40</v>
+      </c>
+      <c r="CF38" s="43">
+        <v>41</v>
+      </c>
       <c r="CG38" s="43"/>
       <c r="CH38" s="43"/>
       <c r="CI38" s="43"/>
@@ -11147,12 +11243,24 @@
       <c r="BZ42" s="43">
         <v>45</v>
       </c>
-      <c r="CA42" s="43"/>
-      <c r="CB42" s="43"/>
-      <c r="CC42" s="43"/>
-      <c r="CD42" s="43"/>
-      <c r="CE42" s="43"/>
-      <c r="CF42" s="43"/>
+      <c r="CA42" s="43">
+        <v>46</v>
+      </c>
+      <c r="CB42" s="43">
+        <v>46</v>
+      </c>
+      <c r="CC42" s="43">
+        <v>47</v>
+      </c>
+      <c r="CD42" s="43">
+        <v>47</v>
+      </c>
+      <c r="CE42" s="43">
+        <v>47</v>
+      </c>
+      <c r="CF42" s="43">
+        <v>47</v>
+      </c>
       <c r="CG42" s="43"/>
       <c r="CH42" s="43"/>
       <c r="CI42" s="43"/>
@@ -11674,12 +11782,24 @@
       <c r="BZ44" s="43">
         <v>41</v>
       </c>
-      <c r="CA44" s="43"/>
-      <c r="CB44" s="43"/>
-      <c r="CC44" s="43"/>
-      <c r="CD44" s="43"/>
-      <c r="CE44" s="43"/>
-      <c r="CF44" s="43"/>
+      <c r="CA44" s="43">
+        <v>41</v>
+      </c>
+      <c r="CB44" s="43">
+        <v>41</v>
+      </c>
+      <c r="CC44" s="43">
+        <v>41</v>
+      </c>
+      <c r="CD44" s="43">
+        <v>41</v>
+      </c>
+      <c r="CE44" s="43">
+        <v>41</v>
+      </c>
+      <c r="CF44" s="43">
+        <v>41</v>
+      </c>
       <c r="CG44" s="43"/>
       <c r="CH44" s="43"/>
       <c r="CI44" s="43"/>
@@ -12007,15 +12127,15 @@
       </c>
       <c r="K47" s="24">
         <f t="shared" ref="K47:K51" si="28">MAX(AH48:DP48)</f>
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="L47" s="49">
         <f t="shared" ref="L47:L51" si="29">J47-K47</f>
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M47" s="24">
         <f>K47-K49</f>
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="N47" s="24">
         <v>2</v>
@@ -12531,12 +12651,24 @@
       <c r="BZ48" s="43">
         <v>105</v>
       </c>
-      <c r="CA48" s="43"/>
-      <c r="CB48" s="43"/>
-      <c r="CC48" s="43"/>
-      <c r="CD48" s="43"/>
-      <c r="CE48" s="43"/>
-      <c r="CF48" s="43"/>
+      <c r="CA48" s="43">
+        <v>107</v>
+      </c>
+      <c r="CB48" s="43">
+        <v>129</v>
+      </c>
+      <c r="CC48" s="43">
+        <v>130</v>
+      </c>
+      <c r="CD48" s="43">
+        <v>131</v>
+      </c>
+      <c r="CE48" s="43">
+        <v>129</v>
+      </c>
+      <c r="CF48" s="43">
+        <v>134</v>
+      </c>
       <c r="CG48" s="43"/>
       <c r="CH48" s="43"/>
       <c r="CI48" s="43"/>
@@ -12602,15 +12734,15 @@
       </c>
       <c r="K49" s="29">
         <f t="shared" si="28"/>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L49" s="51">
         <f t="shared" si="29"/>
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="M49" s="29">
         <f>K49-K51</f>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="N49" s="29">
         <v>2</v>
@@ -13124,12 +13256,24 @@
       <c r="BZ50" s="43">
         <v>96</v>
       </c>
-      <c r="CA50" s="43"/>
-      <c r="CB50" s="43"/>
-      <c r="CC50" s="43"/>
-      <c r="CD50" s="43"/>
-      <c r="CE50" s="43"/>
-      <c r="CF50" s="43"/>
+      <c r="CA50" s="43">
+        <v>97</v>
+      </c>
+      <c r="CB50" s="43">
+        <v>97</v>
+      </c>
+      <c r="CC50" s="43">
+        <v>100</v>
+      </c>
+      <c r="CD50" s="43">
+        <v>101</v>
+      </c>
+      <c r="CE50" s="43">
+        <v>103</v>
+      </c>
+      <c r="CF50" s="43">
+        <v>105</v>
+      </c>
       <c r="CG50" s="43"/>
       <c r="CH50" s="43"/>
       <c r="CI50" s="43"/>
@@ -13465,7 +13609,7 @@
       </c>
       <c r="M53" s="24">
         <f>K53-K55</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N53" s="24">
         <v>1</v>
@@ -13760,12 +13904,24 @@
       <c r="BZ54" s="43">
         <v>25</v>
       </c>
-      <c r="CA54" s="43"/>
-      <c r="CB54" s="43"/>
-      <c r="CC54" s="43"/>
-      <c r="CD54" s="43"/>
-      <c r="CE54" s="43"/>
-      <c r="CF54" s="43"/>
+      <c r="CA54" s="43">
+        <v>24</v>
+      </c>
+      <c r="CB54" s="43">
+        <v>23</v>
+      </c>
+      <c r="CC54" s="43">
+        <v>23</v>
+      </c>
+      <c r="CD54" s="43">
+        <v>23</v>
+      </c>
+      <c r="CE54" s="43">
+        <v>24</v>
+      </c>
+      <c r="CF54" s="43">
+        <v>25</v>
+      </c>
       <c r="CG54" s="43"/>
       <c r="CH54" s="43"/>
       <c r="CI54" s="43"/>
@@ -13831,15 +13987,15 @@
       </c>
       <c r="K55" s="29">
         <f t="shared" si="35"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L55" s="51">
         <f t="shared" si="36"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M55" s="29">
         <f>K55-K57</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N55" s="29">
         <v>1</v>
@@ -14132,12 +14288,24 @@
       <c r="BZ56" s="43">
         <v>11</v>
       </c>
-      <c r="CA56" s="43"/>
-      <c r="CB56" s="43"/>
-      <c r="CC56" s="43"/>
-      <c r="CD56" s="43"/>
-      <c r="CE56" s="43"/>
-      <c r="CF56" s="43"/>
+      <c r="CA56" s="43">
+        <v>14</v>
+      </c>
+      <c r="CB56" s="43">
+        <v>18</v>
+      </c>
+      <c r="CC56" s="43">
+        <v>18</v>
+      </c>
+      <c r="CD56" s="43">
+        <v>18</v>
+      </c>
+      <c r="CE56" s="43">
+        <v>18</v>
+      </c>
+      <c r="CF56" s="43">
+        <v>19</v>
+      </c>
       <c r="CG56" s="43"/>
       <c r="CH56" s="43"/>
       <c r="CI56" s="43"/>
@@ -14473,7 +14641,7 @@
       </c>
       <c r="M59" s="24">
         <f>K59-K61</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N59" s="24">
         <v>0</v>
@@ -14694,12 +14862,24 @@
       <c r="BZ60" s="43">
         <v>9</v>
       </c>
-      <c r="CA60" s="43"/>
-      <c r="CB60" s="43"/>
-      <c r="CC60" s="43"/>
-      <c r="CD60" s="43"/>
-      <c r="CE60" s="43"/>
-      <c r="CF60" s="43"/>
+      <c r="CA60" s="43">
+        <v>8</v>
+      </c>
+      <c r="CB60" s="43">
+        <v>8</v>
+      </c>
+      <c r="CC60" s="43">
+        <v>8</v>
+      </c>
+      <c r="CD60" s="43">
+        <v>8</v>
+      </c>
+      <c r="CE60" s="43">
+        <v>8</v>
+      </c>
+      <c r="CF60" s="43">
+        <v>8</v>
+      </c>
       <c r="CG60" s="43"/>
       <c r="CH60" s="43"/>
       <c r="CI60" s="43"/>
@@ -14765,15 +14945,15 @@
       </c>
       <c r="K61" s="29">
         <f t="shared" si="39"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L61" s="51">
         <f t="shared" si="40"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M61" s="29">
         <f>K61-K63</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N61" s="29">
         <v>0</v>
@@ -15044,12 +15224,24 @@
       <c r="BZ62" s="43">
         <v>6</v>
       </c>
-      <c r="CA62" s="43"/>
-      <c r="CB62" s="43"/>
-      <c r="CC62" s="43"/>
-      <c r="CD62" s="43"/>
-      <c r="CE62" s="43"/>
-      <c r="CF62" s="43"/>
+      <c r="CA62" s="43">
+        <v>6</v>
+      </c>
+      <c r="CB62" s="43">
+        <v>7</v>
+      </c>
+      <c r="CC62" s="43">
+        <v>8</v>
+      </c>
+      <c r="CD62" s="43">
+        <v>8</v>
+      </c>
+      <c r="CE62" s="43">
+        <v>8</v>
+      </c>
+      <c r="CF62" s="43">
+        <v>8</v>
+      </c>
       <c r="CG62" s="43"/>
       <c r="CH62" s="43"/>
       <c r="CI62" s="43"/>
@@ -15377,15 +15569,15 @@
       </c>
       <c r="K65" s="24">
         <f t="shared" ref="K65:K69" si="41">MAX(AH66:DP66)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L65" s="49">
         <f t="shared" ref="L65:L69" si="42">J65-K65</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M65" s="24">
         <f>K65-K67</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" s="24">
         <v>0</v>
@@ -15587,11 +15779,21 @@
       <c r="BY66" s="43"/>
       <c r="BZ66" s="43"/>
       <c r="CA66" s="43"/>
-      <c r="CB66" s="43"/>
-      <c r="CC66" s="43"/>
-      <c r="CD66" s="43"/>
-      <c r="CE66" s="43"/>
-      <c r="CF66" s="43"/>
+      <c r="CB66" s="43">
+        <v>2</v>
+      </c>
+      <c r="CC66" s="43">
+        <v>2</v>
+      </c>
+      <c r="CD66" s="43">
+        <v>2</v>
+      </c>
+      <c r="CE66" s="43">
+        <v>1</v>
+      </c>
+      <c r="CF66" s="43">
+        <v>1</v>
+      </c>
       <c r="CG66" s="43"/>
       <c r="CH66" s="43"/>
       <c r="CI66" s="43"/>
@@ -15657,15 +15859,15 @@
       </c>
       <c r="K67" s="29">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="51">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M67" s="29">
         <f>K67-K69</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" s="29">
         <v>0</v>
@@ -15865,11 +16067,21 @@
       <c r="BY68" s="43"/>
       <c r="BZ68" s="43"/>
       <c r="CA68" s="43"/>
-      <c r="CB68" s="43"/>
-      <c r="CC68" s="43"/>
-      <c r="CD68" s="43"/>
-      <c r="CE68" s="43"/>
-      <c r="CF68" s="43"/>
+      <c r="CB68" s="43">
+        <v>0</v>
+      </c>
+      <c r="CC68" s="43">
+        <v>0</v>
+      </c>
+      <c r="CD68" s="43">
+        <v>1</v>
+      </c>
+      <c r="CE68" s="43">
+        <v>1</v>
+      </c>
+      <c r="CF68" s="43">
+        <v>1</v>
+      </c>
       <c r="CG68" s="43"/>
       <c r="CH68" s="43"/>
       <c r="CI68" s="43"/>
@@ -16205,7 +16417,7 @@
       </c>
       <c r="M71" s="24">
         <f>K71-K73</f>
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="N71" s="24">
         <v>1</v>
@@ -16742,12 +16954,24 @@
       <c r="BZ72" s="43">
         <v>130</v>
       </c>
-      <c r="CA72" s="43"/>
-      <c r="CB72" s="43"/>
-      <c r="CC72" s="43"/>
-      <c r="CD72" s="43"/>
-      <c r="CE72" s="43"/>
-      <c r="CF72" s="43"/>
+      <c r="CA72" s="43">
+        <v>130</v>
+      </c>
+      <c r="CB72" s="43">
+        <v>130</v>
+      </c>
+      <c r="CC72" s="43">
+        <v>130</v>
+      </c>
+      <c r="CD72" s="43">
+        <v>130</v>
+      </c>
+      <c r="CE72" s="43">
+        <v>130</v>
+      </c>
+      <c r="CF72" s="43">
+        <v>130</v>
+      </c>
       <c r="CG72" s="43"/>
       <c r="CH72" s="43"/>
       <c r="CI72" s="43"/>
@@ -16811,15 +17035,15 @@
       </c>
       <c r="K73" s="29">
         <f t="shared" si="43"/>
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="L73" s="51">
         <f t="shared" si="44"/>
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="M73" s="29">
         <f>K73-K75</f>
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="N73" s="29">
         <v>1</v>
@@ -17354,12 +17578,24 @@
       <c r="BZ74" s="43">
         <v>49</v>
       </c>
-      <c r="CA74" s="43"/>
-      <c r="CB74" s="43"/>
-      <c r="CC74" s="43"/>
-      <c r="CD74" s="43"/>
-      <c r="CE74" s="43"/>
-      <c r="CF74" s="43"/>
+      <c r="CA74" s="43">
+        <v>49</v>
+      </c>
+      <c r="CB74" s="43">
+        <v>52</v>
+      </c>
+      <c r="CC74" s="43">
+        <v>52</v>
+      </c>
+      <c r="CD74" s="43">
+        <v>55</v>
+      </c>
+      <c r="CE74" s="43">
+        <v>58</v>
+      </c>
+      <c r="CF74" s="43">
+        <v>60</v>
+      </c>
       <c r="CG74" s="43"/>
       <c r="CH74" s="43"/>
       <c r="CI74" s="43"/>
@@ -17688,15 +17924,15 @@
       </c>
       <c r="K77" s="86">
         <f>MAX(O78:DP78)</f>
-        <v>604</v>
+        <v>681</v>
       </c>
       <c r="L77" s="87">
         <f t="shared" ref="L77:L81" si="50">J77-K77</f>
-        <v>304</v>
+        <v>227</v>
       </c>
       <c r="M77" s="86">
         <f>K77-K79</f>
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="N77" s="86">
         <v>9</v>
@@ -18279,12 +18515,30 @@
         <f>BZ18+BZ24+BZ30+BZ36+BZ42+BZ48+BZ54+BZ60+BZ66+BZ72</f>
         <v>604</v>
       </c>
-      <c r="CA78" s="43"/>
-      <c r="CB78" s="43"/>
-      <c r="CC78" s="43"/>
-      <c r="CD78" s="43"/>
-      <c r="CE78" s="43"/>
-      <c r="CF78" s="43"/>
+      <c r="CA78" s="43">
+        <f>CA18+CA24+CA30+CA36+CA42+CA48+CA54+CA60+CA66+CA72</f>
+        <v>610</v>
+      </c>
+      <c r="CB78" s="43">
+        <f>CB18+CB24+CB30+CB36+CB42+CB48+CB54+CB60+CB66+CB72</f>
+        <v>656</v>
+      </c>
+      <c r="CC78" s="43">
+        <f>CC18+CC24+CC30+CC36+CC42+CC48+CC54+CC60+CC66+CC72</f>
+        <v>659</v>
+      </c>
+      <c r="CD78" s="43">
+        <f>CD18+CD24+CD30+CD36+CD42+CD48+CD54+CD60+CD66+CD72</f>
+        <v>662</v>
+      </c>
+      <c r="CE78" s="43">
+        <f>CE18+CE24+CE30+CE36+CE42+CE48+CE54+CE60+CE66+CE72</f>
+        <v>669</v>
+      </c>
+      <c r="CF78" s="43">
+        <f>CF18+CF24+CF30+CF36+CF42+CF48+CF54+CF60+CF66+CF72</f>
+        <v>681</v>
+      </c>
       <c r="CG78" s="43"/>
       <c r="CH78" s="43"/>
       <c r="CI78" s="43"/>
@@ -18342,15 +18596,15 @@
       </c>
       <c r="K79" s="90">
         <f>MAX(O80:DP80)</f>
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="L79" s="91">
         <f t="shared" si="50"/>
-        <v>433</v>
+        <v>379</v>
       </c>
       <c r="M79" s="90">
         <f>K79-K81</f>
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="N79" s="88">
         <v>9</v>
@@ -18937,12 +19191,30 @@
         <f>BZ20+BZ26+BZ32+BZ38+BZ44+BZ50+BZ56+BZ62+BZ68+BZ74</f>
         <v>475</v>
       </c>
-      <c r="CA80" s="43"/>
-      <c r="CB80" s="43"/>
-      <c r="CC80" s="43"/>
-      <c r="CD80" s="43"/>
-      <c r="CE80" s="43"/>
-      <c r="CF80" s="43"/>
+      <c r="CA80" s="43">
+        <f>CA20+CA26+CA32+CA38+CA44+CA50+CA56+CA62+CA68+CA74</f>
+        <v>481</v>
+      </c>
+      <c r="CB80" s="43">
+        <f>CB20+CB26+CB32+CB38+CB44+CB50+CB56+CB62+CB68+CB74</f>
+        <v>493</v>
+      </c>
+      <c r="CC80" s="43">
+        <f>CC20+CC26+CC32+CC38+CC44+CC50+CC56+CC62+CC68+CC74</f>
+        <v>500</v>
+      </c>
+      <c r="CD80" s="43">
+        <f>CD20+CD26+CD32+CD38+CD44+CD50+CD56+CD62+CD68+CD74</f>
+        <v>512</v>
+      </c>
+      <c r="CE80" s="43">
+        <f>CE20+CE26+CE32+CE38+CE44+CE50+CE56+CE62+CE68+CE74</f>
+        <v>519</v>
+      </c>
+      <c r="CF80" s="43">
+        <f>CF20+CF26+CF32+CF38+CF44+CF50+CF56+CF62+CF68+CF74</f>
+        <v>529</v>
+      </c>
       <c r="CG80" s="43"/>
       <c r="CH80" s="43"/>
       <c r="CI80" s="43"/>

--- a/UPGRADE 3100-5000.xlsx
+++ b/UPGRADE 3100-5000.xlsx
@@ -1194,8 +1194,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -1236,16 +1236,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1253,28 +1245,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1291,7 +1261,37 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1299,7 +1299,59 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1315,65 +1367,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1384,6 +1378,12 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1479,7 +1479,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1491,7 +1593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1503,37 +1605,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1545,103 +1635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1877,7 +1877,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1885,49 +1885,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1950,8 +1909,49 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1973,149 +1973,149 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2738,11 +2738,11 @@
   <dimension ref="A1:DP685"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="I1" workbookViewId="0">
-      <pane xSplit="5745" ySplit="1170" topLeftCell="BS70" activePane="bottomRight"/>
+      <pane xSplit="5745" ySplit="1170" topLeftCell="BS67" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CF83" sqref="CF83"/>
+      <selection pane="bottomRight" activeCell="CI80" sqref="CI80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="11.25"/>
@@ -5283,11 +5283,11 @@
       </c>
       <c r="K17" s="24">
         <f t="shared" ref="K17:K21" si="0">MAX(AH18:DP18)</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L17" s="49">
         <f t="shared" ref="L17:L21" si="1">J17-K17</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M17" s="24">
         <f>K17-K19</f>
@@ -5790,10 +5790,18 @@
       <c r="CF18" s="60">
         <v>85</v>
       </c>
-      <c r="CG18" s="60"/>
-      <c r="CH18" s="60"/>
-      <c r="CI18" s="60"/>
-      <c r="CJ18" s="60"/>
+      <c r="CG18" s="60">
+        <v>85</v>
+      </c>
+      <c r="CH18" s="60">
+        <v>86</v>
+      </c>
+      <c r="CI18" s="60">
+        <v>86</v>
+      </c>
+      <c r="CJ18" s="60">
+        <v>86</v>
+      </c>
       <c r="CK18" s="60"/>
       <c r="CL18" s="60"/>
       <c r="CM18" s="60"/>
@@ -5861,15 +5869,15 @@
       </c>
       <c r="K19" s="29">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L19" s="51">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M19" s="29">
         <f>K19-K21</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N19" s="29">
         <v>1</v>
@@ -6366,10 +6374,18 @@
       <c r="CF20" s="43">
         <v>76</v>
       </c>
-      <c r="CG20" s="43"/>
-      <c r="CH20" s="43"/>
-      <c r="CI20" s="43"/>
-      <c r="CJ20" s="43"/>
+      <c r="CG20" s="43">
+        <v>76</v>
+      </c>
+      <c r="CH20" s="43">
+        <v>76</v>
+      </c>
+      <c r="CI20" s="43">
+        <v>76</v>
+      </c>
+      <c r="CJ20" s="43">
+        <v>77</v>
+      </c>
       <c r="CK20" s="43"/>
       <c r="CL20" s="43"/>
       <c r="CM20" s="43"/>
@@ -7124,10 +7140,18 @@
       <c r="CF24" s="43">
         <v>67</v>
       </c>
-      <c r="CG24" s="43"/>
-      <c r="CH24" s="43"/>
-      <c r="CI24" s="43"/>
-      <c r="CJ24" s="43"/>
+      <c r="CG24" s="43">
+        <v>66</v>
+      </c>
+      <c r="CH24" s="43">
+        <v>66</v>
+      </c>
+      <c r="CI24" s="43">
+        <v>65</v>
+      </c>
+      <c r="CJ24" s="43">
+        <v>64</v>
+      </c>
       <c r="CK24" s="43"/>
       <c r="CL24" s="43"/>
       <c r="CM24" s="43"/>
@@ -7618,10 +7642,18 @@
       <c r="CF26" s="43">
         <v>58</v>
       </c>
-      <c r="CG26" s="43"/>
-      <c r="CH26" s="43"/>
-      <c r="CI26" s="43"/>
-      <c r="CJ26" s="43"/>
+      <c r="CG26" s="43">
+        <v>58</v>
+      </c>
+      <c r="CH26" s="43">
+        <v>58</v>
+      </c>
+      <c r="CI26" s="43">
+        <v>58</v>
+      </c>
+      <c r="CJ26" s="43">
+        <v>58</v>
+      </c>
       <c r="CK26" s="43"/>
       <c r="CL26" s="43"/>
       <c r="CM26" s="43"/>
@@ -7955,7 +7987,7 @@
       </c>
       <c r="M29" s="24">
         <f>K29-K31</f>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="N29" s="24">
         <v>2</v>
@@ -8496,10 +8528,18 @@
       <c r="CF30" s="43">
         <v>139</v>
       </c>
-      <c r="CG30" s="43"/>
-      <c r="CH30" s="43"/>
-      <c r="CI30" s="43"/>
-      <c r="CJ30" s="43"/>
+      <c r="CG30" s="43">
+        <v>139</v>
+      </c>
+      <c r="CH30" s="43">
+        <v>139</v>
+      </c>
+      <c r="CI30" s="43">
+        <v>139</v>
+      </c>
+      <c r="CJ30" s="43">
+        <v>139</v>
+      </c>
       <c r="CK30" s="43"/>
       <c r="CL30" s="43"/>
       <c r="CM30" s="43"/>
@@ -8563,15 +8603,15 @@
       </c>
       <c r="K31" s="29">
         <f t="shared" si="11"/>
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="L31" s="51">
         <f t="shared" si="12"/>
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M31" s="29">
         <f>K31-K33</f>
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="N31" s="29">
         <v>2</v>
@@ -9110,10 +9150,18 @@
       <c r="CF32" s="43">
         <v>120</v>
       </c>
-      <c r="CG32" s="43"/>
-      <c r="CH32" s="43"/>
-      <c r="CI32" s="43"/>
-      <c r="CJ32" s="43"/>
+      <c r="CG32" s="43">
+        <v>121</v>
+      </c>
+      <c r="CH32" s="43">
+        <v>128</v>
+      </c>
+      <c r="CI32" s="43">
+        <v>128</v>
+      </c>
+      <c r="CJ32" s="43">
+        <v>131</v>
+      </c>
       <c r="CK32" s="43"/>
       <c r="CL32" s="43"/>
       <c r="CM32" s="43"/>
@@ -9443,7 +9491,7 @@
       </c>
       <c r="M35" s="24">
         <f>K35-K37</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N35" s="24">
         <v>1</v>
@@ -9915,10 +9963,18 @@
       <c r="CF36" s="43">
         <v>45</v>
       </c>
-      <c r="CG36" s="43"/>
-      <c r="CH36" s="43"/>
-      <c r="CI36" s="43"/>
-      <c r="CJ36" s="43"/>
+      <c r="CG36" s="43">
+        <v>45</v>
+      </c>
+      <c r="CH36" s="43">
+        <v>45</v>
+      </c>
+      <c r="CI36" s="43">
+        <v>45</v>
+      </c>
+      <c r="CJ36" s="43">
+        <v>45</v>
+      </c>
       <c r="CK36" s="43"/>
       <c r="CL36" s="43"/>
       <c r="CM36" s="43"/>
@@ -9980,15 +10036,15 @@
       </c>
       <c r="K37" s="29">
         <f t="shared" si="18"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L37" s="51">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M37" s="29">
         <f>K37-K39</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N37" s="29">
         <v>1</v>
@@ -10458,10 +10514,18 @@
       <c r="CF38" s="43">
         <v>41</v>
       </c>
-      <c r="CG38" s="43"/>
-      <c r="CH38" s="43"/>
-      <c r="CI38" s="43"/>
-      <c r="CJ38" s="43"/>
+      <c r="CG38" s="43">
+        <v>41</v>
+      </c>
+      <c r="CH38" s="43">
+        <v>42</v>
+      </c>
+      <c r="CI38" s="43">
+        <v>42</v>
+      </c>
+      <c r="CJ38" s="43">
+        <v>42</v>
+      </c>
       <c r="CK38" s="43"/>
       <c r="CL38" s="43"/>
       <c r="CM38" s="43"/>
@@ -10793,7 +10857,7 @@
       </c>
       <c r="M41" s="24">
         <f>K41-K43</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N41" s="24">
         <v>1</v>
@@ -11261,10 +11325,18 @@
       <c r="CF42" s="43">
         <v>47</v>
       </c>
-      <c r="CG42" s="43"/>
-      <c r="CH42" s="43"/>
-      <c r="CI42" s="43"/>
-      <c r="CJ42" s="43"/>
+      <c r="CG42" s="43">
+        <v>47</v>
+      </c>
+      <c r="CH42" s="43">
+        <v>48</v>
+      </c>
+      <c r="CI42" s="43">
+        <v>49</v>
+      </c>
+      <c r="CJ42" s="43">
+        <v>49</v>
+      </c>
       <c r="CK42" s="43"/>
       <c r="CL42" s="43"/>
       <c r="CM42" s="43"/>
@@ -11326,15 +11398,15 @@
       </c>
       <c r="K43" s="29">
         <f t="shared" si="23"/>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L43" s="51">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M43" s="29">
         <f>K43-K45</f>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N43" s="29">
         <v>1</v>
@@ -11800,10 +11872,18 @@
       <c r="CF44" s="43">
         <v>41</v>
       </c>
-      <c r="CG44" s="43"/>
-      <c r="CH44" s="43"/>
-      <c r="CI44" s="43"/>
-      <c r="CJ44" s="43"/>
+      <c r="CG44" s="43">
+        <v>41</v>
+      </c>
+      <c r="CH44" s="43">
+        <v>42</v>
+      </c>
+      <c r="CI44" s="43">
+        <v>43</v>
+      </c>
+      <c r="CJ44" s="43">
+        <v>45</v>
+      </c>
       <c r="CK44" s="43"/>
       <c r="CL44" s="43"/>
       <c r="CM44" s="43"/>
@@ -12127,15 +12207,15 @@
       </c>
       <c r="K47" s="24">
         <f t="shared" ref="K47:K51" si="28">MAX(AH48:DP48)</f>
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L47" s="49">
         <f t="shared" ref="L47:L51" si="29">J47-K47</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M47" s="24">
         <f>K47-K49</f>
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N47" s="24">
         <v>2</v>
@@ -12669,10 +12749,18 @@
       <c r="CF48" s="43">
         <v>134</v>
       </c>
-      <c r="CG48" s="43"/>
-      <c r="CH48" s="43"/>
-      <c r="CI48" s="43"/>
-      <c r="CJ48" s="43"/>
+      <c r="CG48" s="43">
+        <v>135</v>
+      </c>
+      <c r="CH48" s="43">
+        <v>135</v>
+      </c>
+      <c r="CI48" s="43">
+        <v>136</v>
+      </c>
+      <c r="CJ48" s="43">
+        <v>136</v>
+      </c>
       <c r="CK48" s="43"/>
       <c r="CL48" s="43"/>
       <c r="CM48" s="43"/>
@@ -12734,15 +12822,15 @@
       </c>
       <c r="K49" s="29">
         <f t="shared" si="28"/>
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="L49" s="51">
         <f t="shared" si="29"/>
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M49" s="29">
         <f>K49-K51</f>
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="N49" s="29">
         <v>2</v>
@@ -13274,10 +13362,18 @@
       <c r="CF50" s="43">
         <v>105</v>
       </c>
-      <c r="CG50" s="43"/>
-      <c r="CH50" s="43"/>
-      <c r="CI50" s="43"/>
-      <c r="CJ50" s="43"/>
+      <c r="CG50" s="43">
+        <v>109</v>
+      </c>
+      <c r="CH50" s="43">
+        <v>111</v>
+      </c>
+      <c r="CI50" s="43">
+        <v>114</v>
+      </c>
+      <c r="CJ50" s="43">
+        <v>116</v>
+      </c>
       <c r="CK50" s="43"/>
       <c r="CL50" s="43"/>
       <c r="CM50" s="43"/>
@@ -13609,7 +13705,7 @@
       </c>
       <c r="M53" s="24">
         <f>K53-K55</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N53" s="24">
         <v>1</v>
@@ -13922,10 +14018,18 @@
       <c r="CF54" s="43">
         <v>25</v>
       </c>
-      <c r="CG54" s="43"/>
-      <c r="CH54" s="43"/>
-      <c r="CI54" s="43"/>
-      <c r="CJ54" s="43"/>
+      <c r="CG54" s="43">
+        <v>25</v>
+      </c>
+      <c r="CH54" s="43">
+        <v>25</v>
+      </c>
+      <c r="CI54" s="43">
+        <v>25</v>
+      </c>
+      <c r="CJ54" s="43">
+        <v>25</v>
+      </c>
       <c r="CK54" s="43"/>
       <c r="CL54" s="43"/>
       <c r="CM54" s="43"/>
@@ -13987,15 +14091,15 @@
       </c>
       <c r="K55" s="29">
         <f t="shared" si="35"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L55" s="51">
         <f t="shared" si="36"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M55" s="29">
         <f>K55-K57</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N55" s="29">
         <v>1</v>
@@ -14306,10 +14410,18 @@
       <c r="CF56" s="43">
         <v>19</v>
       </c>
-      <c r="CG56" s="43"/>
-      <c r="CH56" s="43"/>
-      <c r="CI56" s="43"/>
-      <c r="CJ56" s="43"/>
+      <c r="CG56" s="43">
+        <v>20</v>
+      </c>
+      <c r="CH56" s="43">
+        <v>21</v>
+      </c>
+      <c r="CI56" s="43">
+        <v>21</v>
+      </c>
+      <c r="CJ56" s="43">
+        <v>21</v>
+      </c>
       <c r="CK56" s="43"/>
       <c r="CL56" s="43"/>
       <c r="CM56" s="43"/>
@@ -14880,10 +14992,18 @@
       <c r="CF60" s="43">
         <v>8</v>
       </c>
-      <c r="CG60" s="43"/>
-      <c r="CH60" s="43"/>
-      <c r="CI60" s="43"/>
-      <c r="CJ60" s="43"/>
+      <c r="CG60" s="43">
+        <v>8</v>
+      </c>
+      <c r="CH60" s="43">
+        <v>8</v>
+      </c>
+      <c r="CI60" s="43">
+        <v>8</v>
+      </c>
+      <c r="CJ60" s="43">
+        <v>8</v>
+      </c>
       <c r="CK60" s="43"/>
       <c r="CL60" s="43"/>
       <c r="CM60" s="43"/>
@@ -15242,10 +15362,18 @@
       <c r="CF62" s="43">
         <v>8</v>
       </c>
-      <c r="CG62" s="43"/>
-      <c r="CH62" s="43"/>
-      <c r="CI62" s="43"/>
-      <c r="CJ62" s="43"/>
+      <c r="CG62" s="43">
+        <v>8</v>
+      </c>
+      <c r="CH62" s="43">
+        <v>8</v>
+      </c>
+      <c r="CI62" s="43">
+        <v>8</v>
+      </c>
+      <c r="CJ62" s="43">
+        <v>8</v>
+      </c>
       <c r="CK62" s="43"/>
       <c r="CL62" s="43"/>
       <c r="CM62" s="43"/>
@@ -15794,10 +15922,18 @@
       <c r="CF66" s="43">
         <v>1</v>
       </c>
-      <c r="CG66" s="43"/>
-      <c r="CH66" s="43"/>
-      <c r="CI66" s="43"/>
-      <c r="CJ66" s="43"/>
+      <c r="CG66" s="43">
+        <v>1</v>
+      </c>
+      <c r="CH66" s="43">
+        <v>1</v>
+      </c>
+      <c r="CI66" s="43">
+        <v>1</v>
+      </c>
+      <c r="CJ66" s="43">
+        <v>1</v>
+      </c>
       <c r="CK66" s="43"/>
       <c r="CL66" s="43"/>
       <c r="CM66" s="43"/>
@@ -16082,10 +16218,18 @@
       <c r="CF68" s="43">
         <v>1</v>
       </c>
-      <c r="CG68" s="43"/>
-      <c r="CH68" s="43"/>
-      <c r="CI68" s="43"/>
-      <c r="CJ68" s="43"/>
+      <c r="CG68" s="43">
+        <v>1</v>
+      </c>
+      <c r="CH68" s="43">
+        <v>1</v>
+      </c>
+      <c r="CI68" s="43">
+        <v>1</v>
+      </c>
+      <c r="CJ68" s="43">
+        <v>1</v>
+      </c>
       <c r="CK68" s="43"/>
       <c r="CL68" s="43"/>
       <c r="CM68" s="43"/>
@@ -16417,7 +16561,7 @@
       </c>
       <c r="M71" s="24">
         <f>K71-K73</f>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N71" s="24">
         <v>1</v>
@@ -16972,10 +17116,18 @@
       <c r="CF72" s="43">
         <v>130</v>
       </c>
-      <c r="CG72" s="43"/>
-      <c r="CH72" s="43"/>
-      <c r="CI72" s="43"/>
-      <c r="CJ72" s="43"/>
+      <c r="CG72" s="43">
+        <v>130</v>
+      </c>
+      <c r="CH72" s="43">
+        <v>130</v>
+      </c>
+      <c r="CI72" s="43">
+        <v>130</v>
+      </c>
+      <c r="CJ72" s="43">
+        <v>130</v>
+      </c>
       <c r="CK72" s="43"/>
       <c r="CL72" s="43"/>
       <c r="CM72" s="43"/>
@@ -17035,15 +17187,15 @@
       </c>
       <c r="K73" s="29">
         <f t="shared" si="43"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L73" s="51">
         <f t="shared" si="44"/>
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M73" s="29">
         <f>K73-K75</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N73" s="29">
         <v>1</v>
@@ -17596,10 +17748,18 @@
       <c r="CF74" s="43">
         <v>60</v>
       </c>
-      <c r="CG74" s="43"/>
-      <c r="CH74" s="43"/>
-      <c r="CI74" s="43"/>
-      <c r="CJ74" s="43"/>
+      <c r="CG74" s="43">
+        <v>62</v>
+      </c>
+      <c r="CH74" s="43">
+        <v>62</v>
+      </c>
+      <c r="CI74" s="43">
+        <v>62</v>
+      </c>
+      <c r="CJ74" s="43">
+        <v>62</v>
+      </c>
       <c r="CK74" s="43"/>
       <c r="CL74" s="43"/>
       <c r="CM74" s="43"/>
@@ -17924,15 +18084,15 @@
       </c>
       <c r="K77" s="86">
         <f>MAX(O78:DP78)</f>
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="L77" s="87">
         <f t="shared" ref="L77:L81" si="50">J77-K77</f>
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M77" s="86">
         <f>K77-K79</f>
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="N77" s="86">
         <v>9</v>
@@ -18336,7 +18496,7 @@
       <c r="AF78" s="43"/>
       <c r="AG78" s="43"/>
       <c r="AH78" s="43">
-        <f t="shared" ref="AH78:BL78" si="53">AH18+AH24+AH30+AH36+AH42+AH48+AH54+AH60+AH66+AH72</f>
+        <f t="shared" ref="AH78:CG78" si="53">AH18+AH24+AH30+AH36+AH42+AH48+AH54+AH60+AH66+AH72</f>
         <v>231</v>
       </c>
       <c r="AI78" s="43">
@@ -18460,89 +18620,101 @@
         <v>521</v>
       </c>
       <c r="BM78" s="43">
-        <f>BM18+BM24+BM30+BM36+BM42+BM48+BM54+BM60+BM66+BM72</f>
+        <f t="shared" si="53"/>
         <v>521</v>
       </c>
       <c r="BN78" s="43">
-        <f>BN18+BN24+BN30+BN36+BN42+BN48+BN54+BN60+BN66+BN72</f>
+        <f t="shared" si="53"/>
         <v>521</v>
       </c>
       <c r="BO78" s="43">
-        <f>BO18+BO24+BO30+BO36+BO42+BO48+BO54+BO60+BO66+BO72</f>
+        <f t="shared" si="53"/>
         <v>521</v>
       </c>
       <c r="BP78" s="43">
-        <f>BP18+BP24+BP30+BP36+BP42+BP48+BP54+BP60+BP66+BP72</f>
+        <f t="shared" si="53"/>
         <v>515</v>
       </c>
       <c r="BQ78" s="43">
-        <f>BQ18+BQ24+BQ30+BQ36+BQ42+BQ48+BQ54+BQ60+BQ66+BQ72</f>
+        <f t="shared" si="53"/>
         <v>543</v>
       </c>
       <c r="BR78" s="43">
-        <f>BR18+BR24+BR30+BR36+BR42+BR48+BR54+BR60+BR66+BR72</f>
+        <f t="shared" si="53"/>
         <v>544</v>
       </c>
       <c r="BS78" s="43">
-        <f>BS18+BS24+BS30+BS36+BS42+BS48+BS54+BS60+BS66+BS72</f>
+        <f t="shared" si="53"/>
         <v>538</v>
       </c>
       <c r="BT78" s="43">
-        <f>BT18+BT24+BT30+BT36+BT42+BT48+BT54+BT60+BT66+BT72</f>
+        <f t="shared" si="53"/>
         <v>528</v>
       </c>
       <c r="BU78" s="43">
-        <f>BU18+BU24+BU30+BU36+BU42+BU48+BU54+BU60+BU66+BU72</f>
+        <f t="shared" si="53"/>
         <v>517</v>
       </c>
       <c r="BV78" s="43">
-        <f>BV18+BV24+BV30+BV36+BV42+BV48+BV54+BV60+BV66+BV72</f>
+        <f t="shared" si="53"/>
         <v>517</v>
       </c>
       <c r="BW78" s="43">
-        <f>BW18+BW24+BW30+BW36+BW42+BW48+BW54+BW60+BW66+BW72</f>
+        <f t="shared" si="53"/>
         <v>527</v>
       </c>
       <c r="BX78" s="43">
-        <f>BX18+BX24+BX30+BX36+BX42+BX48+BX54+BX60+BX66+BX72</f>
+        <f t="shared" si="53"/>
         <v>592</v>
       </c>
       <c r="BY78" s="43">
-        <f>BY18+BY24+BY30+BY36+BY42+BY48+BY54+BY60+BY66+BY72</f>
+        <f t="shared" si="53"/>
         <v>597</v>
       </c>
       <c r="BZ78" s="43">
-        <f>BZ18+BZ24+BZ30+BZ36+BZ42+BZ48+BZ54+BZ60+BZ66+BZ72</f>
+        <f t="shared" si="53"/>
         <v>604</v>
       </c>
       <c r="CA78" s="43">
-        <f>CA18+CA24+CA30+CA36+CA42+CA48+CA54+CA60+CA66+CA72</f>
+        <f t="shared" si="53"/>
         <v>610</v>
       </c>
       <c r="CB78" s="43">
-        <f>CB18+CB24+CB30+CB36+CB42+CB48+CB54+CB60+CB66+CB72</f>
+        <f t="shared" si="53"/>
         <v>656</v>
       </c>
       <c r="CC78" s="43">
-        <f>CC18+CC24+CC30+CC36+CC42+CC48+CC54+CC60+CC66+CC72</f>
+        <f t="shared" si="53"/>
         <v>659</v>
       </c>
       <c r="CD78" s="43">
-        <f>CD18+CD24+CD30+CD36+CD42+CD48+CD54+CD60+CD66+CD72</f>
+        <f t="shared" si="53"/>
         <v>662</v>
       </c>
       <c r="CE78" s="43">
-        <f>CE18+CE24+CE30+CE36+CE42+CE48+CE54+CE60+CE66+CE72</f>
+        <f t="shared" si="53"/>
         <v>669</v>
       </c>
       <c r="CF78" s="43">
-        <f>CF18+CF24+CF30+CF36+CF42+CF48+CF54+CF60+CF66+CF72</f>
+        <f t="shared" si="53"/>
         <v>681</v>
       </c>
-      <c r="CG78" s="43"/>
-      <c r="CH78" s="43"/>
-      <c r="CI78" s="43"/>
-      <c r="CJ78" s="43"/>
+      <c r="CG78" s="43">
+        <f t="shared" si="53"/>
+        <v>681</v>
+      </c>
+      <c r="CH78" s="43">
+        <f>CH18+CH24+CH30+CH36+CH42+CH48+CH54+CH60+CH66+CH72</f>
+        <v>683</v>
+      </c>
+      <c r="CI78" s="43">
+        <f>CI18+CI24+CI30+CI36+CI42+CI48+CI54+CI60+CI66+CI72</f>
+        <v>684</v>
+      </c>
+      <c r="CJ78" s="43">
+        <f>CJ18+CJ24+CJ30+CJ36+CJ42+CJ48+CJ54+CJ60+CJ66+CJ72</f>
+        <v>683</v>
+      </c>
       <c r="CK78" s="43"/>
       <c r="CL78" s="43"/>
       <c r="CM78" s="43"/>
@@ -18596,15 +18768,15 @@
       </c>
       <c r="K79" s="90">
         <f>MAX(O80:DP80)</f>
-        <v>529</v>
+        <v>561</v>
       </c>
       <c r="L79" s="91">
         <f t="shared" si="50"/>
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="M79" s="90">
         <f>K79-K81</f>
-        <v>529</v>
+        <v>561</v>
       </c>
       <c r="N79" s="88">
         <v>9</v>
@@ -19012,7 +19184,7 @@
       <c r="AF80" s="43"/>
       <c r="AG80" s="43"/>
       <c r="AH80" s="43">
-        <f t="shared" ref="AH80:BL80" si="59">AH20+AH26+AH32+AH38+AH44+AH50+AH56+AH62+AH68+AH74</f>
+        <f t="shared" ref="AH80:CG80" si="59">AH20+AH26+AH32+AH38+AH44+AH50+AH56+AH62+AH68+AH74</f>
         <v>68</v>
       </c>
       <c r="AI80" s="43">
@@ -19136,89 +19308,101 @@
         <v>337</v>
       </c>
       <c r="BM80" s="43">
-        <f>BM20+BM26+BM32+BM38+BM44+BM50+BM56+BM62+BM68+BM74</f>
+        <f t="shared" si="59"/>
         <v>337</v>
       </c>
       <c r="BN80" s="43">
-        <f>BN20+BN26+BN32+BN38+BN44+BN50+BN56+BN62+BN68+BN74</f>
+        <f t="shared" si="59"/>
         <v>337</v>
       </c>
       <c r="BO80" s="43">
-        <f>BO20+BO26+BO32+BO38+BO44+BO50+BO56+BO62+BO68+BO74</f>
+        <f t="shared" si="59"/>
         <v>337</v>
       </c>
       <c r="BP80" s="43">
-        <f>BP20+BP26+BP32+BP38+BP44+BP50+BP56+BP62+BP68+BP74</f>
+        <f t="shared" si="59"/>
         <v>350</v>
       </c>
       <c r="BQ80" s="43">
-        <f>BQ20+BQ26+BQ32+BQ38+BQ44+BQ50+BQ56+BQ62+BQ68+BQ74</f>
+        <f t="shared" si="59"/>
         <v>372</v>
       </c>
       <c r="BR80" s="43">
-        <f>BR20+BR26+BR32+BR38+BR44+BR50+BR56+BR62+BR68+BR74</f>
+        <f t="shared" si="59"/>
         <v>393</v>
       </c>
       <c r="BS80" s="43">
-        <f>BS20+BS26+BS32+BS38+BS44+BS50+BS56+BS62+BS68+BS74</f>
+        <f t="shared" si="59"/>
         <v>403</v>
       </c>
       <c r="BT80" s="43">
-        <f>BT20+BT26+BT32+BT38+BT44+BT50+BT56+BT62+BT68+BT74</f>
+        <f t="shared" si="59"/>
         <v>410</v>
       </c>
       <c r="BU80" s="43">
-        <f>BU20+BU26+BU32+BU38+BU44+BU50+BU56+BU62+BU68+BU74</f>
+        <f t="shared" si="59"/>
         <v>420</v>
       </c>
       <c r="BV80" s="43">
-        <f>BV20+BV26+BV32+BV38+BV44+BV50+BV56+BV62+BV68+BV74</f>
+        <f t="shared" si="59"/>
         <v>425</v>
       </c>
       <c r="BW80" s="43">
-        <f>BW20+BW26+BW32+BW38+BW44+BW50+BW56+BW62+BW68+BW74</f>
+        <f t="shared" si="59"/>
         <v>433</v>
       </c>
       <c r="BX80" s="43">
-        <f>BX20+BX26+BX32+BX38+BX44+BX50+BX56+BX62+BX68+BX74</f>
+        <f t="shared" si="59"/>
         <v>448</v>
       </c>
       <c r="BY80" s="43">
-        <f>BY20+BY26+BY32+BY38+BY44+BY50+BY56+BY62+BY68+BY74</f>
+        <f t="shared" si="59"/>
         <v>463</v>
       </c>
       <c r="BZ80" s="43">
-        <f>BZ20+BZ26+BZ32+BZ38+BZ44+BZ50+BZ56+BZ62+BZ68+BZ74</f>
+        <f t="shared" si="59"/>
         <v>475</v>
       </c>
       <c r="CA80" s="43">
-        <f>CA20+CA26+CA32+CA38+CA44+CA50+CA56+CA62+CA68+CA74</f>
+        <f t="shared" si="59"/>
         <v>481</v>
       </c>
       <c r="CB80" s="43">
-        <f>CB20+CB26+CB32+CB38+CB44+CB50+CB56+CB62+CB68+CB74</f>
+        <f t="shared" si="59"/>
         <v>493</v>
       </c>
       <c r="CC80" s="43">
-        <f>CC20+CC26+CC32+CC38+CC44+CC50+CC56+CC62+CC68+CC74</f>
+        <f t="shared" si="59"/>
         <v>500</v>
       </c>
       <c r="CD80" s="43">
-        <f>CD20+CD26+CD32+CD38+CD44+CD50+CD56+CD62+CD68+CD74</f>
+        <f t="shared" si="59"/>
         <v>512</v>
       </c>
       <c r="CE80" s="43">
-        <f>CE20+CE26+CE32+CE38+CE44+CE50+CE56+CE62+CE68+CE74</f>
+        <f t="shared" si="59"/>
         <v>519</v>
       </c>
       <c r="CF80" s="43">
-        <f>CF20+CF26+CF32+CF38+CF44+CF50+CF56+CF62+CF68+CF74</f>
+        <f t="shared" si="59"/>
         <v>529</v>
       </c>
-      <c r="CG80" s="43"/>
-      <c r="CH80" s="43"/>
-      <c r="CI80" s="43"/>
-      <c r="CJ80" s="43"/>
+      <c r="CG80" s="43">
+        <f t="shared" si="59"/>
+        <v>537</v>
+      </c>
+      <c r="CH80" s="43">
+        <f>CH20+CH26+CH32+CH38+CH44+CH50+CH56+CH62+CH68+CH74</f>
+        <v>549</v>
+      </c>
+      <c r="CI80" s="43">
+        <f>CI20+CI26+CI32+CI38+CI44+CI50+CI56+CI62+CI68+CI74</f>
+        <v>553</v>
+      </c>
+      <c r="CJ80" s="43">
+        <f>CJ20+CJ26+CJ32+CJ38+CJ44+CJ50+CJ56+CJ62+CJ68+CJ74</f>
+        <v>561</v>
+      </c>
       <c r="CK80" s="43"/>
       <c r="CL80" s="43"/>
       <c r="CM80" s="43"/>

--- a/UPGRADE 3100-5000.xlsx
+++ b/UPGRADE 3100-5000.xlsx
@@ -2738,11 +2738,11 @@
   <dimension ref="A1:DP685"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="I1" workbookViewId="0">
-      <pane xSplit="5745" ySplit="1170" topLeftCell="BS67" activePane="bottomRight"/>
+      <pane xSplit="5745" ySplit="1170" topLeftCell="BS73" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CI80" sqref="CI80"/>
+      <selection pane="bottomRight" activeCell="CL63" sqref="CL63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="11.25"/>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="M17" s="24">
         <f>K17-K19</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N17" s="24">
         <v>1</v>
@@ -5802,8 +5802,12 @@
       <c r="CJ18" s="60">
         <v>86</v>
       </c>
-      <c r="CK18" s="60"/>
-      <c r="CL18" s="60"/>
+      <c r="CK18" s="60">
+        <v>85</v>
+      </c>
+      <c r="CL18" s="60">
+        <v>85</v>
+      </c>
       <c r="CM18" s="60"/>
       <c r="CN18" s="60"/>
       <c r="CO18" s="60"/>
@@ -5869,15 +5873,15 @@
       </c>
       <c r="K19" s="29">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L19" s="51">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M19" s="29">
         <f>K19-K21</f>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N19" s="29">
         <v>1</v>
@@ -6386,8 +6390,12 @@
       <c r="CJ20" s="43">
         <v>77</v>
       </c>
-      <c r="CK20" s="43"/>
-      <c r="CL20" s="43"/>
+      <c r="CK20" s="43">
+        <v>78</v>
+      </c>
+      <c r="CL20" s="43">
+        <v>79</v>
+      </c>
       <c r="CM20" s="43"/>
       <c r="CN20" s="43"/>
       <c r="CO20" s="43"/>
@@ -7152,8 +7160,12 @@
       <c r="CJ24" s="43">
         <v>64</v>
       </c>
-      <c r="CK24" s="43"/>
-      <c r="CL24" s="43"/>
+      <c r="CK24" s="43">
+        <v>63</v>
+      </c>
+      <c r="CL24" s="43">
+        <v>62</v>
+      </c>
       <c r="CM24" s="43"/>
       <c r="CN24" s="43"/>
       <c r="CO24" s="43"/>
@@ -7654,8 +7666,12 @@
       <c r="CJ26" s="43">
         <v>58</v>
       </c>
-      <c r="CK26" s="43"/>
-      <c r="CL26" s="43"/>
+      <c r="CK26" s="43">
+        <v>58</v>
+      </c>
+      <c r="CL26" s="43">
+        <v>58</v>
+      </c>
       <c r="CM26" s="43"/>
       <c r="CN26" s="43"/>
       <c r="CO26" s="43"/>
@@ -7987,7 +8003,7 @@
       </c>
       <c r="M29" s="24">
         <f>K29-K31</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N29" s="24">
         <v>2</v>
@@ -8540,8 +8556,12 @@
       <c r="CJ30" s="43">
         <v>139</v>
       </c>
-      <c r="CK30" s="43"/>
-      <c r="CL30" s="43"/>
+      <c r="CK30" s="43">
+        <v>140</v>
+      </c>
+      <c r="CL30" s="43">
+        <v>140</v>
+      </c>
       <c r="CM30" s="43"/>
       <c r="CN30" s="43"/>
       <c r="CO30" s="43"/>
@@ -8603,15 +8623,15 @@
       </c>
       <c r="K31" s="29">
         <f t="shared" si="11"/>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L31" s="51">
         <f t="shared" si="12"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M31" s="29">
         <f>K31-K33</f>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N31" s="29">
         <v>2</v>
@@ -9162,8 +9182,12 @@
       <c r="CJ32" s="43">
         <v>131</v>
       </c>
-      <c r="CK32" s="43"/>
-      <c r="CL32" s="43"/>
+      <c r="CK32" s="43">
+        <v>132</v>
+      </c>
+      <c r="CL32" s="43">
+        <v>133</v>
+      </c>
       <c r="CM32" s="43"/>
       <c r="CN32" s="43"/>
       <c r="CO32" s="43"/>
@@ -9491,7 +9515,7 @@
       </c>
       <c r="M35" s="24">
         <f>K35-K37</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N35" s="24">
         <v>1</v>
@@ -9975,8 +9999,12 @@
       <c r="CJ36" s="43">
         <v>45</v>
       </c>
-      <c r="CK36" s="43"/>
-      <c r="CL36" s="43"/>
+      <c r="CK36" s="43">
+        <v>45</v>
+      </c>
+      <c r="CL36" s="43">
+        <v>45</v>
+      </c>
       <c r="CM36" s="43"/>
       <c r="CN36" s="43"/>
       <c r="CO36" s="43"/>
@@ -10036,15 +10064,15 @@
       </c>
       <c r="K37" s="29">
         <f t="shared" si="18"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L37" s="51">
         <f t="shared" si="19"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M37" s="29">
         <f>K37-K39</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N37" s="29">
         <v>1</v>
@@ -10526,8 +10554,12 @@
       <c r="CJ38" s="43">
         <v>42</v>
       </c>
-      <c r="CK38" s="43"/>
-      <c r="CL38" s="43"/>
+      <c r="CK38" s="43">
+        <v>45</v>
+      </c>
+      <c r="CL38" s="43">
+        <v>45</v>
+      </c>
       <c r="CM38" s="43"/>
       <c r="CN38" s="43"/>
       <c r="CO38" s="43"/>
@@ -10857,7 +10889,7 @@
       </c>
       <c r="M41" s="24">
         <f>K41-K43</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N41" s="24">
         <v>1</v>
@@ -11337,8 +11369,12 @@
       <c r="CJ42" s="43">
         <v>49</v>
       </c>
-      <c r="CK42" s="43"/>
-      <c r="CL42" s="43"/>
+      <c r="CK42" s="43">
+        <v>50</v>
+      </c>
+      <c r="CL42" s="43">
+        <v>50</v>
+      </c>
       <c r="CM42" s="43"/>
       <c r="CN42" s="43"/>
       <c r="CO42" s="43"/>
@@ -11398,15 +11434,15 @@
       </c>
       <c r="K43" s="29">
         <f t="shared" si="23"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L43" s="51">
         <f t="shared" si="24"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M43" s="29">
         <f>K43-K45</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N43" s="29">
         <v>1</v>
@@ -11884,8 +11920,12 @@
       <c r="CJ44" s="43">
         <v>45</v>
       </c>
-      <c r="CK44" s="43"/>
-      <c r="CL44" s="43"/>
+      <c r="CK44" s="43">
+        <v>46</v>
+      </c>
+      <c r="CL44" s="43">
+        <v>46</v>
+      </c>
       <c r="CM44" s="43"/>
       <c r="CN44" s="43"/>
       <c r="CO44" s="43"/>
@@ -12215,7 +12255,7 @@
       </c>
       <c r="M47" s="24">
         <f>K47-K49</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N47" s="24">
         <v>2</v>
@@ -12761,8 +12801,12 @@
       <c r="CJ48" s="43">
         <v>136</v>
       </c>
-      <c r="CK48" s="43"/>
-      <c r="CL48" s="43"/>
+      <c r="CK48" s="43">
+        <v>135</v>
+      </c>
+      <c r="CL48" s="43">
+        <v>134</v>
+      </c>
       <c r="CM48" s="43"/>
       <c r="CN48" s="43"/>
       <c r="CO48" s="43"/>
@@ -12822,15 +12866,15 @@
       </c>
       <c r="K49" s="29">
         <f t="shared" si="28"/>
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="L49" s="51">
         <f t="shared" si="29"/>
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M49" s="29">
         <f>K49-K51</f>
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="N49" s="29">
         <v>2</v>
@@ -13374,8 +13418,12 @@
       <c r="CJ50" s="43">
         <v>116</v>
       </c>
-      <c r="CK50" s="43"/>
-      <c r="CL50" s="43"/>
+      <c r="CK50" s="43">
+        <v>118</v>
+      </c>
+      <c r="CL50" s="43">
+        <v>123</v>
+      </c>
       <c r="CM50" s="43"/>
       <c r="CN50" s="43"/>
       <c r="CO50" s="43"/>
@@ -13705,7 +13753,7 @@
       </c>
       <c r="M53" s="24">
         <f>K53-K55</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N53" s="24">
         <v>1</v>
@@ -14030,8 +14078,12 @@
       <c r="CJ54" s="43">
         <v>25</v>
       </c>
-      <c r="CK54" s="43"/>
-      <c r="CL54" s="43"/>
+      <c r="CK54" s="43">
+        <v>25</v>
+      </c>
+      <c r="CL54" s="43">
+        <v>24</v>
+      </c>
       <c r="CM54" s="43"/>
       <c r="CN54" s="43"/>
       <c r="CO54" s="43"/>
@@ -14091,15 +14143,15 @@
       </c>
       <c r="K55" s="29">
         <f t="shared" si="35"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L55" s="51">
         <f t="shared" si="36"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M55" s="29">
         <f>K55-K57</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N55" s="29">
         <v>1</v>
@@ -14422,8 +14474,12 @@
       <c r="CJ56" s="43">
         <v>21</v>
       </c>
-      <c r="CK56" s="43"/>
-      <c r="CL56" s="43"/>
+      <c r="CK56" s="43">
+        <v>22</v>
+      </c>
+      <c r="CL56" s="43">
+        <v>23</v>
+      </c>
       <c r="CM56" s="43"/>
       <c r="CN56" s="43"/>
       <c r="CO56" s="43"/>
@@ -15004,8 +15060,12 @@
       <c r="CJ60" s="43">
         <v>8</v>
       </c>
-      <c r="CK60" s="43"/>
-      <c r="CL60" s="43"/>
+      <c r="CK60" s="43">
+        <v>8</v>
+      </c>
+      <c r="CL60" s="43">
+        <v>8</v>
+      </c>
       <c r="CM60" s="43"/>
       <c r="CN60" s="43"/>
       <c r="CO60" s="43"/>
@@ -15374,8 +15434,12 @@
       <c r="CJ62" s="43">
         <v>8</v>
       </c>
-      <c r="CK62" s="43"/>
-      <c r="CL62" s="43"/>
+      <c r="CK62" s="43">
+        <v>8</v>
+      </c>
+      <c r="CL62" s="43">
+        <v>8</v>
+      </c>
       <c r="CM62" s="43"/>
       <c r="CN62" s="43"/>
       <c r="CO62" s="43"/>
@@ -15934,8 +15998,12 @@
       <c r="CJ66" s="43">
         <v>1</v>
       </c>
-      <c r="CK66" s="43"/>
-      <c r="CL66" s="43"/>
+      <c r="CK66" s="43">
+        <v>1</v>
+      </c>
+      <c r="CL66" s="43">
+        <v>1</v>
+      </c>
       <c r="CM66" s="43"/>
       <c r="CN66" s="43"/>
       <c r="CO66" s="43"/>
@@ -16230,8 +16298,12 @@
       <c r="CJ68" s="43">
         <v>1</v>
       </c>
-      <c r="CK68" s="43"/>
-      <c r="CL68" s="43"/>
+      <c r="CK68" s="43">
+        <v>1</v>
+      </c>
+      <c r="CL68" s="43">
+        <v>1</v>
+      </c>
       <c r="CM68" s="43"/>
       <c r="CN68" s="43"/>
       <c r="CO68" s="43"/>
@@ -17128,8 +17200,12 @@
       <c r="CJ72" s="43">
         <v>130</v>
       </c>
-      <c r="CK72" s="43"/>
-      <c r="CL72" s="43"/>
+      <c r="CK72" s="43">
+        <v>130</v>
+      </c>
+      <c r="CL72" s="43">
+        <v>130</v>
+      </c>
       <c r="CM72" s="43"/>
       <c r="CN72" s="43"/>
       <c r="CO72" s="43"/>
@@ -17760,8 +17836,12 @@
       <c r="CJ74" s="43">
         <v>62</v>
       </c>
-      <c r="CK74" s="43"/>
-      <c r="CL74" s="43"/>
+      <c r="CK74" s="43">
+        <v>62</v>
+      </c>
+      <c r="CL74" s="43">
+        <v>62</v>
+      </c>
       <c r="CM74" s="43"/>
       <c r="CN74" s="43"/>
       <c r="CO74" s="43"/>
@@ -18092,7 +18172,7 @@
       </c>
       <c r="M77" s="86">
         <f>K77-K79</f>
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="N77" s="86">
         <v>9</v>
@@ -18715,8 +18795,14 @@
         <f>CJ18+CJ24+CJ30+CJ36+CJ42+CJ48+CJ54+CJ60+CJ66+CJ72</f>
         <v>683</v>
       </c>
-      <c r="CK78" s="43"/>
-      <c r="CL78" s="43"/>
+      <c r="CK78" s="43">
+        <f>CK18+CK24+CK30+CK36+CK42+CK48+CK54+CK60+CK66+CK72</f>
+        <v>682</v>
+      </c>
+      <c r="CL78" s="43">
+        <f>CL18+CL24+CL30+CL36+CL42+CL48+CL54+CL60+CL66+CL72</f>
+        <v>679</v>
+      </c>
       <c r="CM78" s="43"/>
       <c r="CN78" s="43"/>
       <c r="CO78" s="43"/>
@@ -18768,15 +18854,15 @@
       </c>
       <c r="K79" s="90">
         <f>MAX(O80:DP80)</f>
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="L79" s="91">
         <f t="shared" si="50"/>
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="M79" s="90">
         <f>K79-K81</f>
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="N79" s="88">
         <v>9</v>
@@ -19403,8 +19489,14 @@
         <f>CJ20+CJ26+CJ32+CJ38+CJ44+CJ50+CJ56+CJ62+CJ68+CJ74</f>
         <v>561</v>
       </c>
-      <c r="CK80" s="43"/>
-      <c r="CL80" s="43"/>
+      <c r="CK80" s="43">
+        <f>CK20+CK26+CK32+CK38+CK44+CK50+CK56+CK62+CK68+CK74</f>
+        <v>570</v>
+      </c>
+      <c r="CL80" s="43">
+        <f>CL20+CL26+CL32+CL38+CL44+CL50+CL56+CL62+CL68+CL74</f>
+        <v>578</v>
+      </c>
       <c r="CM80" s="43"/>
       <c r="CN80" s="43"/>
       <c r="CO80" s="43"/>

--- a/UPGRADE 3100-5000.xlsx
+++ b/UPGRADE 3100-5000.xlsx
@@ -2738,11 +2738,11 @@
   <dimension ref="A1:DP685"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="I1" workbookViewId="0">
-      <pane xSplit="5745" ySplit="1170" topLeftCell="BS73" activePane="bottomRight"/>
+      <pane xSplit="5745" ySplit="1170" topLeftCell="BS67" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CL63" sqref="CL63"/>
+      <selection pane="bottomRight" activeCell="CP78" sqref="CP78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="11.25"/>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="M17" s="24">
         <f>K17-K19</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N17" s="24">
         <v>1</v>
@@ -5808,8 +5808,12 @@
       <c r="CL18" s="60">
         <v>85</v>
       </c>
-      <c r="CM18" s="60"/>
-      <c r="CN18" s="60"/>
+      <c r="CM18" s="60">
+        <v>86</v>
+      </c>
+      <c r="CN18" s="60">
+        <v>86</v>
+      </c>
       <c r="CO18" s="60"/>
       <c r="CP18" s="60"/>
       <c r="CQ18" s="60"/>
@@ -5873,15 +5877,15 @@
       </c>
       <c r="K19" s="29">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L19" s="51">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M19" s="29">
         <f>K19-K21</f>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N19" s="29">
         <v>1</v>
@@ -6396,8 +6400,12 @@
       <c r="CL20" s="43">
         <v>79</v>
       </c>
-      <c r="CM20" s="43"/>
-      <c r="CN20" s="43"/>
+      <c r="CM20" s="43">
+        <v>80</v>
+      </c>
+      <c r="CN20" s="43">
+        <v>81</v>
+      </c>
       <c r="CO20" s="43"/>
       <c r="CP20" s="43"/>
       <c r="CQ20" s="43"/>
@@ -6727,7 +6735,7 @@
       </c>
       <c r="M23" s="24">
         <f>K23-K25</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N23" s="24">
         <v>1</v>
@@ -7166,8 +7174,12 @@
       <c r="CL24" s="43">
         <v>62</v>
       </c>
-      <c r="CM24" s="43"/>
-      <c r="CN24" s="43"/>
+      <c r="CM24" s="43">
+        <v>62</v>
+      </c>
+      <c r="CN24" s="43">
+        <v>62</v>
+      </c>
       <c r="CO24" s="43"/>
       <c r="CP24" s="43"/>
       <c r="CQ24" s="43"/>
@@ -7227,15 +7239,15 @@
       </c>
       <c r="K25" s="29">
         <f t="shared" si="7"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L25" s="51">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M25" s="29">
         <f>K25-K27</f>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N25" s="29">
         <v>1</v>
@@ -7672,8 +7684,12 @@
       <c r="CL26" s="43">
         <v>58</v>
       </c>
-      <c r="CM26" s="43"/>
-      <c r="CN26" s="43"/>
+      <c r="CM26" s="43">
+        <v>58</v>
+      </c>
+      <c r="CN26" s="43">
+        <v>61</v>
+      </c>
       <c r="CO26" s="43"/>
       <c r="CP26" s="43"/>
       <c r="CQ26" s="43"/>
@@ -8562,8 +8578,12 @@
       <c r="CL30" s="43">
         <v>140</v>
       </c>
-      <c r="CM30" s="43"/>
-      <c r="CN30" s="43"/>
+      <c r="CM30" s="43">
+        <v>140</v>
+      </c>
+      <c r="CN30" s="43">
+        <v>137</v>
+      </c>
       <c r="CO30" s="43"/>
       <c r="CP30" s="43"/>
       <c r="CQ30" s="43"/>
@@ -9188,8 +9208,12 @@
       <c r="CL32" s="43">
         <v>133</v>
       </c>
-      <c r="CM32" s="43"/>
-      <c r="CN32" s="43"/>
+      <c r="CM32" s="43">
+        <v>133</v>
+      </c>
+      <c r="CN32" s="43">
+        <v>132</v>
+      </c>
       <c r="CO32" s="43"/>
       <c r="CP32" s="43"/>
       <c r="CQ32" s="43"/>
@@ -10005,8 +10029,12 @@
       <c r="CL36" s="43">
         <v>45</v>
       </c>
-      <c r="CM36" s="43"/>
-      <c r="CN36" s="43"/>
+      <c r="CM36" s="43">
+        <v>45</v>
+      </c>
+      <c r="CN36" s="43">
+        <v>45</v>
+      </c>
       <c r="CO36" s="43"/>
       <c r="CP36" s="43"/>
       <c r="CQ36" s="43"/>
@@ -10560,8 +10588,12 @@
       <c r="CL38" s="43">
         <v>45</v>
       </c>
-      <c r="CM38" s="43"/>
-      <c r="CN38" s="43"/>
+      <c r="CM38" s="43">
+        <v>45</v>
+      </c>
+      <c r="CN38" s="43">
+        <v>45</v>
+      </c>
       <c r="CO38" s="43"/>
       <c r="CP38" s="43"/>
       <c r="CQ38" s="43"/>
@@ -10889,7 +10921,7 @@
       </c>
       <c r="M41" s="24">
         <f>K41-K43</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N41" s="24">
         <v>1</v>
@@ -11375,8 +11407,12 @@
       <c r="CL42" s="43">
         <v>50</v>
       </c>
-      <c r="CM42" s="43"/>
-      <c r="CN42" s="43"/>
+      <c r="CM42" s="43">
+        <v>51</v>
+      </c>
+      <c r="CN42" s="43">
+        <v>51</v>
+      </c>
       <c r="CO42" s="43"/>
       <c r="CP42" s="43"/>
       <c r="CQ42" s="43"/>
@@ -11434,15 +11470,15 @@
       </c>
       <c r="K43" s="29">
         <f t="shared" si="23"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L43" s="51">
         <f t="shared" si="24"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M43" s="29">
         <f>K43-K45</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N43" s="29">
         <v>1</v>
@@ -11926,8 +11962,12 @@
       <c r="CL44" s="43">
         <v>46</v>
       </c>
-      <c r="CM44" s="43"/>
-      <c r="CN44" s="43"/>
+      <c r="CM44" s="43">
+        <v>48</v>
+      </c>
+      <c r="CN44" s="43">
+        <v>48</v>
+      </c>
       <c r="CO44" s="43"/>
       <c r="CP44" s="43"/>
       <c r="CQ44" s="43"/>
@@ -12255,7 +12295,7 @@
       </c>
       <c r="M47" s="24">
         <f>K47-K49</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N47" s="24">
         <v>2</v>
@@ -12807,8 +12847,12 @@
       <c r="CL48" s="43">
         <v>134</v>
       </c>
-      <c r="CM48" s="43"/>
-      <c r="CN48" s="43"/>
+      <c r="CM48" s="43">
+        <v>135</v>
+      </c>
+      <c r="CN48" s="43">
+        <v>135</v>
+      </c>
       <c r="CO48" s="43"/>
       <c r="CP48" s="43"/>
       <c r="CQ48" s="43"/>
@@ -12866,15 +12910,15 @@
       </c>
       <c r="K49" s="29">
         <f t="shared" si="28"/>
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L49" s="51">
         <f t="shared" si="29"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M49" s="29">
         <f>K49-K51</f>
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N49" s="29">
         <v>2</v>
@@ -13424,8 +13468,12 @@
       <c r="CL50" s="43">
         <v>123</v>
       </c>
-      <c r="CM50" s="43"/>
-      <c r="CN50" s="43"/>
+      <c r="CM50" s="43">
+        <v>125</v>
+      </c>
+      <c r="CN50" s="43">
+        <v>127</v>
+      </c>
       <c r="CO50" s="43"/>
       <c r="CP50" s="43"/>
       <c r="CQ50" s="43"/>
@@ -13753,7 +13801,7 @@
       </c>
       <c r="M53" s="24">
         <f>K53-K55</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N53" s="24">
         <v>1</v>
@@ -14084,8 +14132,12 @@
       <c r="CL54" s="43">
         <v>24</v>
       </c>
-      <c r="CM54" s="43"/>
-      <c r="CN54" s="43"/>
+      <c r="CM54" s="43">
+        <v>24</v>
+      </c>
+      <c r="CN54" s="43">
+        <v>24</v>
+      </c>
       <c r="CO54" s="43"/>
       <c r="CP54" s="43"/>
       <c r="CQ54" s="43"/>
@@ -14143,15 +14195,15 @@
       </c>
       <c r="K55" s="29">
         <f t="shared" si="35"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L55" s="51">
         <f t="shared" si="36"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M55" s="29">
         <f>K55-K57</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N55" s="29">
         <v>1</v>
@@ -14480,8 +14532,12 @@
       <c r="CL56" s="43">
         <v>23</v>
       </c>
-      <c r="CM56" s="43"/>
-      <c r="CN56" s="43"/>
+      <c r="CM56" s="43">
+        <v>23</v>
+      </c>
+      <c r="CN56" s="43">
+        <v>24</v>
+      </c>
       <c r="CO56" s="43"/>
       <c r="CP56" s="43"/>
       <c r="CQ56" s="43"/>
@@ -15066,8 +15122,12 @@
       <c r="CL60" s="43">
         <v>8</v>
       </c>
-      <c r="CM60" s="43"/>
-      <c r="CN60" s="43"/>
+      <c r="CM60" s="43">
+        <v>8</v>
+      </c>
+      <c r="CN60" s="43">
+        <v>8</v>
+      </c>
       <c r="CO60" s="43"/>
       <c r="CP60" s="43"/>
       <c r="CQ60" s="43"/>
@@ -15440,8 +15500,12 @@
       <c r="CL62" s="43">
         <v>8</v>
       </c>
-      <c r="CM62" s="43"/>
-      <c r="CN62" s="43"/>
+      <c r="CM62" s="43">
+        <v>8</v>
+      </c>
+      <c r="CN62" s="43">
+        <v>8</v>
+      </c>
       <c r="CO62" s="43"/>
       <c r="CP62" s="43"/>
       <c r="CQ62" s="43"/>
@@ -16004,8 +16068,12 @@
       <c r="CL66" s="43">
         <v>1</v>
       </c>
-      <c r="CM66" s="43"/>
-      <c r="CN66" s="43"/>
+      <c r="CM66" s="43">
+        <v>1</v>
+      </c>
+      <c r="CN66" s="43">
+        <v>1</v>
+      </c>
       <c r="CO66" s="43"/>
       <c r="CP66" s="43"/>
       <c r="CQ66" s="43"/>
@@ -16304,8 +16372,12 @@
       <c r="CL68" s="43">
         <v>1</v>
       </c>
-      <c r="CM68" s="43"/>
-      <c r="CN68" s="43"/>
+      <c r="CM68" s="43">
+        <v>1</v>
+      </c>
+      <c r="CN68" s="43">
+        <v>1</v>
+      </c>
       <c r="CO68" s="43"/>
       <c r="CP68" s="43"/>
       <c r="CQ68" s="43"/>
@@ -16633,7 +16705,7 @@
       </c>
       <c r="M71" s="24">
         <f>K71-K73</f>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N71" s="24">
         <v>1</v>
@@ -17206,8 +17278,12 @@
       <c r="CL72" s="43">
         <v>130</v>
       </c>
-      <c r="CM72" s="43"/>
-      <c r="CN72" s="43"/>
+      <c r="CM72" s="43">
+        <v>130</v>
+      </c>
+      <c r="CN72" s="43">
+        <v>130</v>
+      </c>
       <c r="CO72" s="43"/>
       <c r="CP72" s="43"/>
       <c r="CQ72" s="43"/>
@@ -17263,15 +17339,15 @@
       </c>
       <c r="K73" s="29">
         <f t="shared" si="43"/>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L73" s="51">
         <f t="shared" si="44"/>
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M73" s="29">
         <f>K73-K75</f>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N73" s="29">
         <v>1</v>
@@ -17842,8 +17918,12 @@
       <c r="CL74" s="43">
         <v>62</v>
       </c>
-      <c r="CM74" s="43"/>
-      <c r="CN74" s="43"/>
+      <c r="CM74" s="43">
+        <v>62</v>
+      </c>
+      <c r="CN74" s="43">
+        <v>65</v>
+      </c>
       <c r="CO74" s="43"/>
       <c r="CP74" s="43"/>
       <c r="CQ74" s="43"/>
@@ -18172,7 +18252,7 @@
       </c>
       <c r="M77" s="86">
         <f>K77-K79</f>
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="N77" s="86">
         <v>9</v>
@@ -18803,8 +18883,14 @@
         <f>CL18+CL24+CL30+CL36+CL42+CL48+CL54+CL60+CL66+CL72</f>
         <v>679</v>
       </c>
-      <c r="CM78" s="43"/>
-      <c r="CN78" s="43"/>
+      <c r="CM78" s="43">
+        <f>CM18+CM24+CM30+CM36+CM42+CM48+CM54+CM60+CM66+CM72</f>
+        <v>682</v>
+      </c>
+      <c r="CN78" s="43">
+        <f>CN18+CN24+CN30+CN36+CN42+CN48+CN54+CN60+CN66+CN72</f>
+        <v>679</v>
+      </c>
       <c r="CO78" s="43"/>
       <c r="CP78" s="43"/>
       <c r="CQ78" s="43"/>
@@ -18854,15 +18940,15 @@
       </c>
       <c r="K79" s="90">
         <f>MAX(O80:DP80)</f>
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="L79" s="91">
         <f t="shared" si="50"/>
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="M79" s="90">
         <f>K79-K81</f>
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="N79" s="88">
         <v>9</v>
@@ -19497,8 +19583,14 @@
         <f>CL20+CL26+CL32+CL38+CL44+CL50+CL56+CL62+CL68+CL74</f>
         <v>578</v>
       </c>
-      <c r="CM80" s="43"/>
-      <c r="CN80" s="43"/>
+      <c r="CM80" s="43">
+        <f>CM20+CM26+CM32+CM38+CM44+CM50+CM56+CM62+CM68+CM74</f>
+        <v>583</v>
+      </c>
+      <c r="CN80" s="43">
+        <f>CN20+CN26+CN32+CN38+CN44+CN50+CN56+CN62+CN68+CN74</f>
+        <v>592</v>
+      </c>
       <c r="CO80" s="43"/>
       <c r="CP80" s="43"/>
       <c r="CQ80" s="43"/>

--- a/UPGRADE 3100-5000.xlsx
+++ b/UPGRADE 3100-5000.xlsx
@@ -1194,9 +1194,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
@@ -1237,17 +1237,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1268,30 +1274,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1305,53 +1288,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1367,7 +1313,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1377,6 +1361,22 @@
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1479,13 +1479,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1503,19 +1515,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1527,7 +1539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1539,55 +1551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1605,13 +1575,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1623,13 +1599,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1642,6 +1630,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1876,8 +1876,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1885,8 +1885,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1902,6 +1902,47 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1929,57 +1970,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1994,128 +1994,128 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2738,11 +2738,11 @@
   <dimension ref="A1:DP685"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="I1" workbookViewId="0">
-      <pane xSplit="5745" ySplit="1170" topLeftCell="BS67" activePane="bottomRight"/>
+      <pane xSplit="5745" ySplit="1170" topLeftCell="BV16" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CP78" sqref="CP78"/>
+      <selection pane="bottomRight" activeCell="CR65" sqref="CR65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="11.25"/>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="M17" s="24">
         <f>K17-K19</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" s="24">
         <v>1</v>
@@ -5814,10 +5814,18 @@
       <c r="CN18" s="60">
         <v>86</v>
       </c>
-      <c r="CO18" s="60"/>
-      <c r="CP18" s="60"/>
-      <c r="CQ18" s="60"/>
-      <c r="CR18" s="60"/>
+      <c r="CO18" s="60">
+        <v>85</v>
+      </c>
+      <c r="CP18" s="60">
+        <v>85</v>
+      </c>
+      <c r="CQ18" s="60">
+        <v>85</v>
+      </c>
+      <c r="CR18" s="60">
+        <v>85</v>
+      </c>
       <c r="CS18" s="60"/>
       <c r="CT18" s="60"/>
       <c r="CU18" s="60"/>
@@ -5877,15 +5885,15 @@
       </c>
       <c r="K19" s="29">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L19" s="51">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M19" s="29">
         <f>K19-K21</f>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N19" s="29">
         <v>1</v>
@@ -6406,10 +6414,18 @@
       <c r="CN20" s="43">
         <v>81</v>
       </c>
-      <c r="CO20" s="43"/>
-      <c r="CP20" s="43"/>
-      <c r="CQ20" s="43"/>
-      <c r="CR20" s="43"/>
+      <c r="CO20" s="43">
+        <v>82</v>
+      </c>
+      <c r="CP20" s="43">
+        <v>83</v>
+      </c>
+      <c r="CQ20" s="43">
+        <v>83</v>
+      </c>
+      <c r="CR20" s="43">
+        <v>83</v>
+      </c>
       <c r="CS20" s="43"/>
       <c r="CT20" s="43"/>
       <c r="CU20" s="43"/>
@@ -7180,10 +7196,18 @@
       <c r="CN24" s="43">
         <v>62</v>
       </c>
-      <c r="CO24" s="43"/>
-      <c r="CP24" s="43"/>
-      <c r="CQ24" s="43"/>
-      <c r="CR24" s="43"/>
+      <c r="CO24" s="43">
+        <v>62</v>
+      </c>
+      <c r="CP24" s="43">
+        <v>63</v>
+      </c>
+      <c r="CQ24" s="43">
+        <v>64</v>
+      </c>
+      <c r="CR24" s="43">
+        <v>64</v>
+      </c>
       <c r="CS24" s="43"/>
       <c r="CT24" s="43"/>
       <c r="CU24" s="43"/>
@@ -7690,10 +7714,18 @@
       <c r="CN26" s="43">
         <v>61</v>
       </c>
-      <c r="CO26" s="43"/>
-      <c r="CP26" s="43"/>
-      <c r="CQ26" s="43"/>
-      <c r="CR26" s="43"/>
+      <c r="CO26" s="43">
+        <v>61</v>
+      </c>
+      <c r="CP26" s="43">
+        <v>61</v>
+      </c>
+      <c r="CQ26" s="43">
+        <v>61</v>
+      </c>
+      <c r="CR26" s="43">
+        <v>61</v>
+      </c>
       <c r="CS26" s="43"/>
       <c r="CT26" s="43"/>
       <c r="CU26" s="43"/>
@@ -8019,7 +8051,7 @@
       </c>
       <c r="M29" s="24">
         <f>K29-K31</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N29" s="24">
         <v>2</v>
@@ -8584,10 +8616,18 @@
       <c r="CN30" s="43">
         <v>137</v>
       </c>
-      <c r="CO30" s="43"/>
-      <c r="CP30" s="43"/>
-      <c r="CQ30" s="43"/>
-      <c r="CR30" s="43"/>
+      <c r="CO30" s="43">
+        <v>138</v>
+      </c>
+      <c r="CP30" s="43">
+        <v>138</v>
+      </c>
+      <c r="CQ30" s="43">
+        <v>138</v>
+      </c>
+      <c r="CR30" s="43">
+        <v>137</v>
+      </c>
       <c r="CS30" s="43"/>
       <c r="CT30" s="43"/>
       <c r="CU30" s="43"/>
@@ -8643,15 +8683,15 @@
       </c>
       <c r="K31" s="29">
         <f t="shared" si="11"/>
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L31" s="51">
         <f t="shared" si="12"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M31" s="29">
         <f>K31-K33</f>
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N31" s="29">
         <v>2</v>
@@ -9214,10 +9254,18 @@
       <c r="CN32" s="43">
         <v>132</v>
       </c>
-      <c r="CO32" s="43"/>
-      <c r="CP32" s="43"/>
-      <c r="CQ32" s="43"/>
-      <c r="CR32" s="43"/>
+      <c r="CO32" s="43">
+        <v>132</v>
+      </c>
+      <c r="CP32" s="43">
+        <v>134</v>
+      </c>
+      <c r="CQ32" s="43">
+        <v>135</v>
+      </c>
+      <c r="CR32" s="43">
+        <v>135</v>
+      </c>
       <c r="CS32" s="43"/>
       <c r="CT32" s="43"/>
       <c r="CU32" s="43"/>
@@ -10035,10 +10083,18 @@
       <c r="CN36" s="43">
         <v>45</v>
       </c>
-      <c r="CO36" s="43"/>
-      <c r="CP36" s="43"/>
-      <c r="CQ36" s="43"/>
-      <c r="CR36" s="43"/>
+      <c r="CO36" s="43">
+        <v>45</v>
+      </c>
+      <c r="CP36" s="43">
+        <v>45</v>
+      </c>
+      <c r="CQ36" s="43">
+        <v>45</v>
+      </c>
+      <c r="CR36" s="43">
+        <v>45</v>
+      </c>
       <c r="CS36" s="43"/>
       <c r="CT36" s="43"/>
       <c r="CU36" s="43"/>
@@ -10594,10 +10650,18 @@
       <c r="CN38" s="43">
         <v>45</v>
       </c>
-      <c r="CO38" s="43"/>
-      <c r="CP38" s="43"/>
-      <c r="CQ38" s="43"/>
-      <c r="CR38" s="43"/>
+      <c r="CO38" s="43">
+        <v>45</v>
+      </c>
+      <c r="CP38" s="43">
+        <v>43</v>
+      </c>
+      <c r="CQ38" s="43">
+        <v>43</v>
+      </c>
+      <c r="CR38" s="43">
+        <v>43</v>
+      </c>
       <c r="CS38" s="43"/>
       <c r="CT38" s="43"/>
       <c r="CU38" s="43"/>
@@ -10921,7 +10985,7 @@
       </c>
       <c r="M41" s="24">
         <f>K41-K43</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N41" s="24">
         <v>1</v>
@@ -11413,10 +11477,18 @@
       <c r="CN42" s="43">
         <v>51</v>
       </c>
-      <c r="CO42" s="43"/>
-      <c r="CP42" s="43"/>
-      <c r="CQ42" s="43"/>
-      <c r="CR42" s="43"/>
+      <c r="CO42" s="43">
+        <v>51</v>
+      </c>
+      <c r="CP42" s="43">
+        <v>51</v>
+      </c>
+      <c r="CQ42" s="43">
+        <v>51</v>
+      </c>
+      <c r="CR42" s="43">
+        <v>51</v>
+      </c>
       <c r="CS42" s="43"/>
       <c r="CT42" s="43"/>
       <c r="CU42" s="43"/>
@@ -11470,15 +11542,15 @@
       </c>
       <c r="K43" s="29">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L43" s="51">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M43" s="29">
         <f>K43-K45</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N43" s="29">
         <v>1</v>
@@ -11968,10 +12040,18 @@
       <c r="CN44" s="43">
         <v>48</v>
       </c>
-      <c r="CO44" s="43"/>
-      <c r="CP44" s="43"/>
-      <c r="CQ44" s="43"/>
-      <c r="CR44" s="43"/>
+      <c r="CO44" s="43">
+        <v>48</v>
+      </c>
+      <c r="CP44" s="43">
+        <v>49</v>
+      </c>
+      <c r="CQ44" s="43">
+        <v>49</v>
+      </c>
+      <c r="CR44" s="43">
+        <v>49</v>
+      </c>
       <c r="CS44" s="43"/>
       <c r="CT44" s="43"/>
       <c r="CU44" s="43"/>
@@ -12287,15 +12367,15 @@
       </c>
       <c r="K47" s="24">
         <f t="shared" ref="K47:K51" si="28">MAX(AH48:DP48)</f>
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L47" s="49">
         <f t="shared" ref="L47:L51" si="29">J47-K47</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M47" s="24">
         <f>K47-K49</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N47" s="24">
         <v>2</v>
@@ -12853,10 +12933,18 @@
       <c r="CN48" s="43">
         <v>135</v>
       </c>
-      <c r="CO48" s="43"/>
-      <c r="CP48" s="43"/>
-      <c r="CQ48" s="43"/>
-      <c r="CR48" s="43"/>
+      <c r="CO48" s="43">
+        <v>137</v>
+      </c>
+      <c r="CP48" s="43">
+        <v>137</v>
+      </c>
+      <c r="CQ48" s="43">
+        <v>137</v>
+      </c>
+      <c r="CR48" s="43">
+        <v>137</v>
+      </c>
       <c r="CS48" s="43"/>
       <c r="CT48" s="43"/>
       <c r="CU48" s="43"/>
@@ -12910,15 +12998,15 @@
       </c>
       <c r="K49" s="29">
         <f t="shared" si="28"/>
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L49" s="51">
         <f t="shared" si="29"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M49" s="29">
         <f>K49-K51</f>
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="N49" s="29">
         <v>2</v>
@@ -13474,10 +13562,18 @@
       <c r="CN50" s="43">
         <v>127</v>
       </c>
-      <c r="CO50" s="43"/>
-      <c r="CP50" s="43"/>
-      <c r="CQ50" s="43"/>
-      <c r="CR50" s="43"/>
+      <c r="CO50" s="43">
+        <v>128</v>
+      </c>
+      <c r="CP50" s="43">
+        <v>129</v>
+      </c>
+      <c r="CQ50" s="43">
+        <v>131</v>
+      </c>
+      <c r="CR50" s="43">
+        <v>131</v>
+      </c>
       <c r="CS50" s="43"/>
       <c r="CT50" s="43"/>
       <c r="CU50" s="43"/>
@@ -14138,10 +14234,18 @@
       <c r="CN54" s="43">
         <v>24</v>
       </c>
-      <c r="CO54" s="43"/>
-      <c r="CP54" s="43"/>
-      <c r="CQ54" s="43"/>
-      <c r="CR54" s="43"/>
+      <c r="CO54" s="43">
+        <v>24</v>
+      </c>
+      <c r="CP54" s="43">
+        <v>24</v>
+      </c>
+      <c r="CQ54" s="43">
+        <v>24</v>
+      </c>
+      <c r="CR54" s="43">
+        <v>24</v>
+      </c>
       <c r="CS54" s="43"/>
       <c r="CT54" s="43"/>
       <c r="CU54" s="43"/>
@@ -14538,10 +14642,18 @@
       <c r="CN56" s="43">
         <v>24</v>
       </c>
-      <c r="CO56" s="43"/>
-      <c r="CP56" s="43"/>
-      <c r="CQ56" s="43"/>
-      <c r="CR56" s="43"/>
+      <c r="CO56" s="43">
+        <v>24</v>
+      </c>
+      <c r="CP56" s="43">
+        <v>24</v>
+      </c>
+      <c r="CQ56" s="43">
+        <v>24</v>
+      </c>
+      <c r="CR56" s="43">
+        <v>24</v>
+      </c>
       <c r="CS56" s="43"/>
       <c r="CT56" s="43"/>
       <c r="CU56" s="43"/>
@@ -15128,10 +15240,18 @@
       <c r="CN60" s="43">
         <v>8</v>
       </c>
-      <c r="CO60" s="43"/>
-      <c r="CP60" s="43"/>
-      <c r="CQ60" s="43"/>
-      <c r="CR60" s="43"/>
+      <c r="CO60" s="43">
+        <v>8</v>
+      </c>
+      <c r="CP60" s="43">
+        <v>8</v>
+      </c>
+      <c r="CQ60" s="43">
+        <v>8</v>
+      </c>
+      <c r="CR60" s="43">
+        <v>8</v>
+      </c>
       <c r="CS60" s="43"/>
       <c r="CT60" s="43"/>
       <c r="CU60" s="43"/>
@@ -15506,10 +15626,18 @@
       <c r="CN62" s="43">
         <v>8</v>
       </c>
-      <c r="CO62" s="43"/>
-      <c r="CP62" s="43"/>
-      <c r="CQ62" s="43"/>
-      <c r="CR62" s="43"/>
+      <c r="CO62" s="43">
+        <v>8</v>
+      </c>
+      <c r="CP62" s="43">
+        <v>8</v>
+      </c>
+      <c r="CQ62" s="43">
+        <v>8</v>
+      </c>
+      <c r="CR62" s="43">
+        <v>8</v>
+      </c>
       <c r="CS62" s="43"/>
       <c r="CT62" s="43"/>
       <c r="CU62" s="43"/>
@@ -16074,10 +16202,18 @@
       <c r="CN66" s="43">
         <v>1</v>
       </c>
-      <c r="CO66" s="43"/>
-      <c r="CP66" s="43"/>
-      <c r="CQ66" s="43"/>
-      <c r="CR66" s="43"/>
+      <c r="CO66" s="43">
+        <v>1</v>
+      </c>
+      <c r="CP66" s="43">
+        <v>1</v>
+      </c>
+      <c r="CQ66" s="43">
+        <v>1</v>
+      </c>
+      <c r="CR66" s="43">
+        <v>1</v>
+      </c>
       <c r="CS66" s="43"/>
       <c r="CT66" s="43"/>
       <c r="CU66" s="43"/>
@@ -16378,10 +16514,18 @@
       <c r="CN68" s="43">
         <v>1</v>
       </c>
-      <c r="CO68" s="43"/>
-      <c r="CP68" s="43"/>
-      <c r="CQ68" s="43"/>
-      <c r="CR68" s="43"/>
+      <c r="CO68" s="43">
+        <v>1</v>
+      </c>
+      <c r="CP68" s="43">
+        <v>1</v>
+      </c>
+      <c r="CQ68" s="43">
+        <v>1</v>
+      </c>
+      <c r="CR68" s="43">
+        <v>1</v>
+      </c>
       <c r="CS68" s="43"/>
       <c r="CT68" s="43"/>
       <c r="CU68" s="43"/>
@@ -16697,15 +16841,15 @@
       </c>
       <c r="K71" s="24">
         <f t="shared" ref="K71:K75" si="43">MAX(AH72:DP72)</f>
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="L71" s="49">
         <f t="shared" ref="L71:L75" si="44">J71-K71</f>
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="M71" s="24">
         <f>K71-K73</f>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="N71" s="24">
         <v>1</v>
@@ -17284,10 +17428,18 @@
       <c r="CN72" s="43">
         <v>130</v>
       </c>
-      <c r="CO72" s="43"/>
-      <c r="CP72" s="43"/>
-      <c r="CQ72" s="43"/>
-      <c r="CR72" s="43"/>
+      <c r="CO72" s="43">
+        <v>130</v>
+      </c>
+      <c r="CP72" s="43">
+        <v>130</v>
+      </c>
+      <c r="CQ72" s="43">
+        <v>130</v>
+      </c>
+      <c r="CR72" s="43">
+        <v>204</v>
+      </c>
       <c r="CS72" s="43"/>
       <c r="CT72" s="43"/>
       <c r="CU72" s="43"/>
@@ -17339,15 +17491,15 @@
       </c>
       <c r="K73" s="29">
         <f t="shared" si="43"/>
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="L73" s="51">
         <f t="shared" si="44"/>
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="M73" s="29">
         <f>K73-K75</f>
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="N73" s="29">
         <v>1</v>
@@ -17924,10 +18076,18 @@
       <c r="CN74" s="43">
         <v>65</v>
       </c>
-      <c r="CO74" s="43"/>
-      <c r="CP74" s="43"/>
-      <c r="CQ74" s="43"/>
-      <c r="CR74" s="43"/>
+      <c r="CO74" s="43">
+        <v>69</v>
+      </c>
+      <c r="CP74" s="43">
+        <v>71</v>
+      </c>
+      <c r="CQ74" s="43">
+        <v>73</v>
+      </c>
+      <c r="CR74" s="43">
+        <v>135</v>
+      </c>
       <c r="CS74" s="43"/>
       <c r="CT74" s="43"/>
       <c r="CU74" s="43"/>
@@ -18244,15 +18404,15 @@
       </c>
       <c r="K77" s="86">
         <f>MAX(O78:DP78)</f>
-        <v>684</v>
+        <v>756</v>
       </c>
       <c r="L77" s="87">
         <f t="shared" ref="L77:L81" si="50">J77-K77</f>
-        <v>224</v>
+        <v>152</v>
       </c>
       <c r="M77" s="86">
         <f>K77-K79</f>
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="N77" s="86">
         <v>9</v>
@@ -18656,7 +18816,7 @@
       <c r="AF78" s="43"/>
       <c r="AG78" s="43"/>
       <c r="AH78" s="43">
-        <f t="shared" ref="AH78:CG78" si="53">AH18+AH24+AH30+AH36+AH42+AH48+AH54+AH60+AH66+AH72</f>
+        <f t="shared" ref="AH78:CQ78" si="53">AH18+AH24+AH30+AH36+AH42+AH48+AH54+AH60+AH66+AH72</f>
         <v>231</v>
       </c>
       <c r="AI78" s="43">
@@ -18864,37 +19024,49 @@
         <v>681</v>
       </c>
       <c r="CH78" s="43">
-        <f>CH18+CH24+CH30+CH36+CH42+CH48+CH54+CH60+CH66+CH72</f>
+        <f t="shared" si="53"/>
         <v>683</v>
       </c>
       <c r="CI78" s="43">
-        <f>CI18+CI24+CI30+CI36+CI42+CI48+CI54+CI60+CI66+CI72</f>
+        <f t="shared" si="53"/>
         <v>684</v>
       </c>
       <c r="CJ78" s="43">
-        <f>CJ18+CJ24+CJ30+CJ36+CJ42+CJ48+CJ54+CJ60+CJ66+CJ72</f>
+        <f t="shared" si="53"/>
         <v>683</v>
       </c>
       <c r="CK78" s="43">
-        <f>CK18+CK24+CK30+CK36+CK42+CK48+CK54+CK60+CK66+CK72</f>
+        <f t="shared" si="53"/>
         <v>682</v>
       </c>
       <c r="CL78" s="43">
-        <f>CL18+CL24+CL30+CL36+CL42+CL48+CL54+CL60+CL66+CL72</f>
+        <f t="shared" si="53"/>
         <v>679</v>
       </c>
       <c r="CM78" s="43">
-        <f>CM18+CM24+CM30+CM36+CM42+CM48+CM54+CM60+CM66+CM72</f>
+        <f t="shared" si="53"/>
         <v>682</v>
       </c>
       <c r="CN78" s="43">
-        <f>CN18+CN24+CN30+CN36+CN42+CN48+CN54+CN60+CN66+CN72</f>
+        <f t="shared" si="53"/>
         <v>679</v>
       </c>
-      <c r="CO78" s="43"/>
-      <c r="CP78" s="43"/>
-      <c r="CQ78" s="43"/>
-      <c r="CR78" s="43"/>
+      <c r="CO78" s="43">
+        <f t="shared" si="53"/>
+        <v>681</v>
+      </c>
+      <c r="CP78" s="43">
+        <f t="shared" si="53"/>
+        <v>682</v>
+      </c>
+      <c r="CQ78" s="43">
+        <f t="shared" si="53"/>
+        <v>683</v>
+      </c>
+      <c r="CR78" s="43">
+        <f>CR18+CR24+CR30+CR36+CR42+CR48+CR54+CR60+CR66+CR72</f>
+        <v>756</v>
+      </c>
       <c r="CS78" s="43"/>
       <c r="CT78" s="43"/>
       <c r="CU78" s="43"/>
@@ -18940,15 +19112,15 @@
       </c>
       <c r="K79" s="90">
         <f>MAX(O80:DP80)</f>
-        <v>592</v>
+        <v>670</v>
       </c>
       <c r="L79" s="91">
         <f t="shared" si="50"/>
-        <v>316</v>
+        <v>238</v>
       </c>
       <c r="M79" s="90">
         <f>K79-K81</f>
-        <v>592</v>
+        <v>670</v>
       </c>
       <c r="N79" s="88">
         <v>9</v>
@@ -19356,7 +19528,7 @@
       <c r="AF80" s="43"/>
       <c r="AG80" s="43"/>
       <c r="AH80" s="43">
-        <f t="shared" ref="AH80:CG80" si="59">AH20+AH26+AH32+AH38+AH44+AH50+AH56+AH62+AH68+AH74</f>
+        <f t="shared" ref="AH80:CQ80" si="59">AH20+AH26+AH32+AH38+AH44+AH50+AH56+AH62+AH68+AH74</f>
         <v>68</v>
       </c>
       <c r="AI80" s="43">
@@ -19564,37 +19736,49 @@
         <v>537</v>
       </c>
       <c r="CH80" s="43">
-        <f>CH20+CH26+CH32+CH38+CH44+CH50+CH56+CH62+CH68+CH74</f>
+        <f t="shared" si="59"/>
         <v>549</v>
       </c>
       <c r="CI80" s="43">
-        <f>CI20+CI26+CI32+CI38+CI44+CI50+CI56+CI62+CI68+CI74</f>
+        <f t="shared" si="59"/>
         <v>553</v>
       </c>
       <c r="CJ80" s="43">
-        <f>CJ20+CJ26+CJ32+CJ38+CJ44+CJ50+CJ56+CJ62+CJ68+CJ74</f>
+        <f t="shared" si="59"/>
         <v>561</v>
       </c>
       <c r="CK80" s="43">
-        <f>CK20+CK26+CK32+CK38+CK44+CK50+CK56+CK62+CK68+CK74</f>
+        <f t="shared" si="59"/>
         <v>570</v>
       </c>
       <c r="CL80" s="43">
-        <f>CL20+CL26+CL32+CL38+CL44+CL50+CL56+CL62+CL68+CL74</f>
+        <f t="shared" si="59"/>
         <v>578</v>
       </c>
       <c r="CM80" s="43">
-        <f>CM20+CM26+CM32+CM38+CM44+CM50+CM56+CM62+CM68+CM74</f>
+        <f t="shared" si="59"/>
         <v>583</v>
       </c>
       <c r="CN80" s="43">
-        <f>CN20+CN26+CN32+CN38+CN44+CN50+CN56+CN62+CN68+CN74</f>
+        <f t="shared" si="59"/>
         <v>592</v>
       </c>
-      <c r="CO80" s="43"/>
-      <c r="CP80" s="43"/>
-      <c r="CQ80" s="43"/>
-      <c r="CR80" s="43"/>
+      <c r="CO80" s="43">
+        <f t="shared" si="59"/>
+        <v>598</v>
+      </c>
+      <c r="CP80" s="43">
+        <f t="shared" si="59"/>
+        <v>603</v>
+      </c>
+      <c r="CQ80" s="43">
+        <f t="shared" si="59"/>
+        <v>608</v>
+      </c>
+      <c r="CR80" s="43">
+        <f>CR20+CR26+CR32+CR38+CR44+CR50+CR56+CR62+CR68+CR74</f>
+        <v>670</v>
+      </c>
       <c r="CS80" s="43"/>
       <c r="CT80" s="43"/>
       <c r="CU80" s="43"/>

--- a/UPGRADE 3100-5000.xlsx
+++ b/UPGRADE 3100-5000.xlsx
@@ -1196,8 +1196,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1236,53 +1236,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1297,46 +1253,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1350,15 +1287,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1373,17 +1334,56 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1479,7 +1479,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1491,19 +1557,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1515,25 +1581,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1545,7 +1611,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1557,91 +1635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1873,11 +1873,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1887,6 +1902,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1917,21 +1956,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1946,40 +1970,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1994,128 +1994,128 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2738,11 +2738,11 @@
   <dimension ref="A1:DP685"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="I1" workbookViewId="0">
-      <pane xSplit="5745" ySplit="1170" topLeftCell="BV16" activePane="bottomRight"/>
+      <pane xSplit="5745" ySplit="1170" topLeftCell="CH70" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CR65" sqref="CR65"/>
+      <selection pane="bottomRight" activeCell="DC80" sqref="DC80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="11.25"/>
@@ -5283,15 +5283,15 @@
       </c>
       <c r="K17" s="24">
         <f t="shared" ref="K17:K21" si="0">MAX(AH18:DP18)</f>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L17" s="49">
         <f t="shared" ref="L17:L21" si="1">J17-K17</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M17" s="24">
         <f>K17-K19</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" s="24">
         <v>1</v>
@@ -5826,16 +5826,36 @@
       <c r="CR18" s="60">
         <v>85</v>
       </c>
-      <c r="CS18" s="60"/>
-      <c r="CT18" s="60"/>
-      <c r="CU18" s="60"/>
-      <c r="CV18" s="60"/>
-      <c r="CW18" s="60"/>
-      <c r="CX18" s="60"/>
-      <c r="CY18" s="60"/>
-      <c r="CZ18" s="60"/>
-      <c r="DA18" s="60"/>
-      <c r="DB18" s="60"/>
+      <c r="CS18" s="60">
+        <v>85</v>
+      </c>
+      <c r="CT18" s="60">
+        <v>85</v>
+      </c>
+      <c r="CU18" s="60">
+        <v>85</v>
+      </c>
+      <c r="CV18" s="60">
+        <v>85</v>
+      </c>
+      <c r="CW18" s="60">
+        <v>85</v>
+      </c>
+      <c r="CX18" s="60">
+        <v>85</v>
+      </c>
+      <c r="CY18" s="60">
+        <v>86</v>
+      </c>
+      <c r="CZ18" s="60">
+        <v>86</v>
+      </c>
+      <c r="DA18" s="60">
+        <v>86</v>
+      </c>
+      <c r="DB18" s="60">
+        <v>88</v>
+      </c>
       <c r="DC18" s="60"/>
       <c r="DD18" s="60"/>
       <c r="DE18" s="60"/>
@@ -5885,15 +5905,15 @@
       </c>
       <c r="K19" s="29">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L19" s="51">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M19" s="29">
         <f>K19-K21</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N19" s="29">
         <v>1</v>
@@ -6426,16 +6446,36 @@
       <c r="CR20" s="43">
         <v>83</v>
       </c>
-      <c r="CS20" s="43"/>
-      <c r="CT20" s="43"/>
-      <c r="CU20" s="43"/>
-      <c r="CV20" s="43"/>
-      <c r="CW20" s="43"/>
-      <c r="CX20" s="43"/>
-      <c r="CY20" s="43"/>
-      <c r="CZ20" s="43"/>
-      <c r="DA20" s="43"/>
-      <c r="DB20" s="43"/>
+      <c r="CS20" s="43">
+        <v>83</v>
+      </c>
+      <c r="CT20" s="43">
+        <v>83</v>
+      </c>
+      <c r="CU20" s="43">
+        <v>83</v>
+      </c>
+      <c r="CV20" s="43">
+        <v>84</v>
+      </c>
+      <c r="CW20" s="43">
+        <v>84</v>
+      </c>
+      <c r="CX20" s="43">
+        <v>84</v>
+      </c>
+      <c r="CY20" s="43">
+        <v>84</v>
+      </c>
+      <c r="CZ20" s="43">
+        <v>84</v>
+      </c>
+      <c r="DA20" s="43">
+        <v>84</v>
+      </c>
+      <c r="DB20" s="43">
+        <v>84</v>
+      </c>
       <c r="DC20" s="43"/>
       <c r="DD20" s="43"/>
       <c r="DE20" s="43"/>
@@ -6743,15 +6783,15 @@
       </c>
       <c r="K23" s="24">
         <f t="shared" ref="K23:K27" si="7">MAX(AH24:DP24)</f>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L23" s="49">
         <f t="shared" ref="L23:L27" si="8">J23-K23</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M23" s="24">
         <f>K23-K25</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N23" s="24">
         <v>1</v>
@@ -7208,16 +7248,36 @@
       <c r="CR24" s="43">
         <v>64</v>
       </c>
-      <c r="CS24" s="43"/>
-      <c r="CT24" s="43"/>
-      <c r="CU24" s="43"/>
-      <c r="CV24" s="43"/>
-      <c r="CW24" s="43"/>
-      <c r="CX24" s="43"/>
-      <c r="CY24" s="43"/>
-      <c r="CZ24" s="43"/>
-      <c r="DA24" s="43"/>
-      <c r="DB24" s="43"/>
+      <c r="CS24" s="43">
+        <v>65</v>
+      </c>
+      <c r="CT24" s="43">
+        <v>65</v>
+      </c>
+      <c r="CU24" s="43">
+        <v>65</v>
+      </c>
+      <c r="CV24" s="43">
+        <v>67</v>
+      </c>
+      <c r="CW24" s="43">
+        <v>67</v>
+      </c>
+      <c r="CX24" s="43">
+        <v>67</v>
+      </c>
+      <c r="CY24" s="43">
+        <v>67</v>
+      </c>
+      <c r="CZ24" s="43">
+        <v>68</v>
+      </c>
+      <c r="DA24" s="43">
+        <v>70</v>
+      </c>
+      <c r="DB24" s="43">
+        <v>68</v>
+      </c>
       <c r="DC24" s="43"/>
       <c r="DD24" s="43"/>
       <c r="DE24" s="43"/>
@@ -7263,15 +7323,15 @@
       </c>
       <c r="K25" s="29">
         <f t="shared" si="7"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L25" s="51">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M25" s="29">
         <f>K25-K27</f>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N25" s="29">
         <v>1</v>
@@ -7726,16 +7786,36 @@
       <c r="CR26" s="43">
         <v>61</v>
       </c>
-      <c r="CS26" s="43"/>
-      <c r="CT26" s="43"/>
-      <c r="CU26" s="43"/>
-      <c r="CV26" s="43"/>
-      <c r="CW26" s="43"/>
-      <c r="CX26" s="43"/>
-      <c r="CY26" s="43"/>
-      <c r="CZ26" s="43"/>
-      <c r="DA26" s="43"/>
-      <c r="DB26" s="43"/>
+      <c r="CS26" s="43">
+        <v>61</v>
+      </c>
+      <c r="CT26" s="43">
+        <v>61</v>
+      </c>
+      <c r="CU26" s="43">
+        <v>61</v>
+      </c>
+      <c r="CV26" s="43">
+        <v>61</v>
+      </c>
+      <c r="CW26" s="43">
+        <v>61</v>
+      </c>
+      <c r="CX26" s="43">
+        <v>61</v>
+      </c>
+      <c r="CY26" s="43">
+        <v>61</v>
+      </c>
+      <c r="CZ26" s="43">
+        <v>62</v>
+      </c>
+      <c r="DA26" s="43">
+        <v>63</v>
+      </c>
+      <c r="DB26" s="43">
+        <v>63</v>
+      </c>
       <c r="DC26" s="43"/>
       <c r="DD26" s="43"/>
       <c r="DE26" s="43"/>
@@ -8051,7 +8131,7 @@
       </c>
       <c r="M29" s="24">
         <f>K29-K31</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" s="24">
         <v>2</v>
@@ -8628,16 +8708,36 @@
       <c r="CR30" s="43">
         <v>137</v>
       </c>
-      <c r="CS30" s="43"/>
-      <c r="CT30" s="43"/>
-      <c r="CU30" s="43"/>
-      <c r="CV30" s="43"/>
-      <c r="CW30" s="43"/>
-      <c r="CX30" s="43"/>
-      <c r="CY30" s="43"/>
-      <c r="CZ30" s="43"/>
-      <c r="DA30" s="43"/>
-      <c r="DB30" s="43"/>
+      <c r="CS30" s="43">
+        <v>138</v>
+      </c>
+      <c r="CT30" s="43">
+        <v>139</v>
+      </c>
+      <c r="CU30" s="43">
+        <v>139</v>
+      </c>
+      <c r="CV30" s="43">
+        <v>139</v>
+      </c>
+      <c r="CW30" s="43">
+        <v>139</v>
+      </c>
+      <c r="CX30" s="43">
+        <v>139</v>
+      </c>
+      <c r="CY30" s="43">
+        <v>140</v>
+      </c>
+      <c r="CZ30" s="43">
+        <v>140</v>
+      </c>
+      <c r="DA30" s="43">
+        <v>140</v>
+      </c>
+      <c r="DB30" s="43">
+        <v>140</v>
+      </c>
       <c r="DC30" s="43"/>
       <c r="DD30" s="43"/>
       <c r="DE30" s="43"/>
@@ -8683,15 +8783,15 @@
       </c>
       <c r="K31" s="29">
         <f t="shared" si="11"/>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L31" s="51">
         <f t="shared" si="12"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M31" s="29">
         <f>K31-K33</f>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N31" s="29">
         <v>2</v>
@@ -9266,16 +9366,36 @@
       <c r="CR32" s="43">
         <v>135</v>
       </c>
-      <c r="CS32" s="43"/>
-      <c r="CT32" s="43"/>
-      <c r="CU32" s="43"/>
-      <c r="CV32" s="43"/>
-      <c r="CW32" s="43"/>
-      <c r="CX32" s="43"/>
-      <c r="CY32" s="43"/>
-      <c r="CZ32" s="43"/>
-      <c r="DA32" s="43"/>
-      <c r="DB32" s="43"/>
+      <c r="CS32" s="43">
+        <v>135</v>
+      </c>
+      <c r="CT32" s="43">
+        <v>136</v>
+      </c>
+      <c r="CU32" s="43">
+        <v>136</v>
+      </c>
+      <c r="CV32" s="43">
+        <v>136</v>
+      </c>
+      <c r="CW32" s="43">
+        <v>136</v>
+      </c>
+      <c r="CX32" s="43">
+        <v>136</v>
+      </c>
+      <c r="CY32" s="43">
+        <v>136</v>
+      </c>
+      <c r="CZ32" s="43">
+        <v>136</v>
+      </c>
+      <c r="DA32" s="43">
+        <v>136</v>
+      </c>
+      <c r="DB32" s="43">
+        <v>136</v>
+      </c>
       <c r="DC32" s="43"/>
       <c r="DD32" s="43"/>
       <c r="DE32" s="43"/>
@@ -9579,15 +9699,15 @@
       </c>
       <c r="K35" s="24">
         <f t="shared" ref="K35:K39" si="18">MAX(AH36:DP36)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L35" s="49">
         <f t="shared" ref="L35:L39" si="19">J35-K35</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M35" s="24">
         <f>K35-K37</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="24">
         <v>1</v>
@@ -10095,16 +10215,36 @@
       <c r="CR36" s="43">
         <v>45</v>
       </c>
-      <c r="CS36" s="43"/>
-      <c r="CT36" s="43"/>
-      <c r="CU36" s="43"/>
-      <c r="CV36" s="43"/>
-      <c r="CW36" s="43"/>
-      <c r="CX36" s="43"/>
-      <c r="CY36" s="43"/>
-      <c r="CZ36" s="43"/>
-      <c r="DA36" s="43"/>
-      <c r="DB36" s="43"/>
+      <c r="CS36" s="43">
+        <v>45</v>
+      </c>
+      <c r="CT36" s="43">
+        <v>45</v>
+      </c>
+      <c r="CU36" s="43">
+        <v>45</v>
+      </c>
+      <c r="CV36" s="43">
+        <v>45</v>
+      </c>
+      <c r="CW36" s="43">
+        <v>45</v>
+      </c>
+      <c r="CX36" s="43">
+        <v>45</v>
+      </c>
+      <c r="CY36" s="43">
+        <v>45</v>
+      </c>
+      <c r="CZ36" s="43">
+        <v>46</v>
+      </c>
+      <c r="DA36" s="43">
+        <v>46</v>
+      </c>
+      <c r="DB36" s="43">
+        <v>46</v>
+      </c>
       <c r="DC36" s="43"/>
       <c r="DD36" s="43"/>
       <c r="DE36" s="43"/>
@@ -10662,16 +10802,36 @@
       <c r="CR38" s="43">
         <v>43</v>
       </c>
-      <c r="CS38" s="43"/>
-      <c r="CT38" s="43"/>
-      <c r="CU38" s="43"/>
-      <c r="CV38" s="43"/>
-      <c r="CW38" s="43"/>
-      <c r="CX38" s="43"/>
-      <c r="CY38" s="43"/>
-      <c r="CZ38" s="43"/>
-      <c r="DA38" s="43"/>
-      <c r="DB38" s="43"/>
+      <c r="CS38" s="43">
+        <v>43</v>
+      </c>
+      <c r="CT38" s="43">
+        <v>43</v>
+      </c>
+      <c r="CU38" s="43">
+        <v>43</v>
+      </c>
+      <c r="CV38" s="43">
+        <v>43</v>
+      </c>
+      <c r="CW38" s="43">
+        <v>43</v>
+      </c>
+      <c r="CX38" s="43">
+        <v>43</v>
+      </c>
+      <c r="CY38" s="43">
+        <v>43</v>
+      </c>
+      <c r="CZ38" s="43">
+        <v>44</v>
+      </c>
+      <c r="DA38" s="43">
+        <v>44</v>
+      </c>
+      <c r="DB38" s="43">
+        <v>44</v>
+      </c>
       <c r="DC38" s="43"/>
       <c r="DD38" s="43"/>
       <c r="DE38" s="43"/>
@@ -10977,15 +11137,15 @@
       </c>
       <c r="K41" s="24">
         <f t="shared" ref="K41:K45" si="23">MAX(AH42:DP42)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L41" s="49">
         <f t="shared" ref="L41:L45" si="24">J41-K41</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M41" s="24">
         <f>K41-K43</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N41" s="24">
         <v>1</v>
@@ -11489,16 +11649,36 @@
       <c r="CR42" s="43">
         <v>51</v>
       </c>
-      <c r="CS42" s="43"/>
-      <c r="CT42" s="43"/>
-      <c r="CU42" s="43"/>
-      <c r="CV42" s="43"/>
-      <c r="CW42" s="43"/>
-      <c r="CX42" s="43"/>
-      <c r="CY42" s="43"/>
-      <c r="CZ42" s="43"/>
-      <c r="DA42" s="43"/>
-      <c r="DB42" s="43"/>
+      <c r="CS42" s="43">
+        <v>51</v>
+      </c>
+      <c r="CT42" s="43">
+        <v>51</v>
+      </c>
+      <c r="CU42" s="43">
+        <v>51</v>
+      </c>
+      <c r="CV42" s="43">
+        <v>51</v>
+      </c>
+      <c r="CW42" s="43">
+        <v>51</v>
+      </c>
+      <c r="CX42" s="43">
+        <v>51</v>
+      </c>
+      <c r="CY42" s="43">
+        <v>51</v>
+      </c>
+      <c r="CZ42" s="43">
+        <v>52</v>
+      </c>
+      <c r="DA42" s="43">
+        <v>52</v>
+      </c>
+      <c r="DB42" s="43">
+        <v>52</v>
+      </c>
       <c r="DC42" s="43"/>
       <c r="DD42" s="43"/>
       <c r="DE42" s="43"/>
@@ -12052,16 +12232,36 @@
       <c r="CR44" s="43">
         <v>49</v>
       </c>
-      <c r="CS44" s="43"/>
-      <c r="CT44" s="43"/>
-      <c r="CU44" s="43"/>
-      <c r="CV44" s="43"/>
-      <c r="CW44" s="43"/>
-      <c r="CX44" s="43"/>
-      <c r="CY44" s="43"/>
-      <c r="CZ44" s="43"/>
-      <c r="DA44" s="43"/>
-      <c r="DB44" s="43"/>
+      <c r="CS44" s="43">
+        <v>49</v>
+      </c>
+      <c r="CT44" s="43">
+        <v>49</v>
+      </c>
+      <c r="CU44" s="43">
+        <v>49</v>
+      </c>
+      <c r="CV44" s="43">
+        <v>49</v>
+      </c>
+      <c r="CW44" s="43">
+        <v>49</v>
+      </c>
+      <c r="CX44" s="43">
+        <v>49</v>
+      </c>
+      <c r="CY44" s="43">
+        <v>49</v>
+      </c>
+      <c r="CZ44" s="43">
+        <v>49</v>
+      </c>
+      <c r="DA44" s="43">
+        <v>49</v>
+      </c>
+      <c r="DB44" s="43">
+        <v>49</v>
+      </c>
       <c r="DC44" s="43"/>
       <c r="DD44" s="43"/>
       <c r="DE44" s="43"/>
@@ -12367,15 +12567,15 @@
       </c>
       <c r="K47" s="24">
         <f t="shared" ref="K47:K51" si="28">MAX(AH48:DP48)</f>
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="L47" s="49">
         <f t="shared" ref="L47:L51" si="29">J47-K47</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M47" s="24">
         <f>K47-K49</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N47" s="24">
         <v>2</v>
@@ -12945,16 +13145,36 @@
       <c r="CR48" s="43">
         <v>137</v>
       </c>
-      <c r="CS48" s="43"/>
-      <c r="CT48" s="43"/>
-      <c r="CU48" s="43"/>
-      <c r="CV48" s="43"/>
-      <c r="CW48" s="43"/>
-      <c r="CX48" s="43"/>
-      <c r="CY48" s="43"/>
-      <c r="CZ48" s="43"/>
-      <c r="DA48" s="43"/>
-      <c r="DB48" s="43"/>
+      <c r="CS48" s="43">
+        <v>137</v>
+      </c>
+      <c r="CT48" s="43">
+        <v>138</v>
+      </c>
+      <c r="CU48" s="43">
+        <v>139</v>
+      </c>
+      <c r="CV48" s="43">
+        <v>139</v>
+      </c>
+      <c r="CW48" s="43">
+        <v>139</v>
+      </c>
+      <c r="CX48" s="43">
+        <v>139</v>
+      </c>
+      <c r="CY48" s="43">
+        <v>139</v>
+      </c>
+      <c r="CZ48" s="43">
+        <v>143</v>
+      </c>
+      <c r="DA48" s="43">
+        <v>145</v>
+      </c>
+      <c r="DB48" s="43">
+        <v>143</v>
+      </c>
       <c r="DC48" s="43"/>
       <c r="DD48" s="43"/>
       <c r="DE48" s="43"/>
@@ -12998,15 +13218,15 @@
       </c>
       <c r="K49" s="29">
         <f t="shared" si="28"/>
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L49" s="51">
         <f t="shared" si="29"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M49" s="29">
         <f>K49-K51</f>
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="N49" s="29">
         <v>2</v>
@@ -13574,16 +13794,36 @@
       <c r="CR50" s="43">
         <v>131</v>
       </c>
-      <c r="CS50" s="43"/>
-      <c r="CT50" s="43"/>
-      <c r="CU50" s="43"/>
-      <c r="CV50" s="43"/>
-      <c r="CW50" s="43"/>
-      <c r="CX50" s="43"/>
-      <c r="CY50" s="43"/>
-      <c r="CZ50" s="43"/>
-      <c r="DA50" s="43"/>
-      <c r="DB50" s="43"/>
+      <c r="CS50" s="43">
+        <v>131</v>
+      </c>
+      <c r="CT50" s="43">
+        <v>131</v>
+      </c>
+      <c r="CU50" s="43">
+        <v>131</v>
+      </c>
+      <c r="CV50" s="43">
+        <v>131</v>
+      </c>
+      <c r="CW50" s="43">
+        <v>131</v>
+      </c>
+      <c r="CX50" s="43">
+        <v>131</v>
+      </c>
+      <c r="CY50" s="43">
+        <v>131</v>
+      </c>
+      <c r="CZ50" s="43">
+        <v>133</v>
+      </c>
+      <c r="DA50" s="43">
+        <v>133</v>
+      </c>
+      <c r="DB50" s="43">
+        <v>135</v>
+      </c>
       <c r="DC50" s="43"/>
       <c r="DD50" s="43"/>
       <c r="DE50" s="43"/>
@@ -14246,16 +14486,36 @@
       <c r="CR54" s="43">
         <v>24</v>
       </c>
-      <c r="CS54" s="43"/>
-      <c r="CT54" s="43"/>
-      <c r="CU54" s="43"/>
-      <c r="CV54" s="43"/>
-      <c r="CW54" s="43"/>
-      <c r="CX54" s="43"/>
-      <c r="CY54" s="43"/>
-      <c r="CZ54" s="43"/>
-      <c r="DA54" s="43"/>
-      <c r="DB54" s="43"/>
+      <c r="CS54" s="43">
+        <v>24</v>
+      </c>
+      <c r="CT54" s="43">
+        <v>24</v>
+      </c>
+      <c r="CU54" s="43">
+        <v>24</v>
+      </c>
+      <c r="CV54" s="43">
+        <v>24</v>
+      </c>
+      <c r="CW54" s="43">
+        <v>24</v>
+      </c>
+      <c r="CX54" s="43">
+        <v>24</v>
+      </c>
+      <c r="CY54" s="43">
+        <v>24</v>
+      </c>
+      <c r="CZ54" s="43">
+        <v>24</v>
+      </c>
+      <c r="DA54" s="43">
+        <v>24</v>
+      </c>
+      <c r="DB54" s="43">
+        <v>24</v>
+      </c>
       <c r="DC54" s="43"/>
       <c r="DD54" s="43"/>
       <c r="DE54" s="43"/>
@@ -14654,16 +14914,36 @@
       <c r="CR56" s="43">
         <v>24</v>
       </c>
-      <c r="CS56" s="43"/>
-      <c r="CT56" s="43"/>
-      <c r="CU56" s="43"/>
-      <c r="CV56" s="43"/>
-      <c r="CW56" s="43"/>
-      <c r="CX56" s="43"/>
-      <c r="CY56" s="43"/>
-      <c r="CZ56" s="43"/>
-      <c r="DA56" s="43"/>
-      <c r="DB56" s="43"/>
+      <c r="CS56" s="43">
+        <v>24</v>
+      </c>
+      <c r="CT56" s="43">
+        <v>24</v>
+      </c>
+      <c r="CU56" s="43">
+        <v>24</v>
+      </c>
+      <c r="CV56" s="43">
+        <v>24</v>
+      </c>
+      <c r="CW56" s="43">
+        <v>24</v>
+      </c>
+      <c r="CX56" s="43">
+        <v>24</v>
+      </c>
+      <c r="CY56" s="43">
+        <v>24</v>
+      </c>
+      <c r="CZ56" s="43">
+        <v>24</v>
+      </c>
+      <c r="DA56" s="43">
+        <v>24</v>
+      </c>
+      <c r="DB56" s="43">
+        <v>24</v>
+      </c>
       <c r="DC56" s="43"/>
       <c r="DD56" s="43"/>
       <c r="DE56" s="43"/>
@@ -15252,16 +15532,36 @@
       <c r="CR60" s="43">
         <v>8</v>
       </c>
-      <c r="CS60" s="43"/>
-      <c r="CT60" s="43"/>
-      <c r="CU60" s="43"/>
-      <c r="CV60" s="43"/>
-      <c r="CW60" s="43"/>
-      <c r="CX60" s="43"/>
-      <c r="CY60" s="43"/>
-      <c r="CZ60" s="43"/>
-      <c r="DA60" s="43"/>
-      <c r="DB60" s="43"/>
+      <c r="CS60" s="43">
+        <v>8</v>
+      </c>
+      <c r="CT60" s="43">
+        <v>8</v>
+      </c>
+      <c r="CU60" s="43">
+        <v>8</v>
+      </c>
+      <c r="CV60" s="43">
+        <v>8</v>
+      </c>
+      <c r="CW60" s="43">
+        <v>8</v>
+      </c>
+      <c r="CX60" s="43">
+        <v>8</v>
+      </c>
+      <c r="CY60" s="43">
+        <v>8</v>
+      </c>
+      <c r="CZ60" s="43">
+        <v>8</v>
+      </c>
+      <c r="DA60" s="43">
+        <v>8</v>
+      </c>
+      <c r="DB60" s="43">
+        <v>8</v>
+      </c>
       <c r="DC60" s="43"/>
       <c r="DD60" s="43"/>
       <c r="DE60" s="43"/>
@@ -15638,16 +15938,36 @@
       <c r="CR62" s="43">
         <v>8</v>
       </c>
-      <c r="CS62" s="43"/>
-      <c r="CT62" s="43"/>
-      <c r="CU62" s="43"/>
-      <c r="CV62" s="43"/>
-      <c r="CW62" s="43"/>
-      <c r="CX62" s="43"/>
-      <c r="CY62" s="43"/>
-      <c r="CZ62" s="43"/>
-      <c r="DA62" s="43"/>
-      <c r="DB62" s="43"/>
+      <c r="CS62" s="43">
+        <v>8</v>
+      </c>
+      <c r="CT62" s="43">
+        <v>8</v>
+      </c>
+      <c r="CU62" s="43">
+        <v>8</v>
+      </c>
+      <c r="CV62" s="43">
+        <v>8</v>
+      </c>
+      <c r="CW62" s="43">
+        <v>8</v>
+      </c>
+      <c r="CX62" s="43">
+        <v>8</v>
+      </c>
+      <c r="CY62" s="43">
+        <v>8</v>
+      </c>
+      <c r="CZ62" s="43">
+        <v>8</v>
+      </c>
+      <c r="DA62" s="43">
+        <v>8</v>
+      </c>
+      <c r="DB62" s="43">
+        <v>8</v>
+      </c>
       <c r="DC62" s="43"/>
       <c r="DD62" s="43"/>
       <c r="DE62" s="43"/>
@@ -15961,7 +16281,7 @@
       </c>
       <c r="M65" s="24">
         <f>K65-K67</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" s="24">
         <v>0</v>
@@ -16214,16 +16534,36 @@
       <c r="CR66" s="43">
         <v>1</v>
       </c>
-      <c r="CS66" s="43"/>
-      <c r="CT66" s="43"/>
-      <c r="CU66" s="43"/>
-      <c r="CV66" s="43"/>
-      <c r="CW66" s="43"/>
-      <c r="CX66" s="43"/>
-      <c r="CY66" s="43"/>
-      <c r="CZ66" s="43"/>
-      <c r="DA66" s="43"/>
-      <c r="DB66" s="43"/>
+      <c r="CS66" s="43">
+        <v>1</v>
+      </c>
+      <c r="CT66" s="43">
+        <v>1</v>
+      </c>
+      <c r="CU66" s="43">
+        <v>1</v>
+      </c>
+      <c r="CV66" s="43">
+        <v>1</v>
+      </c>
+      <c r="CW66" s="43">
+        <v>1</v>
+      </c>
+      <c r="CX66" s="43">
+        <v>1</v>
+      </c>
+      <c r="CY66" s="43">
+        <v>1</v>
+      </c>
+      <c r="CZ66" s="43">
+        <v>1</v>
+      </c>
+      <c r="DA66" s="43">
+        <v>2</v>
+      </c>
+      <c r="DB66" s="43">
+        <v>2</v>
+      </c>
       <c r="DC66" s="43"/>
       <c r="DD66" s="43"/>
       <c r="DE66" s="43"/>
@@ -16267,15 +16607,15 @@
       </c>
       <c r="K67" s="29">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L67" s="51">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67" s="29">
         <f>K67-K69</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N67" s="29">
         <v>0</v>
@@ -16526,16 +16866,36 @@
       <c r="CR68" s="43">
         <v>1</v>
       </c>
-      <c r="CS68" s="43"/>
-      <c r="CT68" s="43"/>
-      <c r="CU68" s="43"/>
-      <c r="CV68" s="43"/>
-      <c r="CW68" s="43"/>
-      <c r="CX68" s="43"/>
-      <c r="CY68" s="43"/>
-      <c r="CZ68" s="43"/>
-      <c r="DA68" s="43"/>
-      <c r="DB68" s="43"/>
+      <c r="CS68" s="43">
+        <v>1</v>
+      </c>
+      <c r="CT68" s="43">
+        <v>1</v>
+      </c>
+      <c r="CU68" s="43">
+        <v>1</v>
+      </c>
+      <c r="CV68" s="43">
+        <v>1</v>
+      </c>
+      <c r="CW68" s="43">
+        <v>1</v>
+      </c>
+      <c r="CX68" s="43">
+        <v>1</v>
+      </c>
+      <c r="CY68" s="43">
+        <v>1</v>
+      </c>
+      <c r="CZ68" s="43">
+        <v>1</v>
+      </c>
+      <c r="DA68" s="43">
+        <v>2</v>
+      </c>
+      <c r="DB68" s="43">
+        <v>2</v>
+      </c>
       <c r="DC68" s="43"/>
       <c r="DD68" s="43"/>
       <c r="DE68" s="43"/>
@@ -16841,15 +17201,15 @@
       </c>
       <c r="K71" s="24">
         <f t="shared" ref="K71:K75" si="43">MAX(AH72:DP72)</f>
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L71" s="49">
         <f t="shared" ref="L71:L75" si="44">J71-K71</f>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M71" s="24">
         <f>K71-K73</f>
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="N71" s="24">
         <v>1</v>
@@ -17440,16 +17800,36 @@
       <c r="CR72" s="43">
         <v>204</v>
       </c>
-      <c r="CS72" s="43"/>
-      <c r="CT72" s="43"/>
-      <c r="CU72" s="43"/>
-      <c r="CV72" s="43"/>
-      <c r="CW72" s="43"/>
-      <c r="CX72" s="43"/>
-      <c r="CY72" s="43"/>
-      <c r="CZ72" s="43"/>
-      <c r="DA72" s="43"/>
-      <c r="DB72" s="43"/>
+      <c r="CS72" s="43">
+        <v>204</v>
+      </c>
+      <c r="CT72" s="43">
+        <v>204</v>
+      </c>
+      <c r="CU72" s="43">
+        <v>204</v>
+      </c>
+      <c r="CV72" s="43">
+        <v>202</v>
+      </c>
+      <c r="CW72" s="43">
+        <v>202</v>
+      </c>
+      <c r="CX72" s="43">
+        <v>202</v>
+      </c>
+      <c r="CY72" s="43">
+        <v>202</v>
+      </c>
+      <c r="CZ72" s="43">
+        <v>202</v>
+      </c>
+      <c r="DA72" s="43">
+        <v>205</v>
+      </c>
+      <c r="DB72" s="43">
+        <v>200</v>
+      </c>
       <c r="DC72" s="43"/>
       <c r="DD72" s="43"/>
       <c r="DE72" s="43"/>
@@ -17491,15 +17871,15 @@
       </c>
       <c r="K73" s="29">
         <f t="shared" si="43"/>
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="L73" s="51">
         <f t="shared" si="44"/>
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="M73" s="29">
         <f>K73-K75</f>
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="N73" s="29">
         <v>1</v>
@@ -18088,16 +18468,36 @@
       <c r="CR74" s="43">
         <v>135</v>
       </c>
-      <c r="CS74" s="43"/>
-      <c r="CT74" s="43"/>
-      <c r="CU74" s="43"/>
-      <c r="CV74" s="43"/>
-      <c r="CW74" s="43"/>
-      <c r="CX74" s="43"/>
-      <c r="CY74" s="43"/>
-      <c r="CZ74" s="43"/>
-      <c r="DA74" s="43"/>
-      <c r="DB74" s="43"/>
+      <c r="CS74" s="43">
+        <v>141</v>
+      </c>
+      <c r="CT74" s="43">
+        <v>147</v>
+      </c>
+      <c r="CU74" s="43">
+        <v>147</v>
+      </c>
+      <c r="CV74" s="43">
+        <v>151</v>
+      </c>
+      <c r="CW74" s="43">
+        <v>155</v>
+      </c>
+      <c r="CX74" s="43">
+        <v>157</v>
+      </c>
+      <c r="CY74" s="43">
+        <v>159</v>
+      </c>
+      <c r="CZ74" s="43">
+        <v>161</v>
+      </c>
+      <c r="DA74" s="43">
+        <v>166</v>
+      </c>
+      <c r="DB74" s="43">
+        <v>170</v>
+      </c>
       <c r="DC74" s="43"/>
       <c r="DD74" s="43"/>
       <c r="DE74" s="43"/>
@@ -18404,15 +18804,15 @@
       </c>
       <c r="K77" s="86">
         <f>MAX(O78:DP78)</f>
-        <v>756</v>
+        <v>778</v>
       </c>
       <c r="L77" s="87">
         <f t="shared" ref="L77:L81" si="50">J77-K77</f>
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="M77" s="86">
         <f>K77-K79</f>
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="N77" s="86">
         <v>9</v>
@@ -18816,7 +19216,7 @@
       <c r="AF78" s="43"/>
       <c r="AG78" s="43"/>
       <c r="AH78" s="43">
-        <f t="shared" ref="AH78:CQ78" si="53">AH18+AH24+AH30+AH36+AH42+AH48+AH54+AH60+AH66+AH72</f>
+        <f t="shared" ref="AH78:CS78" si="53">AH18+AH24+AH30+AH36+AH42+AH48+AH54+AH60+AH66+AH72</f>
         <v>231</v>
       </c>
       <c r="AI78" s="43">
@@ -19064,19 +19464,49 @@
         <v>683</v>
       </c>
       <c r="CR78" s="43">
-        <f>CR18+CR24+CR30+CR36+CR42+CR48+CR54+CR60+CR66+CR72</f>
+        <f t="shared" si="53"/>
         <v>756</v>
       </c>
-      <c r="CS78" s="43"/>
-      <c r="CT78" s="43"/>
-      <c r="CU78" s="43"/>
-      <c r="CV78" s="43"/>
-      <c r="CW78" s="43"/>
-      <c r="CX78" s="43"/>
-      <c r="CY78" s="43"/>
-      <c r="CZ78" s="43"/>
-      <c r="DA78" s="43"/>
-      <c r="DB78" s="43"/>
+      <c r="CS78" s="43">
+        <f t="shared" si="53"/>
+        <v>758</v>
+      </c>
+      <c r="CT78" s="43">
+        <f t="shared" ref="CT78:CZ78" si="54">CT18+CT24+CT30+CT36+CT42+CT48+CT54+CT60+CT66+CT72</f>
+        <v>760</v>
+      </c>
+      <c r="CU78" s="43">
+        <f t="shared" si="54"/>
+        <v>761</v>
+      </c>
+      <c r="CV78" s="43">
+        <f t="shared" si="54"/>
+        <v>761</v>
+      </c>
+      <c r="CW78" s="43">
+        <f t="shared" si="54"/>
+        <v>761</v>
+      </c>
+      <c r="CX78" s="43">
+        <f t="shared" si="54"/>
+        <v>761</v>
+      </c>
+      <c r="CY78" s="43">
+        <f t="shared" si="54"/>
+        <v>763</v>
+      </c>
+      <c r="CZ78" s="43">
+        <f t="shared" si="54"/>
+        <v>770</v>
+      </c>
+      <c r="DA78" s="43">
+        <f>DA18+DA24+DA30+DA36+DA42+DA48+DA54+DA60+DA66+DA72</f>
+        <v>778</v>
+      </c>
+      <c r="DB78" s="43">
+        <f>DB18+DB24+DB30+DB36+DB42+DB48+DB54+DB60+DB66+DB72</f>
+        <v>771</v>
+      </c>
       <c r="DC78" s="43"/>
       <c r="DD78" s="43"/>
       <c r="DE78" s="43"/>
@@ -19112,15 +19542,15 @@
       </c>
       <c r="K79" s="90">
         <f>MAX(O80:DP80)</f>
-        <v>670</v>
+        <v>715</v>
       </c>
       <c r="L79" s="91">
         <f t="shared" si="50"/>
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="M79" s="90">
         <f>K79-K81</f>
-        <v>670</v>
+        <v>715</v>
       </c>
       <c r="N79" s="88">
         <v>9</v>
@@ -19149,347 +19579,347 @@
         <v>68</v>
       </c>
       <c r="AI79" s="43">
-        <f t="shared" ref="AI79:AN79" si="54">AH79+$N$79</f>
+        <f t="shared" ref="AI79:AN79" si="55">AH79+$N$79</f>
         <v>77</v>
       </c>
       <c r="AJ79" s="43">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>86</v>
       </c>
       <c r="AK79" s="43">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>95</v>
       </c>
       <c r="AL79" s="43">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>104</v>
       </c>
       <c r="AM79" s="43">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>113</v>
       </c>
       <c r="AN79" s="43">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>122</v>
       </c>
       <c r="AO79" s="43">
-        <f t="shared" ref="AO79:BT79" si="55">AN79+$N$79</f>
+        <f t="shared" ref="AO79:BT79" si="56">AN79+$N$79</f>
         <v>131</v>
       </c>
       <c r="AP79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>140</v>
       </c>
       <c r="AQ79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>149</v>
       </c>
       <c r="AR79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>158</v>
       </c>
       <c r="AS79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>167</v>
       </c>
       <c r="AT79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>176</v>
       </c>
       <c r="AU79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>185</v>
       </c>
       <c r="AV79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>194</v>
       </c>
       <c r="AW79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>203</v>
       </c>
       <c r="AX79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>212</v>
       </c>
       <c r="AY79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>221</v>
       </c>
       <c r="AZ79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>230</v>
       </c>
       <c r="BA79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>239</v>
       </c>
       <c r="BB79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>248</v>
       </c>
       <c r="BC79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>257</v>
       </c>
       <c r="BD79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>266</v>
       </c>
       <c r="BE79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>275</v>
       </c>
       <c r="BF79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>284</v>
       </c>
       <c r="BG79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>293</v>
       </c>
       <c r="BH79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>302</v>
       </c>
       <c r="BI79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>311</v>
       </c>
       <c r="BJ79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>320</v>
       </c>
       <c r="BK79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>329</v>
       </c>
       <c r="BL79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>338</v>
       </c>
       <c r="BM79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>347</v>
       </c>
       <c r="BN79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>356</v>
       </c>
       <c r="BO79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>365</v>
       </c>
       <c r="BP79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>374</v>
       </c>
       <c r="BQ79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>383</v>
       </c>
       <c r="BR79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>392</v>
       </c>
       <c r="BS79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>401</v>
       </c>
       <c r="BT79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>410</v>
       </c>
       <c r="BU79" s="43">
-        <f t="shared" ref="BU79:CZ79" si="56">BT79+$N$79</f>
+        <f t="shared" ref="BU79:CZ79" si="57">BT79+$N$79</f>
         <v>419</v>
       </c>
       <c r="BV79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>428</v>
       </c>
       <c r="BW79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>437</v>
       </c>
       <c r="BX79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>446</v>
       </c>
       <c r="BY79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>455</v>
       </c>
       <c r="BZ79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>464</v>
       </c>
       <c r="CA79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>473</v>
       </c>
       <c r="CB79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>482</v>
       </c>
       <c r="CC79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>491</v>
       </c>
       <c r="CD79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>500</v>
       </c>
       <c r="CE79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>509</v>
       </c>
       <c r="CF79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>518</v>
       </c>
       <c r="CG79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>527</v>
       </c>
       <c r="CH79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>536</v>
       </c>
       <c r="CI79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>545</v>
       </c>
       <c r="CJ79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>554</v>
       </c>
       <c r="CK79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>563</v>
       </c>
       <c r="CL79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>572</v>
       </c>
       <c r="CM79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>581</v>
       </c>
       <c r="CN79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>590</v>
       </c>
       <c r="CO79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>599</v>
       </c>
       <c r="CP79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>608</v>
       </c>
       <c r="CQ79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>617</v>
       </c>
       <c r="CR79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>626</v>
       </c>
       <c r="CS79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>635</v>
       </c>
       <c r="CT79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>644</v>
       </c>
       <c r="CU79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>653</v>
       </c>
       <c r="CV79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>662</v>
       </c>
       <c r="CW79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>671</v>
       </c>
       <c r="CX79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>680</v>
       </c>
       <c r="CY79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>689</v>
       </c>
       <c r="CZ79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>698</v>
       </c>
       <c r="DA79" s="43">
-        <f t="shared" ref="DA79:DH79" si="57">CZ79+$N$79</f>
+        <f t="shared" ref="DA79:DH79" si="58">CZ79+$N$79</f>
         <v>707</v>
       </c>
       <c r="DB79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>716</v>
       </c>
       <c r="DC79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>725</v>
       </c>
       <c r="DD79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>734</v>
       </c>
       <c r="DE79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>743</v>
       </c>
       <c r="DF79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>752</v>
       </c>
       <c r="DG79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>761</v>
       </c>
       <c r="DH79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>770</v>
       </c>
       <c r="DI79" s="43">
-        <f t="shared" ref="DI79:DP79" si="58">DH79+$N$79</f>
+        <f t="shared" ref="DI79:DP79" si="59">DH79+$N$79</f>
         <v>779</v>
       </c>
       <c r="DJ79" s="43">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>788</v>
       </c>
       <c r="DK79" s="43">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>797</v>
       </c>
       <c r="DL79" s="43">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>806</v>
       </c>
       <c r="DM79" s="43">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>815</v>
       </c>
       <c r="DN79" s="43">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>824</v>
       </c>
       <c r="DO79" s="43">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>833</v>
       </c>
       <c r="DP79" s="70">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>842</v>
       </c>
     </row>
@@ -19528,267 +19958,297 @@
       <c r="AF80" s="43"/>
       <c r="AG80" s="43"/>
       <c r="AH80" s="43">
-        <f t="shared" ref="AH80:CQ80" si="59">AH20+AH26+AH32+AH38+AH44+AH50+AH56+AH62+AH68+AH74</f>
+        <f t="shared" ref="AH80:CS80" si="60">AH20+AH26+AH32+AH38+AH44+AH50+AH56+AH62+AH68+AH74</f>
         <v>68</v>
       </c>
       <c r="AI80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>70</v>
       </c>
       <c r="AJ80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>71</v>
       </c>
       <c r="AK80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>71</v>
       </c>
       <c r="AL80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>71</v>
       </c>
       <c r="AM80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>71</v>
       </c>
       <c r="AN80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>71</v>
       </c>
       <c r="AO80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>71</v>
       </c>
       <c r="AP80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>71</v>
       </c>
       <c r="AQ80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>72</v>
       </c>
       <c r="AR80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>73</v>
       </c>
       <c r="AS80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>75</v>
       </c>
       <c r="AT80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>75</v>
       </c>
       <c r="AU80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>75</v>
       </c>
       <c r="AV80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>75</v>
       </c>
       <c r="AW80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>76</v>
       </c>
       <c r="AX80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>82</v>
       </c>
       <c r="AY80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>100</v>
       </c>
       <c r="AZ80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>104</v>
       </c>
       <c r="BA80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>106</v>
       </c>
       <c r="BB80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>119</v>
       </c>
       <c r="BC80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>125</v>
       </c>
       <c r="BD80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>160</v>
       </c>
       <c r="BE80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>184</v>
       </c>
       <c r="BF80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>200</v>
       </c>
       <c r="BG80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>226</v>
       </c>
       <c r="BH80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>246</v>
       </c>
       <c r="BI80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>269</v>
       </c>
       <c r="BJ80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>289</v>
       </c>
       <c r="BK80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>313</v>
       </c>
       <c r="BL80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>337</v>
       </c>
       <c r="BM80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>337</v>
       </c>
       <c r="BN80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>337</v>
       </c>
       <c r="BO80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>337</v>
       </c>
       <c r="BP80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>350</v>
       </c>
       <c r="BQ80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>372</v>
       </c>
       <c r="BR80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>393</v>
       </c>
       <c r="BS80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>403</v>
       </c>
       <c r="BT80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>410</v>
       </c>
       <c r="BU80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>420</v>
       </c>
       <c r="BV80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>425</v>
       </c>
       <c r="BW80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>433</v>
       </c>
       <c r="BX80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>448</v>
       </c>
       <c r="BY80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>463</v>
       </c>
       <c r="BZ80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>475</v>
       </c>
       <c r="CA80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>481</v>
       </c>
       <c r="CB80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>493</v>
       </c>
       <c r="CC80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>500</v>
       </c>
       <c r="CD80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>512</v>
       </c>
       <c r="CE80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>519</v>
       </c>
       <c r="CF80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>529</v>
       </c>
       <c r="CG80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>537</v>
       </c>
       <c r="CH80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>549</v>
       </c>
       <c r="CI80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>553</v>
       </c>
       <c r="CJ80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>561</v>
       </c>
       <c r="CK80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>570</v>
       </c>
       <c r="CL80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>578</v>
       </c>
       <c r="CM80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>583</v>
       </c>
       <c r="CN80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>592</v>
       </c>
       <c r="CO80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>598</v>
       </c>
       <c r="CP80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>603</v>
       </c>
       <c r="CQ80" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>608</v>
       </c>
       <c r="CR80" s="43">
-        <f>CR20+CR26+CR32+CR38+CR44+CR50+CR56+CR62+CR68+CR74</f>
+        <f t="shared" si="60"/>
         <v>670</v>
       </c>
-      <c r="CS80" s="43"/>
-      <c r="CT80" s="43"/>
-      <c r="CU80" s="43"/>
-      <c r="CV80" s="43"/>
-      <c r="CW80" s="43"/>
-      <c r="CX80" s="43"/>
-      <c r="CY80" s="43"/>
-      <c r="CZ80" s="43"/>
-      <c r="DA80" s="43"/>
-      <c r="DB80" s="43"/>
+      <c r="CS80" s="43">
+        <f t="shared" si="60"/>
+        <v>676</v>
+      </c>
+      <c r="CT80" s="43">
+        <f t="shared" ref="CT80:CZ80" si="61">CT20+CT26+CT32+CT38+CT44+CT50+CT56+CT62+CT68+CT74</f>
+        <v>683</v>
+      </c>
+      <c r="CU80" s="43">
+        <f t="shared" si="61"/>
+        <v>683</v>
+      </c>
+      <c r="CV80" s="43">
+        <f t="shared" si="61"/>
+        <v>688</v>
+      </c>
+      <c r="CW80" s="43">
+        <f t="shared" si="61"/>
+        <v>692</v>
+      </c>
+      <c r="CX80" s="43">
+        <f t="shared" si="61"/>
+        <v>694</v>
+      </c>
+      <c r="CY80" s="43">
+        <f t="shared" si="61"/>
+        <v>696</v>
+      </c>
+      <c r="CZ80" s="43">
+        <f t="shared" si="61"/>
+        <v>702</v>
+      </c>
+      <c r="DA80" s="43">
+        <f>DA20+DA26+DA32+DA38+DA44+DA50+DA56+DA62+DA68+DA74</f>
+        <v>709</v>
+      </c>
+      <c r="DB80" s="43">
+        <f>DB20+DB26+DB32+DB38+DB44+DB50+DB56+DB62+DB68+DB74</f>
+        <v>715</v>
+      </c>
       <c r="DC80" s="43"/>
       <c r="DD80" s="43"/>
       <c r="DE80" s="43"/>

--- a/UPGRADE 3100-5000.xlsx
+++ b/UPGRADE 3100-5000.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8355"/>
+    <workbookView windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="ACTIVIDADES" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="131">
   <si>
     <t>MIGRACIÓN INTELISIS VERSIÓN 5000 INTELISSITMP</t>
   </si>
@@ -1194,10 +1194,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1236,35 +1236,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1274,6 +1245,44 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1295,6 +1304,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1303,8 +1335,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1319,37 +1365,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1360,27 +1381,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1485,19 +1485,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1509,55 +1503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1569,31 +1521,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1611,7 +1551,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1623,25 +1611,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1873,17 +1873,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1921,37 +1932,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1973,13 +1973,13 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1994,128 +1994,128 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2738,11 +2738,11 @@
   <dimension ref="A1:DP685"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="I1" workbookViewId="0">
-      <pane xSplit="5745" ySplit="1170" topLeftCell="CH70" activePane="bottomRight"/>
+      <pane xSplit="5745" ySplit="1170" topLeftCell="CL76" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="DC80" sqref="DC80"/>
+      <selection pane="bottomRight" activeCell="DG81" sqref="DG81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="11.25"/>
@@ -5283,11 +5283,11 @@
       </c>
       <c r="K17" s="24">
         <f t="shared" ref="K17:K21" si="0">MAX(AH18:DP18)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L17" s="49">
         <f t="shared" ref="L17:L21" si="1">J17-K17</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17" s="24">
         <f>K17-K19</f>
@@ -5861,7 +5861,9 @@
       <c r="DE18" s="60"/>
       <c r="DF18" s="60"/>
       <c r="DG18" s="60"/>
-      <c r="DH18" s="60"/>
+      <c r="DH18" s="60">
+        <v>89</v>
+      </c>
       <c r="DI18" s="60"/>
       <c r="DJ18" s="60"/>
       <c r="DK18" s="60"/>
@@ -5905,15 +5907,15 @@
       </c>
       <c r="K19" s="29">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L19" s="51">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M19" s="29">
         <f>K19-K21</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N19" s="29">
         <v>1</v>
@@ -6481,7 +6483,9 @@
       <c r="DE20" s="43"/>
       <c r="DF20" s="43"/>
       <c r="DG20" s="43"/>
-      <c r="DH20" s="43"/>
+      <c r="DH20" s="43">
+        <v>85</v>
+      </c>
       <c r="DI20" s="43"/>
       <c r="DJ20" s="43"/>
       <c r="DK20" s="43"/>
@@ -6791,7 +6795,7 @@
       </c>
       <c r="M23" s="24">
         <f>K23-K25</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N23" s="24">
         <v>1</v>
@@ -7283,7 +7287,9 @@
       <c r="DE24" s="43"/>
       <c r="DF24" s="43"/>
       <c r="DG24" s="43"/>
-      <c r="DH24" s="43"/>
+      <c r="DH24" s="43">
+        <v>69</v>
+      </c>
       <c r="DI24" s="43"/>
       <c r="DJ24" s="43"/>
       <c r="DK24" s="43"/>
@@ -7323,15 +7329,15 @@
       </c>
       <c r="K25" s="29">
         <f t="shared" si="7"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L25" s="51">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M25" s="29">
         <f>K25-K27</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N25" s="29">
         <v>1</v>
@@ -7821,7 +7827,9 @@
       <c r="DE26" s="43"/>
       <c r="DF26" s="43"/>
       <c r="DG26" s="43"/>
-      <c r="DH26" s="43"/>
+      <c r="DH26" s="43">
+        <v>64</v>
+      </c>
       <c r="DI26" s="43"/>
       <c r="DJ26" s="43"/>
       <c r="DK26" s="43"/>
@@ -8123,11 +8131,11 @@
       </c>
       <c r="K29" s="24">
         <f t="shared" ref="K29:K33" si="11">MAX(AH30:DP30)</f>
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L29" s="49">
         <f t="shared" ref="L29:L33" si="12">J29-K29</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M29" s="24">
         <f>K29-K31</f>
@@ -8743,7 +8751,9 @@
       <c r="DE30" s="43"/>
       <c r="DF30" s="43"/>
       <c r="DG30" s="43"/>
-      <c r="DH30" s="43"/>
+      <c r="DH30" s="43">
+        <v>141</v>
+      </c>
       <c r="DI30" s="43"/>
       <c r="DJ30" s="43"/>
       <c r="DK30" s="43"/>
@@ -8783,15 +8793,15 @@
       </c>
       <c r="K31" s="29">
         <f t="shared" si="11"/>
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L31" s="51">
         <f t="shared" si="12"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M31" s="29">
         <f>K31-K33</f>
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N31" s="29">
         <v>2</v>
@@ -9401,7 +9411,9 @@
       <c r="DE32" s="43"/>
       <c r="DF32" s="43"/>
       <c r="DG32" s="43"/>
-      <c r="DH32" s="43"/>
+      <c r="DH32" s="43">
+        <v>137</v>
+      </c>
       <c r="DI32" s="43"/>
       <c r="DJ32" s="43"/>
       <c r="DK32" s="43"/>
@@ -10250,7 +10262,9 @@
       <c r="DE36" s="43"/>
       <c r="DF36" s="43"/>
       <c r="DG36" s="43"/>
-      <c r="DH36" s="43"/>
+      <c r="DH36" s="43">
+        <v>46</v>
+      </c>
       <c r="DI36" s="43"/>
       <c r="DJ36" s="43"/>
       <c r="DK36" s="43"/>
@@ -10837,7 +10851,9 @@
       <c r="DE38" s="43"/>
       <c r="DF38" s="43"/>
       <c r="DG38" s="43"/>
-      <c r="DH38" s="43"/>
+      <c r="DH38" s="43">
+        <v>44</v>
+      </c>
       <c r="DI38" s="43"/>
       <c r="DJ38" s="43"/>
       <c r="DK38" s="43"/>
@@ -11684,7 +11700,9 @@
       <c r="DE42" s="43"/>
       <c r="DF42" s="43"/>
       <c r="DG42" s="43"/>
-      <c r="DH42" s="43"/>
+      <c r="DH42" s="43">
+        <v>52</v>
+      </c>
       <c r="DI42" s="43"/>
       <c r="DJ42" s="43"/>
       <c r="DK42" s="43"/>
@@ -12267,7 +12285,9 @@
       <c r="DE44" s="43"/>
       <c r="DF44" s="43"/>
       <c r="DG44" s="43"/>
-      <c r="DH44" s="43"/>
+      <c r="DH44" s="43">
+        <v>49</v>
+      </c>
       <c r="DI44" s="43"/>
       <c r="DJ44" s="43"/>
       <c r="DK44" s="43"/>
@@ -13180,7 +13200,9 @@
       <c r="DE48" s="43"/>
       <c r="DF48" s="43"/>
       <c r="DG48" s="43"/>
-      <c r="DH48" s="43"/>
+      <c r="DH48" s="43">
+        <v>142</v>
+      </c>
       <c r="DI48" s="43"/>
       <c r="DJ48" s="43"/>
       <c r="DK48" s="43"/>
@@ -13829,7 +13851,9 @@
       <c r="DE50" s="43"/>
       <c r="DF50" s="43"/>
       <c r="DG50" s="43"/>
-      <c r="DH50" s="43"/>
+      <c r="DH50" s="43">
+        <v>134</v>
+      </c>
       <c r="DI50" s="43"/>
       <c r="DJ50" s="43"/>
       <c r="DK50" s="43"/>
@@ -14521,7 +14545,9 @@
       <c r="DE54" s="43"/>
       <c r="DF54" s="43"/>
       <c r="DG54" s="43"/>
-      <c r="DH54" s="43"/>
+      <c r="DH54" s="43">
+        <v>24</v>
+      </c>
       <c r="DI54" s="43"/>
       <c r="DJ54" s="43"/>
       <c r="DK54" s="43"/>
@@ -14949,7 +14975,9 @@
       <c r="DE56" s="43"/>
       <c r="DF56" s="43"/>
       <c r="DG56" s="43"/>
-      <c r="DH56" s="43"/>
+      <c r="DH56" s="43">
+        <v>24</v>
+      </c>
       <c r="DI56" s="43"/>
       <c r="DJ56" s="43"/>
       <c r="DK56" s="43"/>
@@ -15567,7 +15595,9 @@
       <c r="DE60" s="43"/>
       <c r="DF60" s="43"/>
       <c r="DG60" s="43"/>
-      <c r="DH60" s="43"/>
+      <c r="DH60" s="43">
+        <v>8</v>
+      </c>
       <c r="DI60" s="43"/>
       <c r="DJ60" s="43"/>
       <c r="DK60" s="43"/>
@@ -15973,7 +16003,9 @@
       <c r="DE62" s="43"/>
       <c r="DF62" s="43"/>
       <c r="DG62" s="43"/>
-      <c r="DH62" s="43"/>
+      <c r="DH62" s="43">
+        <v>8</v>
+      </c>
       <c r="DI62" s="43"/>
       <c r="DJ62" s="43"/>
       <c r="DK62" s="43"/>
@@ -16569,7 +16601,9 @@
       <c r="DE66" s="43"/>
       <c r="DF66" s="43"/>
       <c r="DG66" s="43"/>
-      <c r="DH66" s="43"/>
+      <c r="DH66" s="43">
+        <v>2</v>
+      </c>
       <c r="DI66" s="43"/>
       <c r="DJ66" s="43"/>
       <c r="DK66" s="43"/>
@@ -16901,7 +16935,9 @@
       <c r="DE68" s="43"/>
       <c r="DF68" s="43"/>
       <c r="DG68" s="43"/>
-      <c r="DH68" s="43"/>
+      <c r="DH68" s="43">
+        <v>2</v>
+      </c>
       <c r="DI68" s="43"/>
       <c r="DJ68" s="43"/>
       <c r="DK68" s="43"/>
@@ -17209,7 +17245,7 @@
       </c>
       <c r="M71" s="24">
         <f>K71-K73</f>
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="N71" s="24">
         <v>1</v>
@@ -17835,7 +17871,9 @@
       <c r="DE72" s="43"/>
       <c r="DF72" s="43"/>
       <c r="DG72" s="43"/>
-      <c r="DH72" s="43"/>
+      <c r="DH72" s="43">
+        <v>205</v>
+      </c>
       <c r="DI72" s="43"/>
       <c r="DJ72" s="43"/>
       <c r="DK72" s="43"/>
@@ -17871,15 +17909,15 @@
       </c>
       <c r="K73" s="29">
         <f t="shared" si="43"/>
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="L73" s="51">
         <f t="shared" si="44"/>
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="M73" s="29">
         <f>K73-K75</f>
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N73" s="29">
         <v>1</v>
@@ -18503,7 +18541,9 @@
       <c r="DE74" s="43"/>
       <c r="DF74" s="43"/>
       <c r="DG74" s="43"/>
-      <c r="DH74" s="43"/>
+      <c r="DH74" s="43">
+        <v>194</v>
+      </c>
       <c r="DI74" s="43"/>
       <c r="DJ74" s="43"/>
       <c r="DK74" s="43"/>
@@ -18812,7 +18852,7 @@
       </c>
       <c r="M77" s="86">
         <f>K77-K79</f>
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="N77" s="86">
         <v>9</v>
@@ -19472,7 +19512,7 @@
         <v>758</v>
       </c>
       <c r="CT78" s="43">
-        <f t="shared" ref="CT78:CZ78" si="54">CT18+CT24+CT30+CT36+CT42+CT48+CT54+CT60+CT66+CT72</f>
+        <f t="shared" ref="CT78:DB78" si="54">CT18+CT24+CT30+CT36+CT42+CT48+CT54+CT60+CT66+CT72</f>
         <v>760</v>
       </c>
       <c r="CU78" s="43">
@@ -19500,19 +19540,37 @@
         <v>770</v>
       </c>
       <c r="DA78" s="43">
-        <f>DA18+DA24+DA30+DA36+DA42+DA48+DA54+DA60+DA66+DA72</f>
+        <f t="shared" si="54"/>
         <v>778</v>
       </c>
       <c r="DB78" s="43">
-        <f>DB18+DB24+DB30+DB36+DB42+DB48+DB54+DB60+DB66+DB72</f>
+        <f t="shared" si="54"/>
         <v>771</v>
       </c>
-      <c r="DC78" s="43"/>
-      <c r="DD78" s="43"/>
-      <c r="DE78" s="43"/>
-      <c r="DF78" s="43"/>
-      <c r="DG78" s="43"/>
-      <c r="DH78" s="43"/>
+      <c r="DC78" s="43">
+        <f t="shared" ref="DC78:DH78" si="55">DC18+DC24+DC30+DC36+DC42+DC48+DC54+DC60+DC66+DC72</f>
+        <v>0</v>
+      </c>
+      <c r="DD78" s="43">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="DE78" s="43">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="DF78" s="43">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="DG78" s="43">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="DH78" s="43">
+        <f t="shared" si="55"/>
+        <v>778</v>
+      </c>
       <c r="DI78" s="43"/>
       <c r="DJ78" s="43"/>
       <c r="DK78" s="43"/>
@@ -19542,15 +19600,15 @@
       </c>
       <c r="K79" s="90">
         <f>MAX(O80:DP80)</f>
-        <v>715</v>
+        <v>741</v>
       </c>
       <c r="L79" s="91">
         <f t="shared" si="50"/>
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="M79" s="90">
         <f>K79-K81</f>
-        <v>715</v>
+        <v>741</v>
       </c>
       <c r="N79" s="88">
         <v>9</v>
@@ -19579,347 +19637,347 @@
         <v>68</v>
       </c>
       <c r="AI79" s="43">
-        <f t="shared" ref="AI79:AN79" si="55">AH79+$N$79</f>
+        <f t="shared" ref="AI79:AN79" si="56">AH79+$N$79</f>
         <v>77</v>
       </c>
       <c r="AJ79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>86</v>
       </c>
       <c r="AK79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>95</v>
       </c>
       <c r="AL79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>104</v>
       </c>
       <c r="AM79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>113</v>
       </c>
       <c r="AN79" s="43">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>122</v>
       </c>
       <c r="AO79" s="43">
-        <f t="shared" ref="AO79:BT79" si="56">AN79+$N$79</f>
+        <f t="shared" ref="AO79:BT79" si="57">AN79+$N$79</f>
         <v>131</v>
       </c>
       <c r="AP79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>140</v>
       </c>
       <c r="AQ79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>149</v>
       </c>
       <c r="AR79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>158</v>
       </c>
       <c r="AS79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>167</v>
       </c>
       <c r="AT79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>176</v>
       </c>
       <c r="AU79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>185</v>
       </c>
       <c r="AV79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>194</v>
       </c>
       <c r="AW79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>203</v>
       </c>
       <c r="AX79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>212</v>
       </c>
       <c r="AY79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>221</v>
       </c>
       <c r="AZ79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>230</v>
       </c>
       <c r="BA79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>239</v>
       </c>
       <c r="BB79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>248</v>
       </c>
       <c r="BC79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>257</v>
       </c>
       <c r="BD79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>266</v>
       </c>
       <c r="BE79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>275</v>
       </c>
       <c r="BF79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>284</v>
       </c>
       <c r="BG79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>293</v>
       </c>
       <c r="BH79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>302</v>
       </c>
       <c r="BI79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>311</v>
       </c>
       <c r="BJ79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>320</v>
       </c>
       <c r="BK79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>329</v>
       </c>
       <c r="BL79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>338</v>
       </c>
       <c r="BM79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>347</v>
       </c>
       <c r="BN79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>356</v>
       </c>
       <c r="BO79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>365</v>
       </c>
       <c r="BP79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>374</v>
       </c>
       <c r="BQ79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>383</v>
       </c>
       <c r="BR79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>392</v>
       </c>
       <c r="BS79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>401</v>
       </c>
       <c r="BT79" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>410</v>
       </c>
       <c r="BU79" s="43">
-        <f t="shared" ref="BU79:CZ79" si="57">BT79+$N$79</f>
+        <f t="shared" ref="BU79:CZ79" si="58">BT79+$N$79</f>
         <v>419</v>
       </c>
       <c r="BV79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>428</v>
       </c>
       <c r="BW79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>437</v>
       </c>
       <c r="BX79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>446</v>
       </c>
       <c r="BY79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>455</v>
       </c>
       <c r="BZ79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>464</v>
       </c>
       <c r="CA79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>473</v>
       </c>
       <c r="CB79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>482</v>
       </c>
       <c r="CC79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>491</v>
       </c>
       <c r="CD79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>500</v>
       </c>
       <c r="CE79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>509</v>
       </c>
       <c r="CF79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>518</v>
       </c>
       <c r="CG79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>527</v>
       </c>
       <c r="CH79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>536</v>
       </c>
       <c r="CI79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>545</v>
       </c>
       <c r="CJ79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>554</v>
       </c>
       <c r="CK79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>563</v>
       </c>
       <c r="CL79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>572</v>
       </c>
       <c r="CM79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>581</v>
       </c>
       <c r="CN79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>590</v>
       </c>
       <c r="CO79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>599</v>
       </c>
       <c r="CP79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>608</v>
       </c>
       <c r="CQ79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>617</v>
       </c>
       <c r="CR79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>626</v>
       </c>
       <c r="CS79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>635</v>
       </c>
       <c r="CT79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>644</v>
       </c>
       <c r="CU79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>653</v>
       </c>
       <c r="CV79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>662</v>
       </c>
       <c r="CW79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>671</v>
       </c>
       <c r="CX79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>680</v>
       </c>
       <c r="CY79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>689</v>
       </c>
       <c r="CZ79" s="43">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>698</v>
       </c>
       <c r="DA79" s="43">
-        <f t="shared" ref="DA79:DH79" si="58">CZ79+$N$79</f>
+        <f t="shared" ref="DA79:DH79" si="59">CZ79+$N$79</f>
         <v>707</v>
       </c>
       <c r="DB79" s="43">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>716</v>
       </c>
       <c r="DC79" s="43">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>725</v>
       </c>
       <c r="DD79" s="43">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>734</v>
       </c>
       <c r="DE79" s="43">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>743</v>
       </c>
       <c r="DF79" s="43">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>752</v>
       </c>
       <c r="DG79" s="43">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>761</v>
       </c>
       <c r="DH79" s="43">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>770</v>
       </c>
       <c r="DI79" s="43">
-        <f t="shared" ref="DI79:DP79" si="59">DH79+$N$79</f>
+        <f t="shared" ref="DI79:DP79" si="60">DH79+$N$79</f>
         <v>779</v>
       </c>
       <c r="DJ79" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>788</v>
       </c>
       <c r="DK79" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>797</v>
       </c>
       <c r="DL79" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>806</v>
       </c>
       <c r="DM79" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>815</v>
       </c>
       <c r="DN79" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>824</v>
       </c>
       <c r="DO79" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>833</v>
       </c>
       <c r="DP79" s="70">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>842</v>
       </c>
     </row>
@@ -19958,303 +20016,321 @@
       <c r="AF80" s="43"/>
       <c r="AG80" s="43"/>
       <c r="AH80" s="43">
-        <f t="shared" ref="AH80:CS80" si="60">AH20+AH26+AH32+AH38+AH44+AH50+AH56+AH62+AH68+AH74</f>
+        <f t="shared" ref="AH80:CS80" si="61">AH20+AH26+AH32+AH38+AH44+AH50+AH56+AH62+AH68+AH74</f>
         <v>68</v>
       </c>
       <c r="AI80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>70</v>
       </c>
       <c r="AJ80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>71</v>
       </c>
       <c r="AK80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>71</v>
       </c>
       <c r="AL80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>71</v>
       </c>
       <c r="AM80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>71</v>
       </c>
       <c r="AN80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>71</v>
       </c>
       <c r="AO80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>71</v>
       </c>
       <c r="AP80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>71</v>
       </c>
       <c r="AQ80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>72</v>
       </c>
       <c r="AR80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>73</v>
       </c>
       <c r="AS80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>75</v>
       </c>
       <c r="AT80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>75</v>
       </c>
       <c r="AU80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>75</v>
       </c>
       <c r="AV80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>75</v>
       </c>
       <c r="AW80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>76</v>
       </c>
       <c r="AX80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>82</v>
       </c>
       <c r="AY80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>100</v>
       </c>
       <c r="AZ80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>104</v>
       </c>
       <c r="BA80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>106</v>
       </c>
       <c r="BB80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>119</v>
       </c>
       <c r="BC80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>125</v>
       </c>
       <c r="BD80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>160</v>
       </c>
       <c r="BE80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>184</v>
       </c>
       <c r="BF80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>200</v>
       </c>
       <c r="BG80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>226</v>
       </c>
       <c r="BH80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>246</v>
       </c>
       <c r="BI80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>269</v>
       </c>
       <c r="BJ80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>289</v>
       </c>
       <c r="BK80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>313</v>
       </c>
       <c r="BL80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>337</v>
       </c>
       <c r="BM80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>337</v>
       </c>
       <c r="BN80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>337</v>
       </c>
       <c r="BO80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>337</v>
       </c>
       <c r="BP80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>350</v>
       </c>
       <c r="BQ80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>372</v>
       </c>
       <c r="BR80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>393</v>
       </c>
       <c r="BS80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>403</v>
       </c>
       <c r="BT80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>410</v>
       </c>
       <c r="BU80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>420</v>
       </c>
       <c r="BV80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>425</v>
       </c>
       <c r="BW80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>433</v>
       </c>
       <c r="BX80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>448</v>
       </c>
       <c r="BY80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>463</v>
       </c>
       <c r="BZ80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>475</v>
       </c>
       <c r="CA80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>481</v>
       </c>
       <c r="CB80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>493</v>
       </c>
       <c r="CC80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>500</v>
       </c>
       <c r="CD80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>512</v>
       </c>
       <c r="CE80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>519</v>
       </c>
       <c r="CF80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>529</v>
       </c>
       <c r="CG80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>537</v>
       </c>
       <c r="CH80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>549</v>
       </c>
       <c r="CI80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>553</v>
       </c>
       <c r="CJ80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>561</v>
       </c>
       <c r="CK80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>570</v>
       </c>
       <c r="CL80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>578</v>
       </c>
       <c r="CM80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>583</v>
       </c>
       <c r="CN80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>592</v>
       </c>
       <c r="CO80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>598</v>
       </c>
       <c r="CP80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>603</v>
       </c>
       <c r="CQ80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>608</v>
       </c>
       <c r="CR80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>670</v>
       </c>
       <c r="CS80" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>676</v>
       </c>
       <c r="CT80" s="43">
-        <f t="shared" ref="CT80:CZ80" si="61">CT20+CT26+CT32+CT38+CT44+CT50+CT56+CT62+CT68+CT74</f>
+        <f t="shared" ref="CT80:DB80" si="62">CT20+CT26+CT32+CT38+CT44+CT50+CT56+CT62+CT68+CT74</f>
         <v>683</v>
       </c>
       <c r="CU80" s="43">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>683</v>
       </c>
       <c r="CV80" s="43">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>688</v>
       </c>
       <c r="CW80" s="43">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>692</v>
       </c>
       <c r="CX80" s="43">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>694</v>
       </c>
       <c r="CY80" s="43">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>696</v>
       </c>
       <c r="CZ80" s="43">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>702</v>
       </c>
       <c r="DA80" s="43">
-        <f>DA20+DA26+DA32+DA38+DA44+DA50+DA56+DA62+DA68+DA74</f>
+        <f t="shared" si="62"/>
         <v>709</v>
       </c>
       <c r="DB80" s="43">
-        <f>DB20+DB26+DB32+DB38+DB44+DB50+DB56+DB62+DB68+DB74</f>
+        <f t="shared" si="62"/>
         <v>715</v>
       </c>
-      <c r="DC80" s="43"/>
-      <c r="DD80" s="43"/>
-      <c r="DE80" s="43"/>
-      <c r="DF80" s="43"/>
-      <c r="DG80" s="43"/>
-      <c r="DH80" s="43"/>
+      <c r="DC80" s="43">
+        <f t="shared" ref="DC80:DH80" si="63">DC20+DC26+DC32+DC38+DC44+DC50+DC56+DC62+DC68+DC74</f>
+        <v>0</v>
+      </c>
+      <c r="DD80" s="43">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="DE80" s="43">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="DF80" s="43">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="DG80" s="43">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="DH80" s="43">
+        <f t="shared" si="63"/>
+        <v>741</v>
+      </c>
       <c r="DI80" s="43"/>
       <c r="DJ80" s="43"/>
       <c r="DK80" s="43"/>

--- a/UPGRADE 3100-5000.xlsx
+++ b/UPGRADE 3100-5000.xlsx
@@ -1195,8 +1195,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
@@ -1237,28 +1237,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1274,8 +1252,69 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1289,31 +1328,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1329,43 +1345,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1378,12 +1380,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1479,31 +1479,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1515,43 +1533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1563,67 +1545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1641,7 +1569,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1873,13 +1873,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1903,7 +1922,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1912,7 +1931,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1932,17 +1951,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1955,31 +1970,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1994,128 +1994,128 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2738,11 +2738,11 @@
   <dimension ref="A1:DP685"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="I1" workbookViewId="0">
-      <pane xSplit="5745" ySplit="1170" topLeftCell="CL76" activePane="bottomRight"/>
+      <pane xSplit="5745" ySplit="1170" topLeftCell="CS70" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="DG81" sqref="DG81"/>
+      <selection pane="bottomRight" activeCell="CX75" sqref="CX75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="11.25"/>
@@ -5283,15 +5283,15 @@
       </c>
       <c r="K17" s="24">
         <f t="shared" ref="K17:K21" si="0">MAX(AH18:DP18)</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L17" s="49">
         <f t="shared" ref="L17:L21" si="1">J17-K17</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M17" s="24">
         <f>K17-K19</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" s="24">
         <v>1</v>
@@ -5615,7 +5615,9 @@
       </c>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
-      <c r="L18" s="51"/>
+      <c r="L18" s="51">
+        <v>0</v>
+      </c>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
       <c r="O18" s="52"/>
@@ -5864,9 +5866,15 @@
       <c r="DH18" s="60">
         <v>89</v>
       </c>
-      <c r="DI18" s="60"/>
-      <c r="DJ18" s="60"/>
-      <c r="DK18" s="60"/>
+      <c r="DI18" s="60">
+        <v>89</v>
+      </c>
+      <c r="DJ18" s="60">
+        <v>91</v>
+      </c>
+      <c r="DK18" s="60">
+        <v>91</v>
+      </c>
       <c r="DL18" s="60"/>
       <c r="DM18" s="60"/>
       <c r="DN18" s="60"/>
@@ -5907,15 +5915,15 @@
       </c>
       <c r="K19" s="29">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L19" s="51">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M19" s="29">
         <f>K19-K21</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N19" s="29">
         <v>1</v>
@@ -6486,9 +6494,15 @@
       <c r="DH20" s="43">
         <v>85</v>
       </c>
-      <c r="DI20" s="43"/>
-      <c r="DJ20" s="43"/>
-      <c r="DK20" s="43"/>
+      <c r="DI20" s="43">
+        <v>85</v>
+      </c>
+      <c r="DJ20" s="43">
+        <v>86</v>
+      </c>
+      <c r="DK20" s="43">
+        <v>86</v>
+      </c>
       <c r="DL20" s="43"/>
       <c r="DM20" s="43"/>
       <c r="DN20" s="43"/>
@@ -6783,19 +6797,19 @@
         <v>54</v>
       </c>
       <c r="J23" s="24">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K23" s="24">
         <f t="shared" ref="K23:K27" si="7">MAX(AH24:DP24)</f>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L23" s="49">
         <f t="shared" ref="L23:L27" si="8">J23-K23</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M23" s="24">
         <f>K23-K25</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N23" s="24">
         <v>1</v>
@@ -7041,7 +7055,9 @@
       </c>
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
+      <c r="L24" s="29">
+        <v>7</v>
+      </c>
       <c r="M24" s="29"/>
       <c r="N24" s="29"/>
       <c r="O24" s="43"/>
@@ -7290,9 +7306,15 @@
       <c r="DH24" s="43">
         <v>69</v>
       </c>
-      <c r="DI24" s="43"/>
-      <c r="DJ24" s="43"/>
-      <c r="DK24" s="43"/>
+      <c r="DI24" s="43">
+        <v>69</v>
+      </c>
+      <c r="DJ24" s="43">
+        <v>70</v>
+      </c>
+      <c r="DK24" s="43">
+        <v>76</v>
+      </c>
       <c r="DL24" s="43"/>
       <c r="DM24" s="43"/>
       <c r="DN24" s="43"/>
@@ -7325,7 +7347,7 @@
       </c>
       <c r="J25" s="29">
         <f>J23</f>
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K25" s="29">
         <f t="shared" si="7"/>
@@ -7333,7 +7355,7 @@
       </c>
       <c r="L25" s="51">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="M25" s="29">
         <f>K25-K27</f>
@@ -7830,9 +7852,15 @@
       <c r="DH26" s="43">
         <v>64</v>
       </c>
-      <c r="DI26" s="43"/>
-      <c r="DJ26" s="43"/>
-      <c r="DK26" s="43"/>
+      <c r="DI26" s="43">
+        <v>64</v>
+      </c>
+      <c r="DJ26" s="43">
+        <v>64</v>
+      </c>
+      <c r="DK26" s="43">
+        <v>64</v>
+      </c>
       <c r="DL26" s="43"/>
       <c r="DM26" s="43"/>
       <c r="DN26" s="43"/>
@@ -7857,7 +7885,7 @@
       </c>
       <c r="J27" s="29">
         <f>J25</f>
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K27" s="29">
         <f t="shared" si="7"/>
@@ -7865,7 +7893,7 @@
       </c>
       <c r="L27" s="51">
         <f t="shared" si="8"/>
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="M27" s="29"/>
       <c r="N27" s="29"/>
@@ -8127,19 +8155,19 @@
         <v>54</v>
       </c>
       <c r="J29" s="24">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K29" s="24">
         <f t="shared" ref="K29:K33" si="11">MAX(AH30:DP30)</f>
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="L29" s="49">
         <f t="shared" ref="L29:L33" si="12">J29-K29</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M29" s="24">
         <f>K29-K31</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N29" s="24">
         <v>2</v>
@@ -8505,7 +8533,9 @@
       </c>
       <c r="J30" s="29"/>
       <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
+      <c r="L30" s="29">
+        <v>10</v>
+      </c>
       <c r="M30" s="29"/>
       <c r="N30" s="29"/>
       <c r="O30" s="43"/>
@@ -8754,9 +8784,15 @@
       <c r="DH30" s="43">
         <v>141</v>
       </c>
-      <c r="DI30" s="43"/>
-      <c r="DJ30" s="43"/>
-      <c r="DK30" s="43"/>
+      <c r="DI30" s="43">
+        <v>141</v>
+      </c>
+      <c r="DJ30" s="43">
+        <v>141</v>
+      </c>
+      <c r="DK30" s="43">
+        <v>152</v>
+      </c>
       <c r="DL30" s="43"/>
       <c r="DM30" s="43"/>
       <c r="DN30" s="43"/>
@@ -8789,19 +8825,19 @@
       </c>
       <c r="J31" s="29">
         <f>J29</f>
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K31" s="29">
         <f t="shared" si="11"/>
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L31" s="51">
         <f t="shared" si="12"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M31" s="29">
         <f>K31-K33</f>
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N31" s="29">
         <v>2</v>
@@ -9414,9 +9450,15 @@
       <c r="DH32" s="43">
         <v>137</v>
       </c>
-      <c r="DI32" s="43"/>
-      <c r="DJ32" s="43"/>
-      <c r="DK32" s="43"/>
+      <c r="DI32" s="43">
+        <v>137</v>
+      </c>
+      <c r="DJ32" s="43">
+        <v>137</v>
+      </c>
+      <c r="DK32" s="43">
+        <v>138</v>
+      </c>
       <c r="DL32" s="43"/>
       <c r="DM32" s="43"/>
       <c r="DN32" s="43"/>
@@ -9439,7 +9481,7 @@
       <c r="I33" s="52"/>
       <c r="J33" s="29">
         <f>J31</f>
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K33" s="29">
         <f t="shared" si="11"/>
@@ -9447,7 +9489,7 @@
       </c>
       <c r="L33" s="51">
         <f t="shared" si="12"/>
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M33" s="29"/>
       <c r="N33" s="29"/>
@@ -9707,19 +9749,19 @@
         <v>54</v>
       </c>
       <c r="J35" s="24">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K35" s="24">
         <f t="shared" ref="K35:K39" si="18">MAX(AH36:DP36)</f>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L35" s="49">
         <f t="shared" ref="L35:L39" si="19">J35-K35</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M35" s="24">
         <f>K35-K37</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N35" s="24">
         <v>1</v>
@@ -10016,7 +10058,9 @@
       </c>
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
+      <c r="L36" s="29">
+        <v>11</v>
+      </c>
       <c r="M36" s="29"/>
       <c r="N36" s="29"/>
       <c r="O36" s="43"/>
@@ -10265,9 +10309,15 @@
       <c r="DH36" s="43">
         <v>46</v>
       </c>
-      <c r="DI36" s="43"/>
-      <c r="DJ36" s="43"/>
-      <c r="DK36" s="43"/>
+      <c r="DI36" s="43">
+        <v>46</v>
+      </c>
+      <c r="DJ36" s="43">
+        <v>47</v>
+      </c>
+      <c r="DK36" s="43">
+        <v>51</v>
+      </c>
       <c r="DL36" s="43"/>
       <c r="DM36" s="43"/>
       <c r="DN36" s="43"/>
@@ -10298,7 +10348,7 @@
       </c>
       <c r="J37" s="29">
         <f>J35</f>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K37" s="29">
         <f t="shared" si="18"/>
@@ -10306,7 +10356,7 @@
       </c>
       <c r="L37" s="51">
         <f t="shared" si="19"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M37" s="29">
         <f>K37-K39</f>
@@ -10854,9 +10904,15 @@
       <c r="DH38" s="43">
         <v>44</v>
       </c>
-      <c r="DI38" s="43"/>
-      <c r="DJ38" s="43"/>
-      <c r="DK38" s="43"/>
+      <c r="DI38" s="43">
+        <v>44</v>
+      </c>
+      <c r="DJ38" s="43">
+        <v>44</v>
+      </c>
+      <c r="DK38" s="43">
+        <v>44</v>
+      </c>
       <c r="DL38" s="43"/>
       <c r="DM38" s="43"/>
       <c r="DN38" s="43"/>
@@ -10881,7 +10937,7 @@
       </c>
       <c r="J39" s="29">
         <f>J37</f>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K39" s="29">
         <f t="shared" si="18"/>
@@ -10889,7 +10945,7 @@
       </c>
       <c r="L39" s="51">
         <f t="shared" si="19"/>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M39" s="29"/>
       <c r="N39" s="29"/>
@@ -11149,19 +11205,19 @@
         <v>54</v>
       </c>
       <c r="J41" s="24">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K41" s="24">
         <f t="shared" ref="K41:K45" si="23">MAX(AH42:DP42)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L41" s="49">
         <f t="shared" ref="L41:L45" si="24">J41-K41</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M41" s="24">
         <f>K41-K43</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N41" s="24">
         <v>1</v>
@@ -11458,7 +11514,9 @@
       </c>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
+      <c r="L42" s="29">
+        <v>6</v>
+      </c>
       <c r="M42" s="29"/>
       <c r="N42" s="29"/>
       <c r="O42" s="43"/>
@@ -11703,9 +11761,15 @@
       <c r="DH42" s="43">
         <v>52</v>
       </c>
-      <c r="DI42" s="43"/>
-      <c r="DJ42" s="43"/>
-      <c r="DK42" s="43"/>
+      <c r="DI42" s="43">
+        <v>52</v>
+      </c>
+      <c r="DJ42" s="43">
+        <v>52</v>
+      </c>
+      <c r="DK42" s="43">
+        <v>54</v>
+      </c>
       <c r="DL42" s="43"/>
       <c r="DM42" s="43"/>
       <c r="DN42" s="43"/>
@@ -11736,7 +11800,7 @@
       </c>
       <c r="J43" s="29">
         <f>J41</f>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K43" s="29">
         <f t="shared" si="23"/>
@@ -11744,7 +11808,7 @@
       </c>
       <c r="L43" s="51">
         <f t="shared" si="24"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M43" s="29">
         <f>K43-K45</f>
@@ -12288,9 +12352,15 @@
       <c r="DH44" s="43">
         <v>49</v>
       </c>
-      <c r="DI44" s="43"/>
-      <c r="DJ44" s="43"/>
-      <c r="DK44" s="43"/>
+      <c r="DI44" s="43">
+        <v>49</v>
+      </c>
+      <c r="DJ44" s="43">
+        <v>49</v>
+      </c>
+      <c r="DK44" s="43">
+        <v>49</v>
+      </c>
       <c r="DL44" s="43"/>
       <c r="DM44" s="43"/>
       <c r="DN44" s="43"/>
@@ -12315,7 +12385,7 @@
       </c>
       <c r="J45" s="29">
         <f>J43</f>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K45" s="29">
         <f t="shared" si="23"/>
@@ -12323,7 +12393,7 @@
       </c>
       <c r="L45" s="51">
         <f t="shared" si="24"/>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="M45" s="29"/>
       <c r="N45" s="29"/>
@@ -12583,7 +12653,7 @@
         <v>54</v>
       </c>
       <c r="J47" s="24">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K47" s="24">
         <f t="shared" ref="K47:K51" si="28">MAX(AH48:DP48)</f>
@@ -12591,7 +12661,7 @@
       </c>
       <c r="L47" s="49">
         <f t="shared" ref="L47:L51" si="29">J47-K47</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M47" s="24">
         <f>K47-K49</f>
@@ -12958,7 +13028,9 @@
       </c>
       <c r="J48" s="29"/>
       <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
+      <c r="L48" s="29">
+        <v>3</v>
+      </c>
       <c r="M48" s="29"/>
       <c r="N48" s="29"/>
       <c r="O48" s="43"/>
@@ -13203,9 +13275,15 @@
       <c r="DH48" s="43">
         <v>142</v>
       </c>
-      <c r="DI48" s="43"/>
-      <c r="DJ48" s="43"/>
-      <c r="DK48" s="43"/>
+      <c r="DI48" s="43">
+        <v>142</v>
+      </c>
+      <c r="DJ48" s="43">
+        <v>143</v>
+      </c>
+      <c r="DK48" s="43">
+        <v>145</v>
+      </c>
       <c r="DL48" s="43"/>
       <c r="DM48" s="43"/>
       <c r="DN48" s="43"/>
@@ -13236,7 +13314,7 @@
       </c>
       <c r="J49" s="29">
         <f>J47</f>
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K49" s="29">
         <f t="shared" si="28"/>
@@ -13244,7 +13322,7 @@
       </c>
       <c r="L49" s="51">
         <f t="shared" si="29"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M49" s="29">
         <f>K49-K51</f>
@@ -13854,9 +13932,15 @@
       <c r="DH50" s="43">
         <v>134</v>
       </c>
-      <c r="DI50" s="43"/>
-      <c r="DJ50" s="43"/>
-      <c r="DK50" s="43"/>
+      <c r="DI50" s="43">
+        <v>134</v>
+      </c>
+      <c r="DJ50" s="43">
+        <v>134</v>
+      </c>
+      <c r="DK50" s="43">
+        <v>134</v>
+      </c>
       <c r="DL50" s="43"/>
       <c r="DM50" s="43"/>
       <c r="DN50" s="43"/>
@@ -13881,7 +13965,7 @@
       </c>
       <c r="J51" s="29">
         <f>J49</f>
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K51" s="29">
         <f t="shared" si="28"/>
@@ -13889,7 +13973,7 @@
       </c>
       <c r="L51" s="51">
         <f t="shared" si="29"/>
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M51" s="29"/>
       <c r="N51" s="29"/>
@@ -14149,19 +14233,19 @@
         <v>54</v>
       </c>
       <c r="J53" s="24">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K53" s="24">
         <f t="shared" ref="K53:K57" si="35">MAX(AH54:DP54)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L53" s="49">
         <f t="shared" ref="L53:L57" si="36">J53-K53</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M53" s="24">
         <f>K53-K55</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N53" s="24">
         <v>1</v>
@@ -14383,7 +14467,9 @@
       </c>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
+      <c r="L54" s="29">
+        <v>3</v>
+      </c>
       <c r="M54" s="29"/>
       <c r="N54" s="29"/>
       <c r="O54" s="43"/>
@@ -14548,9 +14634,15 @@
       <c r="DH54" s="43">
         <v>24</v>
       </c>
-      <c r="DI54" s="43"/>
-      <c r="DJ54" s="43"/>
-      <c r="DK54" s="43"/>
+      <c r="DI54" s="43">
+        <v>24</v>
+      </c>
+      <c r="DJ54" s="43">
+        <v>24</v>
+      </c>
+      <c r="DK54" s="43">
+        <v>28</v>
+      </c>
       <c r="DL54" s="43"/>
       <c r="DM54" s="43"/>
       <c r="DN54" s="43"/>
@@ -14581,19 +14673,19 @@
       </c>
       <c r="J55" s="29">
         <f>J53</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K55" s="29">
         <f t="shared" si="35"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L55" s="51">
         <f t="shared" si="36"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M55" s="29">
         <f>K55-K57</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N55" s="29">
         <v>1</v>
@@ -14978,9 +15070,15 @@
       <c r="DH56" s="43">
         <v>24</v>
       </c>
-      <c r="DI56" s="43"/>
-      <c r="DJ56" s="43"/>
-      <c r="DK56" s="43"/>
+      <c r="DI56" s="43">
+        <v>24</v>
+      </c>
+      <c r="DJ56" s="43">
+        <v>24</v>
+      </c>
+      <c r="DK56" s="43">
+        <v>25</v>
+      </c>
       <c r="DL56" s="43"/>
       <c r="DM56" s="43"/>
       <c r="DN56" s="43"/>
@@ -15005,7 +15103,7 @@
       </c>
       <c r="J57" s="29">
         <f>J55</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K57" s="29">
         <f t="shared" si="35"/>
@@ -15013,7 +15111,7 @@
       </c>
       <c r="L57" s="51">
         <f t="shared" si="36"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M57" s="29"/>
       <c r="N57" s="29"/>
@@ -15277,11 +15375,11 @@
       </c>
       <c r="K59" s="24">
         <f t="shared" ref="K59:K63" si="39">MAX(AH60:DP60)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L59" s="49">
         <f t="shared" ref="L59:L63" si="40">J59-K59</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" s="24">
         <f>K59-K61</f>
@@ -15433,7 +15531,9 @@
       </c>
       <c r="J60" s="29"/>
       <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
+      <c r="L60" s="29">
+        <v>0</v>
+      </c>
       <c r="M60" s="29"/>
       <c r="N60" s="29"/>
       <c r="O60" s="43"/>
@@ -15598,9 +15698,15 @@
       <c r="DH60" s="43">
         <v>8</v>
       </c>
-      <c r="DI60" s="43"/>
-      <c r="DJ60" s="43"/>
-      <c r="DK60" s="43"/>
+      <c r="DI60" s="43">
+        <v>8</v>
+      </c>
+      <c r="DJ60" s="43">
+        <v>8</v>
+      </c>
+      <c r="DK60" s="43">
+        <v>10</v>
+      </c>
       <c r="DL60" s="43"/>
       <c r="DM60" s="43"/>
       <c r="DN60" s="43"/>
@@ -15635,15 +15741,15 @@
       </c>
       <c r="K61" s="29">
         <f t="shared" si="39"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L61" s="51">
         <f t="shared" si="40"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M61" s="29">
         <f>K61-K63</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N61" s="29">
         <v>0</v>
@@ -16006,9 +16112,15 @@
       <c r="DH62" s="43">
         <v>8</v>
       </c>
-      <c r="DI62" s="43"/>
-      <c r="DJ62" s="43"/>
-      <c r="DK62" s="43"/>
+      <c r="DI62" s="43">
+        <v>8</v>
+      </c>
+      <c r="DJ62" s="43">
+        <v>8</v>
+      </c>
+      <c r="DK62" s="43">
+        <v>9</v>
+      </c>
       <c r="DL62" s="43"/>
       <c r="DM62" s="43"/>
       <c r="DN62" s="43"/>
@@ -16447,7 +16559,9 @@
       </c>
       <c r="J66" s="29"/>
       <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
+      <c r="L66" s="29">
+        <v>0</v>
+      </c>
       <c r="M66" s="29"/>
       <c r="N66" s="29"/>
       <c r="O66" s="43"/>
@@ -16604,9 +16718,15 @@
       <c r="DH66" s="43">
         <v>2</v>
       </c>
-      <c r="DI66" s="43"/>
-      <c r="DJ66" s="43"/>
-      <c r="DK66" s="43"/>
+      <c r="DI66" s="43">
+        <v>2</v>
+      </c>
+      <c r="DJ66" s="43">
+        <v>2</v>
+      </c>
+      <c r="DK66" s="43">
+        <v>2</v>
+      </c>
       <c r="DL66" s="43"/>
       <c r="DM66" s="43"/>
       <c r="DN66" s="43"/>
@@ -16938,9 +17058,15 @@
       <c r="DH68" s="43">
         <v>2</v>
       </c>
-      <c r="DI68" s="43"/>
-      <c r="DJ68" s="43"/>
-      <c r="DK68" s="43"/>
+      <c r="DI68" s="43">
+        <v>2</v>
+      </c>
+      <c r="DJ68" s="43">
+        <v>2</v>
+      </c>
+      <c r="DK68" s="43">
+        <v>2</v>
+      </c>
       <c r="DL68" s="43"/>
       <c r="DM68" s="43"/>
       <c r="DN68" s="43"/>
@@ -17233,7 +17359,7 @@
         <v>54</v>
       </c>
       <c r="J71" s="24">
-        <v>274</v>
+        <v>134</v>
       </c>
       <c r="K71" s="24">
         <f t="shared" ref="K71:K75" si="43">MAX(AH72:DP72)</f>
@@ -17241,11 +17367,11 @@
       </c>
       <c r="L71" s="49">
         <f t="shared" ref="L71:L75" si="44">J71-K71</f>
-        <v>69</v>
+        <v>-71</v>
       </c>
       <c r="M71" s="24">
         <f>K71-K73</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N71" s="24">
         <v>1</v>
@@ -17629,7 +17755,9 @@
       </c>
       <c r="J72" s="29"/>
       <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
+      <c r="L72" s="29">
+        <v>5</v>
+      </c>
       <c r="M72" s="29"/>
       <c r="N72" s="29"/>
       <c r="O72" s="43"/>
@@ -17874,9 +18002,15 @@
       <c r="DH72" s="43">
         <v>205</v>
       </c>
-      <c r="DI72" s="43"/>
-      <c r="DJ72" s="43"/>
-      <c r="DK72" s="43"/>
+      <c r="DI72" s="43">
+        <v>205</v>
+      </c>
+      <c r="DJ72" s="43">
+        <v>205</v>
+      </c>
+      <c r="DK72" s="43">
+        <v>129</v>
+      </c>
       <c r="DL72" s="43"/>
       <c r="DM72" s="43"/>
       <c r="DN72" s="43"/>
@@ -17905,19 +18039,19 @@
       </c>
       <c r="J73" s="29">
         <f>J71</f>
-        <v>274</v>
+        <v>134</v>
       </c>
       <c r="K73" s="29">
         <f t="shared" si="43"/>
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="L73" s="51">
         <f t="shared" si="44"/>
-        <v>80</v>
+        <v>-67</v>
       </c>
       <c r="M73" s="29">
         <f>K73-K75</f>
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="N73" s="29">
         <v>1</v>
@@ -18544,9 +18678,15 @@
       <c r="DH74" s="43">
         <v>194</v>
       </c>
-      <c r="DI74" s="43"/>
-      <c r="DJ74" s="43"/>
-      <c r="DK74" s="43"/>
+      <c r="DI74" s="43">
+        <v>197</v>
+      </c>
+      <c r="DJ74" s="43">
+        <v>201</v>
+      </c>
+      <c r="DK74" s="43">
+        <v>119</v>
+      </c>
       <c r="DL74" s="43"/>
       <c r="DM74" s="43"/>
       <c r="DN74" s="43"/>
@@ -18571,7 +18711,7 @@
       </c>
       <c r="J75" s="29">
         <f>J73</f>
-        <v>274</v>
+        <v>134</v>
       </c>
       <c r="K75" s="29">
         <f t="shared" si="43"/>
@@ -18579,7 +18719,7 @@
       </c>
       <c r="L75" s="51">
         <f t="shared" si="44"/>
-        <v>274</v>
+        <v>134</v>
       </c>
       <c r="M75" s="29"/>
       <c r="N75" s="29"/>
@@ -18840,19 +18980,19 @@
       </c>
       <c r="J77" s="75">
         <f>J17+J23+J29+J35+J41+J47+J53+J59+J65+J71</f>
-        <v>908</v>
+        <v>802</v>
       </c>
       <c r="K77" s="86">
         <f>MAX(O78:DP78)</f>
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="L77" s="87">
         <f t="shared" ref="L77:L81" si="50">J77-K77</f>
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="M77" s="86">
         <f>K77-K79</f>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N77" s="86">
         <v>9</v>
@@ -19571,9 +19711,18 @@
         <f t="shared" si="55"/>
         <v>778</v>
       </c>
-      <c r="DI78" s="43"/>
-      <c r="DJ78" s="43"/>
-      <c r="DK78" s="43"/>
+      <c r="DI78" s="43">
+        <f>DI18+DI24+DI30+DI36+DI42+DI48+DI54+DI60+DI66+DI72</f>
+        <v>778</v>
+      </c>
+      <c r="DJ78" s="43">
+        <f>DJ18+DJ24+DJ30+DJ36+DJ42+DJ48+DJ54+DJ60+DJ66+DJ72</f>
+        <v>783</v>
+      </c>
+      <c r="DK78" s="43">
+        <f>DK18+DK24+DK30+DK36+DK42+DK48+DK54+DK60+DK66+DK72</f>
+        <v>738</v>
+      </c>
       <c r="DL78" s="43"/>
       <c r="DM78" s="43"/>
       <c r="DN78" s="43"/>
@@ -19596,19 +19745,19 @@
       </c>
       <c r="J79" s="90">
         <f>J77</f>
-        <v>908</v>
+        <v>802</v>
       </c>
       <c r="K79" s="90">
         <f>MAX(O80:DP80)</f>
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="L79" s="91">
         <f t="shared" si="50"/>
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="M79" s="90">
         <f>K79-K81</f>
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="N79" s="88">
         <v>9</v>
@@ -20331,9 +20480,18 @@
         <f t="shared" si="63"/>
         <v>741</v>
       </c>
-      <c r="DI80" s="43"/>
-      <c r="DJ80" s="43"/>
-      <c r="DK80" s="43"/>
+      <c r="DI80" s="43">
+        <f>DI20+DI26+DI32+DI38+DI44+DI50+DI56+DI62+DI68+DI74</f>
+        <v>744</v>
+      </c>
+      <c r="DJ80" s="43">
+        <f>DJ20+DJ26+DJ32+DJ38+DJ44+DJ50+DJ56+DJ62+DJ68+DJ74</f>
+        <v>749</v>
+      </c>
+      <c r="DK80" s="43">
+        <f>DK20+DK26+DK32+DK38+DK44+DK50+DK56+DK62+DK68+DK74</f>
+        <v>670</v>
+      </c>
       <c r="DL80" s="43"/>
       <c r="DM80" s="43"/>
       <c r="DN80" s="43"/>
@@ -20354,7 +20512,7 @@
       </c>
       <c r="J81" s="90">
         <f>J79</f>
-        <v>908</v>
+        <v>802</v>
       </c>
       <c r="K81" s="90">
         <f>MAX(AH82:DP82)</f>
@@ -20362,7 +20520,7 @@
       </c>
       <c r="L81" s="91">
         <f t="shared" si="50"/>
-        <v>908</v>
+        <v>802</v>
       </c>
       <c r="M81" s="90"/>
       <c r="N81" s="88"/>

--- a/UPGRADE 3100-5000.xlsx
+++ b/UPGRADE 3100-5000.xlsx
@@ -1195,8 +1195,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
@@ -1237,10 +1237,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1251,16 +1250,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1274,15 +1272,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1296,6 +1294,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1305,16 +1334,31 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1329,30 +1373,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1360,30 +1380,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1479,31 +1479,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1515,103 +1515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1629,13 +1533,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1873,17 +1873,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1904,39 +1907,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1947,6 +1917,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1970,16 +1955,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2000,122 +2000,122 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2742,7 +2742,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CX75" sqref="CX75"/>
+      <selection pane="bottomRight" activeCell="DK80" sqref="DK80:DP80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="11.25"/>
@@ -5283,15 +5283,15 @@
       </c>
       <c r="K17" s="24">
         <f t="shared" ref="K17:K21" si="0">MAX(AH18:DP18)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L17" s="49">
         <f t="shared" ref="L17:L21" si="1">J17-K17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="24">
         <f>K17-K19</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" s="24">
         <v>1</v>
@@ -5879,7 +5879,9 @@
       <c r="DM18" s="60"/>
       <c r="DN18" s="60"/>
       <c r="DO18" s="60"/>
-      <c r="DP18" s="69"/>
+      <c r="DP18" s="69">
+        <v>92</v>
+      </c>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:120">
       <c r="A19" s="26">
@@ -5915,15 +5917,15 @@
       </c>
       <c r="K19" s="29">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L19" s="51">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M19" s="29">
         <f>K19-K21</f>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N19" s="29">
         <v>1</v>
@@ -6507,7 +6509,9 @@
       <c r="DM20" s="43"/>
       <c r="DN20" s="43"/>
       <c r="DO20" s="43"/>
-      <c r="DP20" s="70"/>
+      <c r="DP20" s="70">
+        <v>88</v>
+      </c>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:120">
       <c r="A21" s="26"/>
@@ -6801,15 +6805,15 @@
       </c>
       <c r="K23" s="24">
         <f t="shared" ref="K23:K27" si="7">MAX(AH24:DP24)</f>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L23" s="49">
         <f t="shared" ref="L23:L27" si="8">J23-K23</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M23" s="24">
         <f>K23-K25</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N23" s="24">
         <v>1</v>
@@ -7319,7 +7323,9 @@
       <c r="DM24" s="43"/>
       <c r="DN24" s="43"/>
       <c r="DO24" s="43"/>
-      <c r="DP24" s="70"/>
+      <c r="DP24" s="70">
+        <v>78</v>
+      </c>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:120">
       <c r="A25" s="26">
@@ -7351,15 +7357,15 @@
       </c>
       <c r="K25" s="29">
         <f t="shared" si="7"/>
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="L25" s="51">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M25" s="29">
         <f>K25-K27</f>
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="N25" s="29">
         <v>1</v>
@@ -7865,7 +7871,9 @@
       <c r="DM26" s="43"/>
       <c r="DN26" s="43"/>
       <c r="DO26" s="43"/>
-      <c r="DP26" s="70"/>
+      <c r="DP26" s="70">
+        <v>73</v>
+      </c>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="1:120">
       <c r="A27" s="26"/>
@@ -8167,7 +8175,7 @@
       </c>
       <c r="M29" s="24">
         <f>K29-K31</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N29" s="24">
         <v>2</v>
@@ -8797,7 +8805,9 @@
       <c r="DM30" s="43"/>
       <c r="DN30" s="43"/>
       <c r="DO30" s="43"/>
-      <c r="DP30" s="70"/>
+      <c r="DP30" s="70">
+        <v>152</v>
+      </c>
     </row>
     <row r="31" ht="22.5" customHeight="1" spans="1:120">
       <c r="A31" s="26">
@@ -8829,15 +8839,15 @@
       </c>
       <c r="K31" s="29">
         <f t="shared" si="11"/>
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L31" s="51">
         <f t="shared" si="12"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M31" s="29">
         <f>K31-K33</f>
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N31" s="29">
         <v>2</v>
@@ -9463,7 +9473,9 @@
       <c r="DM32" s="43"/>
       <c r="DN32" s="43"/>
       <c r="DO32" s="43"/>
-      <c r="DP32" s="70"/>
+      <c r="DP32" s="70">
+        <v>142</v>
+      </c>
     </row>
     <row r="33" ht="22.5" customHeight="1" spans="1:120">
       <c r="A33" s="26"/>
@@ -9761,7 +9773,7 @@
       </c>
       <c r="M35" s="24">
         <f>K35-K37</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N35" s="24">
         <v>1</v>
@@ -10322,7 +10334,9 @@
       <c r="DM36" s="43"/>
       <c r="DN36" s="43"/>
       <c r="DO36" s="43"/>
-      <c r="DP36" s="70"/>
+      <c r="DP36" s="70">
+        <v>51</v>
+      </c>
     </row>
     <row r="37" ht="22.5" customHeight="1" spans="1:120">
       <c r="A37" s="26">
@@ -10352,15 +10366,15 @@
       </c>
       <c r="K37" s="29">
         <f t="shared" si="18"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L37" s="51">
         <f t="shared" si="19"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M37" s="29">
         <f>K37-K39</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N37" s="29">
         <v>1</v>
@@ -10917,7 +10931,9 @@
       <c r="DM38" s="43"/>
       <c r="DN38" s="43"/>
       <c r="DO38" s="43"/>
-      <c r="DP38" s="70"/>
+      <c r="DP38" s="70">
+        <v>47</v>
+      </c>
     </row>
     <row r="39" ht="22.5" customHeight="1" spans="1:120">
       <c r="A39" s="26"/>
@@ -11774,7 +11790,9 @@
       <c r="DM42" s="43"/>
       <c r="DN42" s="43"/>
       <c r="DO42" s="43"/>
-      <c r="DP42" s="70"/>
+      <c r="DP42" s="70">
+        <v>53</v>
+      </c>
     </row>
     <row r="43" ht="22.5" customHeight="1" spans="1:120">
       <c r="A43" s="26">
@@ -12365,7 +12383,9 @@
       <c r="DM44" s="43"/>
       <c r="DN44" s="43"/>
       <c r="DO44" s="43"/>
-      <c r="DP44" s="70"/>
+      <c r="DP44" s="70">
+        <v>49</v>
+      </c>
     </row>
     <row r="45" ht="22.5" customHeight="1" spans="1:120">
       <c r="A45" s="26"/>
@@ -12657,15 +12677,15 @@
       </c>
       <c r="K47" s="24">
         <f t="shared" ref="K47:K51" si="28">MAX(AH48:DP48)</f>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L47" s="49">
         <f t="shared" ref="L47:L51" si="29">J47-K47</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M47" s="24">
         <f>K47-K49</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N47" s="24">
         <v>2</v>
@@ -13288,7 +13308,9 @@
       <c r="DM48" s="43"/>
       <c r="DN48" s="43"/>
       <c r="DO48" s="43"/>
-      <c r="DP48" s="70"/>
+      <c r="DP48" s="70">
+        <v>148</v>
+      </c>
     </row>
     <row r="49" ht="22.5" customHeight="1" spans="1:120">
       <c r="A49" s="26">
@@ -13318,15 +13340,15 @@
       </c>
       <c r="K49" s="29">
         <f t="shared" si="28"/>
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="L49" s="51">
         <f t="shared" si="29"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M49" s="29">
         <f>K49-K51</f>
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="N49" s="29">
         <v>2</v>
@@ -13945,7 +13967,9 @@
       <c r="DM50" s="43"/>
       <c r="DN50" s="43"/>
       <c r="DO50" s="43"/>
-      <c r="DP50" s="70"/>
+      <c r="DP50" s="70">
+        <v>141</v>
+      </c>
     </row>
     <row r="51" ht="22.5" customHeight="1" spans="1:120">
       <c r="A51" s="26"/>
@@ -14245,7 +14269,7 @@
       </c>
       <c r="M53" s="24">
         <f>K53-K55</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N53" s="24">
         <v>1</v>
@@ -14647,7 +14671,9 @@
       <c r="DM54" s="43"/>
       <c r="DN54" s="43"/>
       <c r="DO54" s="43"/>
-      <c r="DP54" s="70"/>
+      <c r="DP54" s="70">
+        <v>28</v>
+      </c>
     </row>
     <row r="55" ht="22.5" customHeight="1" spans="1:120">
       <c r="A55" s="26">
@@ -14677,15 +14703,15 @@
       </c>
       <c r="K55" s="29">
         <f t="shared" si="35"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L55" s="51">
         <f t="shared" si="36"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M55" s="29">
         <f>K55-K57</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N55" s="29">
         <v>1</v>
@@ -15083,7 +15109,9 @@
       <c r="DM56" s="43"/>
       <c r="DN56" s="43"/>
       <c r="DO56" s="43"/>
-      <c r="DP56" s="70"/>
+      <c r="DP56" s="70">
+        <v>28</v>
+      </c>
     </row>
     <row r="57" ht="22.5" customHeight="1" spans="1:120">
       <c r="A57" s="26"/>
@@ -15383,7 +15411,7 @@
       </c>
       <c r="M59" s="24">
         <f>K59-K61</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" s="24">
         <v>0</v>
@@ -15711,7 +15739,9 @@
       <c r="DM60" s="43"/>
       <c r="DN60" s="43"/>
       <c r="DO60" s="43"/>
-      <c r="DP60" s="70"/>
+      <c r="DP60" s="70">
+        <v>10</v>
+      </c>
     </row>
     <row r="61" ht="22.5" customHeight="1" spans="1:120">
       <c r="A61" s="26">
@@ -15741,15 +15771,15 @@
       </c>
       <c r="K61" s="29">
         <f t="shared" si="39"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L61" s="51">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" s="29">
         <f>K61-K63</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N61" s="29">
         <v>0</v>
@@ -16125,7 +16155,9 @@
       <c r="DM62" s="43"/>
       <c r="DN62" s="43"/>
       <c r="DO62" s="43"/>
-      <c r="DP62" s="70"/>
+      <c r="DP62" s="70">
+        <v>10</v>
+      </c>
     </row>
     <row r="63" ht="22.5" customHeight="1" spans="1:120">
       <c r="A63" s="26"/>
@@ -16731,7 +16763,9 @@
       <c r="DM66" s="43"/>
       <c r="DN66" s="43"/>
       <c r="DO66" s="43"/>
-      <c r="DP66" s="70"/>
+      <c r="DP66" s="70">
+        <v>2</v>
+      </c>
     </row>
     <row r="67" ht="22.5" customHeight="1" spans="1:120">
       <c r="A67" s="26">
@@ -17071,7 +17105,9 @@
       <c r="DM68" s="43"/>
       <c r="DN68" s="43"/>
       <c r="DO68" s="43"/>
-      <c r="DP68" s="70"/>
+      <c r="DP68" s="70">
+        <v>2</v>
+      </c>
     </row>
     <row r="69" ht="22.5" customHeight="1" spans="1:120">
       <c r="A69" s="26"/>
@@ -18015,7 +18051,9 @@
       <c r="DM72" s="43"/>
       <c r="DN72" s="43"/>
       <c r="DO72" s="43"/>
-      <c r="DP72" s="70"/>
+      <c r="DP72" s="70">
+        <v>129</v>
+      </c>
     </row>
     <row r="73" ht="22.5" customHeight="1" spans="1:120">
       <c r="A73" s="26"/>
@@ -18691,7 +18729,9 @@
       <c r="DM74" s="43"/>
       <c r="DN74" s="43"/>
       <c r="DO74" s="43"/>
-      <c r="DP74" s="70"/>
+      <c r="DP74" s="70">
+        <v>124</v>
+      </c>
     </row>
     <row r="75" ht="22.5" customHeight="1" spans="1:120">
       <c r="A75" s="26"/>
@@ -19688,7 +19728,7 @@
         <v>771</v>
       </c>
       <c r="DC78" s="43">
-        <f t="shared" ref="DC78:DH78" si="55">DC18+DC24+DC30+DC36+DC42+DC48+DC54+DC60+DC66+DC72</f>
+        <f t="shared" ref="DC78:DK78" si="55">DC18+DC24+DC30+DC36+DC42+DC48+DC54+DC60+DC66+DC72</f>
         <v>0</v>
       </c>
       <c r="DD78" s="43">
@@ -19712,22 +19752,37 @@
         <v>778</v>
       </c>
       <c r="DI78" s="43">
-        <f>DI18+DI24+DI30+DI36+DI42+DI48+DI54+DI60+DI66+DI72</f>
+        <f t="shared" si="55"/>
         <v>778</v>
       </c>
       <c r="DJ78" s="43">
-        <f>DJ18+DJ24+DJ30+DJ36+DJ42+DJ48+DJ54+DJ60+DJ66+DJ72</f>
+        <f t="shared" si="55"/>
         <v>783</v>
       </c>
       <c r="DK78" s="43">
-        <f>DK18+DK24+DK30+DK36+DK42+DK48+DK54+DK60+DK66+DK72</f>
+        <f t="shared" si="55"/>
         <v>738</v>
       </c>
-      <c r="DL78" s="43"/>
-      <c r="DM78" s="43"/>
-      <c r="DN78" s="43"/>
-      <c r="DO78" s="43"/>
-      <c r="DP78" s="70"/>
+      <c r="DL78" s="43">
+        <f>DL18+DL24+DL30+DL36+DL42+DL48+DL54+DL60+DL66+DL72</f>
+        <v>0</v>
+      </c>
+      <c r="DM78" s="43">
+        <f>DM18+DM24+DM30+DM36+DM42+DM48+DM54+DM60+DM66+DM72</f>
+        <v>0</v>
+      </c>
+      <c r="DN78" s="43">
+        <f>DN18+DN24+DN30+DN36+DN42+DN48+DN54+DN60+DN66+DN72</f>
+        <v>0</v>
+      </c>
+      <c r="DO78" s="43">
+        <f>DO18+DO24+DO30+DO36+DO42+DO48+DO54+DO60+DO66+DO72</f>
+        <v>0</v>
+      </c>
+      <c r="DP78" s="43">
+        <f>DP18+DP24+DP30+DP36+DP42+DP48+DP54+DP60+DP66+DP72</f>
+        <v>743</v>
+      </c>
     </row>
     <row r="79" ht="22.5" customHeight="1" spans="1:120">
       <c r="A79" s="76"/>
@@ -20457,7 +20512,7 @@
         <v>715</v>
       </c>
       <c r="DC80" s="43">
-        <f t="shared" ref="DC80:DH80" si="63">DC20+DC26+DC32+DC38+DC44+DC50+DC56+DC62+DC68+DC74</f>
+        <f t="shared" ref="DC80:DK80" si="63">DC20+DC26+DC32+DC38+DC44+DC50+DC56+DC62+DC68+DC74</f>
         <v>0</v>
       </c>
       <c r="DD80" s="43">
@@ -20481,22 +20536,37 @@
         <v>741</v>
       </c>
       <c r="DI80" s="43">
-        <f>DI20+DI26+DI32+DI38+DI44+DI50+DI56+DI62+DI68+DI74</f>
+        <f t="shared" si="63"/>
         <v>744</v>
       </c>
       <c r="DJ80" s="43">
-        <f>DJ20+DJ26+DJ32+DJ38+DJ44+DJ50+DJ56+DJ62+DJ68+DJ74</f>
+        <f t="shared" si="63"/>
         <v>749</v>
       </c>
       <c r="DK80" s="43">
-        <f>DK20+DK26+DK32+DK38+DK44+DK50+DK56+DK62+DK68+DK74</f>
+        <f t="shared" si="63"/>
         <v>670</v>
       </c>
-      <c r="DL80" s="43"/>
-      <c r="DM80" s="43"/>
-      <c r="DN80" s="43"/>
-      <c r="DO80" s="43"/>
-      <c r="DP80" s="70"/>
+      <c r="DL80" s="43">
+        <f>DL20+DL26+DL32+DL38+DL44+DL50+DL56+DL62+DL68+DL74</f>
+        <v>0</v>
+      </c>
+      <c r="DM80" s="43">
+        <f>DM20+DM26+DM32+DM38+DM44+DM50+DM56+DM62+DM68+DM74</f>
+        <v>0</v>
+      </c>
+      <c r="DN80" s="43">
+        <f>DN20+DN26+DN32+DN38+DN44+DN50+DN56+DN62+DN68+DN74</f>
+        <v>0</v>
+      </c>
+      <c r="DO80" s="43">
+        <f>DO20+DO26+DO32+DO38+DO44+DO50+DO56+DO62+DO68+DO74</f>
+        <v>0</v>
+      </c>
+      <c r="DP80" s="43">
+        <f>DP20+DP26+DP32+DP38+DP44+DP50+DP56+DP62+DP68+DP74</f>
+        <v>704</v>
+      </c>
     </row>
     <row r="81" ht="22.5" customHeight="1" spans="1:120">
       <c r="A81" s="76"/>
